--- a/excel/k_parties.xlsx
+++ b/excel/k_parties.xlsx
@@ -110,9 +110,6 @@
     <t>أحمد شقة</t>
   </si>
   <si>
-    <t>صندوق  (2)</t>
-  </si>
-  <si>
     <t>عماد الاشقر</t>
   </si>
   <si>
@@ -474,6 +471,9 @@
   </si>
   <si>
     <t>جنية</t>
+  </si>
+  <si>
+    <t>مديونية احمد</t>
   </si>
 </sst>
 </file>
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -858,16 +858,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
         <v>147</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>148</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>149</v>
-      </c>
-      <c r="E1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1004,7 +1004,7 @@
         <v>-833</v>
       </c>
       <c r="C11">
-        <v>-10920</v>
+        <v>9101</v>
       </c>
       <c r="D11">
         <v>-100</v>
@@ -1289,13 +1289,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="B32">
         <v>13670</v>
       </c>
       <c r="C32">
-        <v>-305801</v>
+        <v>-325822</v>
       </c>
       <c r="D32">
         <v>25505</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33">
         <v>729</v>
@@ -1317,7 +1317,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34">
         <v>-1156</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35">
         <v>-650</v>
@@ -1356,7 +1356,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B37">
         <v>4280</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1384,7 +1384,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B39">
         <v>-1000</v>
@@ -1409,7 +1409,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41">
         <v>-1400</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42">
         <v>-1600</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44">
         <v>-200</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1493,7 +1493,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47">
         <v>-1373</v>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48">
         <v>-800</v>
@@ -1521,7 +1521,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51">
         <v>-6100</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53">
         <v>-55</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1605,7 +1605,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55">
         <v>50</v>
@@ -1619,7 +1619,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58">
         <v>67300</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63">
         <v>-4220</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B64">
         <v>-100</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -1790,7 +1790,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B70">
         <v>-700</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B72">
         <v>-18270</v>
@@ -1860,7 +1860,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B73">
         <v>-200</v>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75">
         <v>-350</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1916,7 +1916,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77">
         <v>-80</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B78">
         <v>-800</v>
@@ -1944,7 +1944,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -1958,7 +1958,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B80">
         <v>-14000</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B82">
         <v>-1000</v>
@@ -2000,7 +2000,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B83">
         <v>-275</v>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B84">
         <v>-100</v>
@@ -2028,7 +2028,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B85">
         <v>-1090</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2070,7 +2070,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B89">
         <v>-300</v>
@@ -2098,7 +2098,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B93">
         <v>133</v>
@@ -2154,7 +2154,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B95">
         <v>-375</v>
@@ -2182,7 +2182,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2196,7 +2196,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B97">
         <v>-650</v>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B98">
         <v>-50</v>
@@ -2224,7 +2224,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B99">
         <v>5900</v>
@@ -2238,7 +2238,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B100">
         <v>-1260</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B101">
         <v>-1000</v>
@@ -2266,7 +2266,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B103">
         <v>104081</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B104">
         <v>-1400</v>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B105">
         <v>-550</v>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2336,7 +2336,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B107">
         <v>8000</v>
@@ -2350,7 +2350,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B108">
         <v>200</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B109">
         <v>-250</v>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B110">
         <v>-470</v>
@@ -2392,7 +2392,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B111">
         <v>300</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B112">
         <v>1984</v>
@@ -2420,7 +2420,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -2434,7 +2434,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B114">
         <v>-150</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B117">
         <v>117000</v>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B118">
         <v>-170</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B119">
         <v>-150</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B121">
         <v>527</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B122">
         <v>-2300</v>
@@ -2560,7 +2560,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B123">
         <v>-12971</v>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B124">
         <v>-30000</v>
@@ -2588,7 +2588,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B125">
         <v>-700</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B127">
         <v>-3000</v>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B128">
         <v>-200</v>
@@ -2644,7 +2644,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B129">
         <v>-2900</v>
@@ -2658,7 +2658,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B130">
         <v>-925</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B131">
         <v>-200</v>
@@ -2686,7 +2686,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -2700,7 +2700,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B133">
         <v>104981</v>
@@ -2714,7 +2714,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B134">
         <v>-830</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B135">
         <v>-50</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B136">
         <v>-1500</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -2770,7 +2770,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2784,7 +2784,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -2798,7 +2798,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B143">
         <v>-1000</v>
@@ -2854,7 +2854,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B144">
         <v>-1350</v>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B145">
         <v>-50</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -2896,7 +2896,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B147">
         <v>-10000</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B148">
         <v>-8500</v>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B149">
         <v>-125</v>
@@ -2938,7 +2938,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B150">
         <v>-1000</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B151">
         <v>0</v>

--- a/excel/k_parties.xlsx
+++ b/excel/k_parties.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>بنك فلسطين</t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t>مديونية احمد</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -845,10 +848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:F1048576"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="F156" sqref="F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2866,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>139</v>
       </c>
@@ -2880,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>140</v>
       </c>
@@ -2894,7 +2897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>141</v>
       </c>
@@ -2908,7 +2911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>142</v>
       </c>
@@ -2922,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>143</v>
       </c>
@@ -2936,7 +2939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>144</v>
       </c>
@@ -2950,7 +2953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>145</v>
       </c>
@@ -2962,6 +2965,23 @@
       </c>
       <c r="E151">
         <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>151</v>
+      </c>
+      <c r="C152">
+        <v>237267</v>
+      </c>
+      <c r="D152">
+        <v>-365244</v>
+      </c>
+      <c r="E152">
+        <v>59726</v>
+      </c>
+      <c r="F152">
+        <v>2500</v>
       </c>
     </row>
   </sheetData>

--- a/excel/k_parties.xlsx
+++ b/excel/k_parties.xlsx
@@ -850,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="F156" sqref="F156"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="G140" sqref="G140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>2500</v>
+        <v>-2500</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2981,7 +2981,7 @@
         <v>59726</v>
       </c>
       <c r="F152">
-        <v>2500</v>
+        <v>-2500</v>
       </c>
     </row>
   </sheetData>

--- a/excel/k_parties.xlsx
+++ b/excel/k_parties.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>بنك فلسطين</t>
   </si>
@@ -278,9 +278,6 @@
     <t>أبو يوسف الغلايني</t>
   </si>
   <si>
-    <t xml:space="preserve">صاحب ابو مفيد منير علي حسن </t>
-  </si>
-  <si>
     <t>ثائر الريس</t>
   </si>
   <si>
@@ -473,10 +470,7 @@
     <t>جنية</t>
   </si>
   <si>
-    <t>مديونية احمد</t>
-  </si>
-  <si>
-    <t>total</t>
+    <t xml:space="preserve"> صندوق 2</t>
   </si>
 </sst>
 </file>
@@ -848,29 +842,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="G140" sqref="G140"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.8984375" customWidth="1"/>
+    <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" t="s">
         <v>146</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>147</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>148</v>
-      </c>
-      <c r="F1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -892,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="D3">
         <v>-3624</v>
@@ -1007,7 +1002,7 @@
         <v>-833</v>
       </c>
       <c r="D11">
-        <v>9101</v>
+        <v>4101</v>
       </c>
       <c r="E11">
         <v>-100</v>
@@ -1080,7 +1075,7 @@
         <v>-2000</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1292,66 +1287,66 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="C32">
-        <v>13670</v>
+        <v>729</v>
       </c>
       <c r="D32">
-        <v>-325822</v>
+        <v>16500</v>
       </c>
       <c r="E32">
-        <v>25505</v>
+        <v>28750</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33">
-        <v>729</v>
+        <v>-1156</v>
       </c>
       <c r="D33">
-        <v>16500</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>28750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C34">
-        <v>-1156</v>
+        <v>-650</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>31</v>
-      </c>
       <c r="C35">
-        <v>-650</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
       <c r="C36">
-        <v>0</v>
+        <v>4280</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>-5265</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1359,13 +1354,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C37">
-        <v>4280</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>-5265</v>
+        <v>-2522</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1373,24 +1368,21 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="D38">
-        <v>-2522</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>34</v>
-      </c>
       <c r="C39">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1400,8 +1392,11 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
       <c r="C40">
-        <v>0</v>
+        <v>-1400</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1412,10 +1407,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C41">
-        <v>-1400</v>
+        <v>-1600</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1426,13 +1421,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C42">
-        <v>-1600</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1440,13 +1435,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D43">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1454,13 +1449,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C44">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>-5450</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1468,13 +1463,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>-5450</v>
+        <v>-100</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1482,13 +1477,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>-1373</v>
       </c>
       <c r="D46">
-        <v>-100</v>
+        <v>-550</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1496,13 +1491,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C47">
-        <v>-1373</v>
+        <v>-800</v>
       </c>
       <c r="D47">
-        <v>-550</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1510,13 +1505,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C48">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>-170</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1524,13 +1519,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>-170</v>
+        <v>-523</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1538,13 +1533,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>-6100</v>
       </c>
       <c r="D50">
-        <v>-523</v>
+        <v>-200</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1552,13 +1547,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C51">
-        <v>-6100</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>-200</v>
+        <v>20</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1566,13 +1561,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>-305</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1580,13 +1575,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C53">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>-305</v>
+        <v>-1090</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1594,13 +1589,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="D54">
-        <v>-1090</v>
+        <v>-500</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1608,55 +1603,55 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C55">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>-500</v>
+        <v>29013</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>29013</v>
+        <v>-100</v>
       </c>
       <c r="E56">
-        <v>180</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>67300</v>
       </c>
       <c r="D57">
-        <v>-100</v>
+        <v>-2300</v>
       </c>
       <c r="E57">
-        <v>-120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C58">
-        <v>67300</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>-2300</v>
+        <v>-29511</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1664,13 +1659,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>579</v>
+        <v>-280</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1678,44 +1673,44 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>-280</v>
+        <v>0</v>
       </c>
       <c r="E60">
         <v>0</v>
+      </c>
+      <c r="F60">
+        <v>-2500</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>-12320</v>
       </c>
       <c r="E61">
         <v>0</v>
-      </c>
-      <c r="F61">
-        <v>-2500</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-4220</v>
       </c>
       <c r="D62">
-        <v>-12320</v>
+        <v>1000</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1723,13 +1718,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C63">
-        <v>-4220</v>
+        <v>-100</v>
       </c>
       <c r="D63">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1737,13 +1732,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C64">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1751,13 +1746,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>-300</v>
+        <v>4000</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1765,13 +1760,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1779,41 +1774,41 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>3000</v>
+        <v>-22527</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>-1820</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>-22527</v>
+        <v>-600</v>
       </c>
       <c r="E68">
-        <v>-1820</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="D69">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -1821,13 +1816,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C70">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1835,13 +1830,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>-18270</v>
       </c>
       <c r="D71">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1849,10 +1844,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C72">
-        <v>-18270</v>
+        <v>-200</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1863,13 +1858,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C73">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1877,13 +1872,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>-350</v>
       </c>
       <c r="D74">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1891,41 +1886,41 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C75">
-        <v>-350</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>-240</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="D76">
-        <v>10000</v>
+        <v>-1244</v>
       </c>
       <c r="E76">
-        <v>-240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C77">
-        <v>-80</v>
+        <v>-800</v>
       </c>
       <c r="D77">
-        <v>-1244</v>
+        <v>0</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1933,13 +1928,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C78">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>-122</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1947,13 +1942,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-14000</v>
       </c>
       <c r="D79">
-        <v>-122</v>
+        <v>-8785</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1961,13 +1956,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C80">
-        <v>-14000</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>-8785</v>
+        <v>40000</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1975,13 +1970,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="D81">
-        <v>40000</v>
+        <v>-35000</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1989,13 +1984,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C82">
-        <v>-1000</v>
+        <v>-275</v>
       </c>
       <c r="D82">
-        <v>-35000</v>
+        <v>0</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2003,10 +1998,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C83">
-        <v>-275</v>
+        <v>-100</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2017,10 +2012,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C84">
-        <v>-100</v>
+        <v>-1090</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2031,13 +2026,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C85">
-        <v>-1090</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2045,13 +2040,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>-1000</v>
+        <v>-30000</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2059,13 +2054,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>-30000</v>
+        <v>-915</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2073,13 +2068,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D88">
-        <v>-915</v>
+        <v>0</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2087,30 +2082,30 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C89">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>13670</v>
       </c>
       <c r="D90">
-        <v>-150</v>
+        <v>-235295</v>
       </c>
       <c r="E90">
-        <v>50</v>
+        <v>22705</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -2121,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="D91">
-        <v>-500</v>
+        <v>-615</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2132,10 +2127,10 @@
         <v>86</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="D92">
-        <v>-615</v>
+        <v>791</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -2146,10 +2141,10 @@
         <v>87</v>
       </c>
       <c r="C93">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>791</v>
+        <v>-1350</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2160,13 +2155,13 @@
         <v>88</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>-375</v>
       </c>
       <c r="D94">
-        <v>-1350</v>
+        <v>11030</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2174,13 +2169,13 @@
         <v>89</v>
       </c>
       <c r="C95">
-        <v>-375</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>11030</v>
+        <v>-39066</v>
       </c>
       <c r="E95">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -2188,10 +2183,10 @@
         <v>90</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-650</v>
       </c>
       <c r="D96">
-        <v>-39066</v>
+        <v>-2781</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2202,13 +2197,13 @@
         <v>91</v>
       </c>
       <c r="C97">
-        <v>-650</v>
+        <v>-50</v>
       </c>
       <c r="D97">
-        <v>-2781</v>
+        <v>150</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>9370</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -2216,13 +2211,13 @@
         <v>92</v>
       </c>
       <c r="C98">
-        <v>-50</v>
+        <v>5900</v>
       </c>
       <c r="D98">
-        <v>150</v>
+        <v>-30000</v>
       </c>
       <c r="E98">
-        <v>9370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -2230,10 +2225,10 @@
         <v>93</v>
       </c>
       <c r="C99">
-        <v>5900</v>
+        <v>-1260</v>
       </c>
       <c r="D99">
-        <v>-30000</v>
+        <v>125</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -2244,13 +2239,13 @@
         <v>94</v>
       </c>
       <c r="C100">
-        <v>-1260</v>
+        <v>-1000</v>
       </c>
       <c r="D100">
-        <v>125</v>
+        <v>-100</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -2258,13 +2253,13 @@
         <v>95</v>
       </c>
       <c r="C101">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>-100</v>
+        <v>-110</v>
       </c>
       <c r="E101">
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -2272,10 +2267,10 @@
         <v>96</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>104081</v>
       </c>
       <c r="D102">
-        <v>-110</v>
+        <v>400</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -2286,10 +2281,10 @@
         <v>97</v>
       </c>
       <c r="C103">
-        <v>104081</v>
+        <v>-1400</v>
       </c>
       <c r="D103">
-        <v>400</v>
+        <v>-11176</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -2300,10 +2295,10 @@
         <v>98</v>
       </c>
       <c r="C104">
-        <v>-1400</v>
+        <v>-550</v>
       </c>
       <c r="D104">
-        <v>-11176</v>
+        <v>0</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -2314,10 +2309,10 @@
         <v>99</v>
       </c>
       <c r="C105">
-        <v>-550</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>2150</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -2328,10 +2323,10 @@
         <v>100</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="D106">
-        <v>2150</v>
+        <v>-2440</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -2342,10 +2337,10 @@
         <v>101</v>
       </c>
       <c r="C107">
-        <v>8000</v>
+        <v>200</v>
       </c>
       <c r="D107">
-        <v>-2440</v>
+        <v>0</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -2356,7 +2351,7 @@
         <v>102</v>
       </c>
       <c r="C108">
-        <v>200</v>
+        <v>-250</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -2370,7 +2365,7 @@
         <v>103</v>
       </c>
       <c r="C109">
-        <v>-250</v>
+        <v>-470</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -2384,7 +2379,7 @@
         <v>104</v>
       </c>
       <c r="C110">
-        <v>-470</v>
+        <v>300</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -2398,13 +2393,13 @@
         <v>105</v>
       </c>
       <c r="C111">
-        <v>300</v>
+        <v>1984</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>-550</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -2412,13 +2407,13 @@
         <v>106</v>
       </c>
       <c r="C112">
-        <v>1984</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>-8500</v>
       </c>
       <c r="E112">
-        <v>-550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -2426,10 +2421,10 @@
         <v>107</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="D113">
-        <v>-8500</v>
+        <v>0</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -2440,7 +2435,7 @@
         <v>108</v>
       </c>
       <c r="C114">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -2468,7 +2463,7 @@
         <v>110</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>117000</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2482,7 +2477,7 @@
         <v>111</v>
       </c>
       <c r="C117">
-        <v>117000</v>
+        <v>-170</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2496,10 +2491,10 @@
         <v>112</v>
       </c>
       <c r="C118">
-        <v>-170</v>
+        <v>-150</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -2510,10 +2505,10 @@
         <v>113</v>
       </c>
       <c r="C119">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>-800</v>
+        <v>5300</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -2524,10 +2519,10 @@
         <v>114</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="D120">
-        <v>5300</v>
+        <v>-198</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -2538,10 +2533,10 @@
         <v>115</v>
       </c>
       <c r="C121">
-        <v>527</v>
+        <v>-2300</v>
       </c>
       <c r="D121">
-        <v>-198</v>
+        <v>0</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -2552,10 +2547,10 @@
         <v>116</v>
       </c>
       <c r="C122">
-        <v>-2300</v>
+        <v>-12971</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>-3703</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -2566,13 +2561,13 @@
         <v>117</v>
       </c>
       <c r="C123">
-        <v>-12971</v>
+        <v>-30000</v>
       </c>
       <c r="D123">
-        <v>-3703</v>
+        <v>0</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>-310</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -2580,13 +2575,13 @@
         <v>118</v>
       </c>
       <c r="C124">
-        <v>-30000</v>
+        <v>-700</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>-310</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -2594,10 +2589,10 @@
         <v>119</v>
       </c>
       <c r="C125">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -2608,10 +2603,10 @@
         <v>120</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="D126">
-        <v>-300</v>
+        <v>-1000</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -2622,10 +2617,10 @@
         <v>121</v>
       </c>
       <c r="C127">
-        <v>-3000</v>
+        <v>-200</v>
       </c>
       <c r="D127">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -2636,7 +2631,7 @@
         <v>122</v>
       </c>
       <c r="C128">
-        <v>-200</v>
+        <v>-2900</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -2650,10 +2645,10 @@
         <v>123</v>
       </c>
       <c r="C129">
-        <v>-2900</v>
+        <v>-925</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -2664,10 +2659,10 @@
         <v>124</v>
       </c>
       <c r="C130">
-        <v>-925</v>
+        <v>-200</v>
       </c>
       <c r="D130">
-        <v>-10</v>
+        <v>-100</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -2678,10 +2673,10 @@
         <v>125</v>
       </c>
       <c r="C131">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D131">
-        <v>-100</v>
+        <v>-820</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -2692,10 +2687,10 @@
         <v>126</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>104981</v>
       </c>
       <c r="D132">
-        <v>-820</v>
+        <v>5000</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -2706,10 +2701,10 @@
         <v>127</v>
       </c>
       <c r="C133">
-        <v>104981</v>
+        <v>-830</v>
       </c>
       <c r="D133">
-        <v>5000</v>
+        <v>-94</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -2720,10 +2715,10 @@
         <v>128</v>
       </c>
       <c r="C134">
-        <v>-830</v>
+        <v>-50</v>
       </c>
       <c r="D134">
-        <v>-94</v>
+        <v>-130</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -2734,10 +2729,10 @@
         <v>129</v>
       </c>
       <c r="C135">
-        <v>-50</v>
+        <v>-1500</v>
       </c>
       <c r="D135">
-        <v>-130</v>
+        <v>-900</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -2748,13 +2743,13 @@
         <v>130</v>
       </c>
       <c r="C136">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="D136">
-        <v>-900</v>
+        <v>-937</v>
       </c>
       <c r="E136">
-        <v>0</v>
+        <v>-215</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -2765,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="D137">
-        <v>-937</v>
+        <v>-1700</v>
       </c>
       <c r="E137">
-        <v>-215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -2779,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="D138">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -2793,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -2807,10 +2802,10 @@
         <v>0</v>
       </c>
       <c r="D140">
-        <v>-500</v>
+        <v>-44917</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>-383</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -2821,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="D141">
-        <v>-20110</v>
+        <v>-312</v>
       </c>
       <c r="E141">
-        <v>-383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -2832,10 +2827,10 @@
         <v>136</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="D142">
-        <v>-312</v>
+        <v>0</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -2846,10 +2841,10 @@
         <v>137</v>
       </c>
       <c r="C143">
-        <v>-1000</v>
+        <v>-1350</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>-2421</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -2860,10 +2855,10 @@
         <v>138</v>
       </c>
       <c r="C144">
-        <v>-1350</v>
+        <v>-50</v>
       </c>
       <c r="D144">
-        <v>-2421</v>
+        <v>0</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -2874,10 +2869,10 @@
         <v>139</v>
       </c>
       <c r="C145">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -2888,10 +2883,10 @@
         <v>140</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="D146">
-        <v>-100</v>
+        <v>-75148</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -2902,10 +2897,10 @@
         <v>141</v>
       </c>
       <c r="C147">
-        <v>-10000</v>
+        <v>-8500</v>
       </c>
       <c r="D147">
-        <v>-75148</v>
+        <v>165500</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -2916,10 +2911,10 @@
         <v>142</v>
       </c>
       <c r="C148">
-        <v>-8500</v>
+        <v>-125</v>
       </c>
       <c r="D148">
-        <v>165500</v>
+        <v>-150</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -2930,10 +2925,10 @@
         <v>143</v>
       </c>
       <c r="C149">
-        <v>-125</v>
+        <v>-1000</v>
       </c>
       <c r="D149">
-        <v>-150</v>
+        <v>-77500</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -2944,43 +2939,30 @@
         <v>144</v>
       </c>
       <c r="C150">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="D150">
-        <v>-77500</v>
+        <v>2000</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>145</v>
-      </c>
       <c r="C151">
-        <v>0</v>
+        <f>SUM(C2:C150)</f>
+        <v>237167</v>
       </c>
       <c r="D151">
-        <v>2000</v>
+        <f t="shared" ref="D151:F151" si="0">SUM(D2:D150)</f>
+        <v>-323614</v>
       </c>
       <c r="E151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>151</v>
-      </c>
-      <c r="C152">
-        <v>237267</v>
-      </c>
-      <c r="D152">
-        <v>-365244</v>
-      </c>
-      <c r="E152">
-        <v>59726</v>
-      </c>
-      <c r="F152">
+        <f t="shared" si="0"/>
+        <v>56626</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="0"/>
         <v>-2500</v>
       </c>
     </row>

--- a/excel/k_parties.xlsx
+++ b/excel/k_parties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10596"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16068" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>بنك فلسطين</t>
   </si>
@@ -131,18 +131,12 @@
     <t>مصاريف مكتب أسامة</t>
   </si>
   <si>
-    <t>رامي الغلايني</t>
-  </si>
-  <si>
     <t>استثمار - حبيب</t>
   </si>
   <si>
     <t>محمد نصار</t>
   </si>
   <si>
-    <t>بارود جنيف</t>
-  </si>
-  <si>
     <t>نجلاء ابو سيدو</t>
   </si>
   <si>
@@ -407,9 +401,6 @@
     <t>DAI</t>
   </si>
   <si>
-    <t xml:space="preserve">ابو خضر </t>
-  </si>
-  <si>
     <t>أبو يامن الجرجاوي</t>
   </si>
   <si>
@@ -458,19 +449,46 @@
     <t xml:space="preserve">برنامج المحاسبة للشركة  </t>
   </si>
   <si>
-    <t>شيكل</t>
-  </si>
-  <si>
-    <t>دولار</t>
-  </si>
-  <si>
-    <t>دينار</t>
-  </si>
-  <si>
-    <t>جنية</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> صندوق 2</t>
+    <t>أبو علي الصباغ</t>
+  </si>
+  <si>
+    <t>صندوق  (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جبركحيل </t>
+  </si>
+  <si>
+    <t>سمسار الاقرع</t>
+  </si>
+  <si>
+    <t>عطور كافور</t>
+  </si>
+  <si>
+    <t>أبو أيهاب الصفدي</t>
+  </si>
+  <si>
+    <t>حسام الأشقر</t>
+  </si>
+  <si>
+    <t>ساري فرودة</t>
+  </si>
+  <si>
+    <t>الشيكل</t>
+  </si>
+  <si>
+    <t>الدولار</t>
+  </si>
+  <si>
+    <t>الدينار</t>
+  </si>
+  <si>
+    <t>الجنية</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> فورة</t>
+  </si>
+  <si>
+    <t>ميار دلول سندس للصرافة</t>
   </si>
 </sst>
 </file>
@@ -481,7 +499,7 @@
     <numFmt numFmtId="164" formatCode="_-&quot;ر.س.‏&quot;\ * #,##0.00_-;_-&quot;ر.س.‏&quot;\ * #,##0.00\-;_-&quot;ر.س.‏&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;_-* #,##0.00\-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -505,6 +523,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="178"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -532,8 +558,9 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="2"/>
@@ -842,30 +869,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.8984375" customWidth="1"/>
-    <col min="3" max="3" width="9.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -887,7 +913,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>-300</v>
+        <v>-990</v>
       </c>
       <c r="D3">
         <v>-3624</v>
@@ -999,10 +1025,10 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>-833</v>
+        <v>-12780</v>
       </c>
       <c r="D11">
-        <v>4101</v>
+        <v>-1068</v>
       </c>
       <c r="E11">
         <v>-100</v>
@@ -1027,10 +1053,10 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="D13">
-        <v>-10000</v>
+        <v>-8000</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1128,18 +1154,21 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>4400</v>
       </c>
       <c r="E20">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>142</v>
+      </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>-13000</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1287,52 +1316,55 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>143</v>
       </c>
       <c r="C32">
-        <v>729</v>
+        <v>13670</v>
       </c>
       <c r="D32">
-        <v>16500</v>
+        <v>-160796</v>
       </c>
       <c r="E32">
-        <v>28750</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33">
-        <v>-1156</v>
+        <v>11000</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>14500</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>-1156</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>31</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>-650</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>-1000</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1340,13 +1372,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="C36">
-        <v>4280</v>
+        <v>135000</v>
       </c>
       <c r="D36">
-        <v>-5265</v>
+        <v>5500</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1354,13 +1386,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>4280</v>
       </c>
       <c r="D37">
-        <v>-2522</v>
+        <v>-1265</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1368,21 +1400,24 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>-2522</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>34</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>-1000</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C39">
-        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1393,10 +1428,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="C40">
-        <v>-1400</v>
+        <v>-250</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1407,10 +1442,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41">
-        <v>-1600</v>
+        <v>-1400</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1421,13 +1456,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="D42">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1435,13 +1470,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C43">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1449,13 +1484,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D44">
-        <v>-5450</v>
+        <v>0</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1463,27 +1498,27 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
       <c r="D45">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C46">
-        <v>-1373</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>-550</v>
+        <v>-100</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1491,13 +1526,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C47">
-        <v>-800</v>
+        <v>-6723</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>-550</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1505,13 +1540,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="D48">
-        <v>-170</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1519,13 +1554,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
       <c r="D49">
-        <v>-523</v>
+        <v>-170</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1533,13 +1568,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C50">
-        <v>-6100</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>-200</v>
+        <v>-523</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -1547,13 +1582,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>-4500</v>
       </c>
       <c r="D51">
-        <v>20</v>
+        <v>-200</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1561,13 +1596,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C52">
-        <v>-55</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>-305</v>
+        <v>20</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1575,13 +1610,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>-55</v>
       </c>
       <c r="D53">
-        <v>-1090</v>
+        <v>-305</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1589,13 +1624,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C54">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>-500</v>
+        <v>-1090</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -1603,55 +1638,55 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55">
         <v>50</v>
       </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
       <c r="D55">
-        <v>29013</v>
+        <v>-500</v>
       </c>
       <c r="E55">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>-100</v>
+        <v>29013</v>
       </c>
       <c r="E56">
-        <v>-120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C57">
-        <v>67300</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>-2300</v>
+        <v>-100</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>-120</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="D58">
-        <v>-29511</v>
+        <v>-8065</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -1659,13 +1694,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>-106770</v>
       </c>
       <c r="D59">
-        <v>-280</v>
+        <v>0</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -1673,44 +1708,44 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>-280</v>
       </c>
       <c r="E60">
         <v>0</v>
-      </c>
-      <c r="F60">
-        <v>-2500</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>-12320</v>
+        <v>0</v>
       </c>
       <c r="E61">
         <v>0</v>
+      </c>
+      <c r="F61">
+        <v>-2500</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C62">
-        <v>-4220</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>1000</v>
+        <v>-12485</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -1718,13 +1753,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C63">
-        <v>-100</v>
+        <v>-4220</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -1732,13 +1767,13 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D64">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -1746,13 +1781,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>4000</v>
+        <v>-300</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -1760,13 +1795,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -1774,38 +1809,38 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C67">
         <v>0</v>
       </c>
       <c r="D67">
-        <v>-22527</v>
+        <v>3000</v>
       </c>
       <c r="E67">
-        <v>-1820</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>-600</v>
+        <v>-12527</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>-1820</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C69">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1816,13 +1851,13 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="D70">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -1830,13 +1865,13 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C71">
-        <v>-18270</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -1844,10 +1879,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C72">
-        <v>-200</v>
+        <v>-15770</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1858,13 +1893,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="D73">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -1872,13 +1907,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C74">
-        <v>-350</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -1886,27 +1921,27 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>-350</v>
       </c>
       <c r="D75">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="E75">
-        <v>-240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C76">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>-1244</v>
+        <v>10000</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -1914,13 +1949,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C77">
-        <v>-800</v>
+        <v>-80</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>-1244</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -1928,13 +1963,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="D78">
-        <v>-122</v>
+        <v>0</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -1942,13 +1977,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C79">
-        <v>-14000</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>-8785</v>
+        <v>-122</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -1956,13 +1991,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>-14000</v>
       </c>
       <c r="D80">
-        <v>40000</v>
+        <v>-8785</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -1970,13 +2005,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C81">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>-35000</v>
+        <v>37660</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -1984,13 +2019,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C82">
-        <v>-275</v>
+        <v>-1000</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-35000</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -1998,10 +2033,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C83">
-        <v>-100</v>
+        <v>-275</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2012,10 +2047,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C84">
-        <v>-1090</v>
+        <v>-100</v>
       </c>
       <c r="D84">
         <v>0</v>
@@ -2026,13 +2061,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>-1090</v>
       </c>
       <c r="D85">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2040,13 +2075,13 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C86">
         <v>0</v>
       </c>
       <c r="D86">
-        <v>-30000</v>
+        <v>-500</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2054,13 +2089,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>-915</v>
+        <v>-30000</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2068,13 +2103,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C88">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>-915</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2082,41 +2117,41 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D89">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="E89">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>149</v>
+        <v>82</v>
       </c>
       <c r="C90">
-        <v>13670</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>-235295</v>
+        <v>-150</v>
       </c>
       <c r="E90">
-        <v>22705</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91">
-        <v>-615</v>
+        <v>-1000</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2124,13 +2159,13 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C92">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>791</v>
+        <v>-615</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -2138,13 +2173,13 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="D93">
-        <v>-1350</v>
+        <v>791</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2152,41 +2187,41 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C94">
-        <v>-375</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>11030</v>
+        <v>-2050</v>
       </c>
       <c r="E94">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>-375</v>
       </c>
       <c r="D95">
-        <v>-39066</v>
+        <v>11030</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C96">
-        <v>-650</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>-2781</v>
+        <v>-2410</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2194,41 +2229,41 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C97">
-        <v>-50</v>
+        <v>-650</v>
       </c>
       <c r="D97">
-        <v>150</v>
+        <v>-2781</v>
       </c>
       <c r="E97">
-        <v>9370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C98">
-        <v>5900</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>-30000</v>
+        <v>150</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>8970</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C99">
-        <v>-1260</v>
+        <v>5900</v>
       </c>
       <c r="D99">
-        <v>125</v>
+        <v>-30000</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -2236,41 +2271,41 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C100">
-        <v>-1000</v>
+        <v>-1260</v>
       </c>
       <c r="D100">
-        <v>-100</v>
+        <v>125</v>
       </c>
       <c r="E100">
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="D101">
-        <v>-110</v>
+        <v>-100</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C102">
-        <v>104081</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>400</v>
+        <v>-110</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -2278,13 +2313,13 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C103">
-        <v>-1400</v>
+        <v>104081</v>
       </c>
       <c r="D103">
-        <v>-11176</v>
+        <v>400</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -2292,13 +2327,13 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C104">
-        <v>-550</v>
+        <v>-1400</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-11176</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -2306,13 +2341,13 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>-550</v>
       </c>
       <c r="D105">
-        <v>2150</v>
+        <v>0</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -2320,13 +2355,13 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C106">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>-2440</v>
+        <v>1550</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -2334,13 +2369,13 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C107">
-        <v>200</v>
+        <v>8000</v>
       </c>
       <c r="D107">
-        <v>0</v>
+        <v>-2440</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -2348,13 +2383,13 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C108">
-        <v>-250</v>
+        <v>200</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -2362,10 +2397,10 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C109">
-        <v>-470</v>
+        <v>-250</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -2376,10 +2411,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C110">
-        <v>300</v>
+        <v>-470</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -2390,41 +2425,41 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C111">
-        <v>1984</v>
+        <v>300</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
       <c r="E111">
-        <v>-550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>1984</v>
       </c>
       <c r="D112">
-        <v>-8500</v>
+        <v>0</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>-550</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C113">
-        <v>-150</v>
+        <v>-29920</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>-22000</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -2432,10 +2467,10 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="D114">
         <v>0</v>
@@ -2446,7 +2481,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2460,13 +2495,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C116">
-        <v>117000</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -2474,10 +2509,10 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C117">
-        <v>-170</v>
+        <v>114500</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2488,13 +2523,13 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C118">
-        <v>-150</v>
+        <v>-170</v>
       </c>
       <c r="D118">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -2502,13 +2537,13 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="D119">
-        <v>5300</v>
+        <v>-300</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -2516,13 +2551,13 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C120">
-        <v>527</v>
+        <v>2047</v>
       </c>
       <c r="D120">
-        <v>-198</v>
+        <v>3700</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -2530,13 +2565,13 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C121">
-        <v>-2300</v>
+        <v>527</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>-198</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -2544,13 +2579,13 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C122">
-        <v>-12971</v>
+        <v>-2300</v>
       </c>
       <c r="D122">
-        <v>-3703</v>
+        <v>0</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -2558,41 +2593,41 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C123">
-        <v>-30000</v>
+        <v>-76468</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>-8453</v>
       </c>
       <c r="E123">
-        <v>-310</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C124">
-        <v>-700</v>
+        <v>-30648</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>-310</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="D125">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -2600,13 +2635,13 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C126">
-        <v>-3000</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>-1000</v>
+        <v>-300</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -2614,13 +2649,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C127">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -2628,10 +2663,10 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C128">
-        <v>-2900</v>
+        <v>-205</v>
       </c>
       <c r="D128">
         <v>0</v>
@@ -2642,13 +2677,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C129">
-        <v>-925</v>
+        <v>-2900</v>
       </c>
       <c r="D129">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -2656,13 +2691,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C130">
-        <v>-200</v>
+        <v>-925</v>
       </c>
       <c r="D130">
-        <v>-100</v>
+        <v>-10</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -2670,13 +2705,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D131">
-        <v>-820</v>
+        <v>-100</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -2684,13 +2719,13 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C132">
-        <v>104981</v>
+        <v>0</v>
       </c>
       <c r="D132">
-        <v>5000</v>
+        <v>-820</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -2698,13 +2733,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C133">
-        <v>-830</v>
+        <v>104981</v>
       </c>
       <c r="D133">
-        <v>-94</v>
+        <v>5000</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -2712,13 +2747,13 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C134">
-        <v>-50</v>
+        <v>-830</v>
       </c>
       <c r="D134">
-        <v>-130</v>
+        <v>-94</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -2726,13 +2761,13 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="C135">
-        <v>-1500</v>
+        <v>-526</v>
       </c>
       <c r="D135">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -2740,41 +2775,41 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="D136">
-        <v>-937</v>
+        <v>-900</v>
       </c>
       <c r="E136">
-        <v>-215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137">
-        <v>-1700</v>
+        <v>-937</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>-215</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -2782,13 +2817,13 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>-65000</v>
       </c>
       <c r="D139">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -2796,41 +2831,41 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140">
-        <v>-44917</v>
+        <v>-500</v>
       </c>
       <c r="E140">
-        <v>-383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
       <c r="D141">
-        <v>-312</v>
+        <v>-7374</v>
       </c>
       <c r="E141">
-        <v>0</v>
+        <v>-383</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C142">
         <v>-1000</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>-312</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -2838,13 +2873,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C143">
-        <v>-1350</v>
+        <v>-1100</v>
       </c>
       <c r="D143">
-        <v>-2421</v>
+        <v>0</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -2852,13 +2887,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C144">
-        <v>-50</v>
+        <v>-1350</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>-2421</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -2866,13 +2901,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="D145">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -2880,13 +2915,13 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C146">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="D146">
-        <v>-75148</v>
+        <v>-100</v>
       </c>
       <c r="E146">
         <v>0</v>
@@ -2894,13 +2929,13 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C147">
-        <v>-8500</v>
+        <v>0</v>
       </c>
       <c r="D147">
-        <v>165500</v>
+        <v>-67922</v>
       </c>
       <c r="E147">
         <v>0</v>
@@ -2908,13 +2943,13 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C148">
-        <v>-125</v>
+        <v>499515</v>
       </c>
       <c r="D148">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -2922,13 +2957,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C149">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="D149">
-        <v>-77500</v>
+        <v>-9500</v>
       </c>
       <c r="E149">
         <v>0</v>
@@ -2936,33 +2971,67 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="D150">
-        <v>2000</v>
+        <v>-77500</v>
       </c>
       <c r="E150">
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>141</v>
+      </c>
       <c r="C151">
-        <f>SUM(C2:C150)</f>
-        <v>237167</v>
+        <v>0</v>
       </c>
       <c r="D151">
-        <f t="shared" ref="D151:F151" si="0">SUM(D2:D150)</f>
-        <v>-323614</v>
+        <v>500</v>
       </c>
       <c r="E151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>149</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>-600</v>
+      </c>
+      <c r="F153" s="1"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C154">
+        <f t="shared" ref="C154:D154" si="0">SUM(C2:C153)</f>
+        <v>558072</v>
+      </c>
+      <c r="D154">
         <f t="shared" si="0"/>
-        <v>56626</v>
-      </c>
-      <c r="F151">
-        <f t="shared" si="0"/>
+        <v>-340938</v>
+      </c>
+      <c r="E154">
+        <f>SUM(E2:E153)</f>
+        <v>37456</v>
+      </c>
+      <c r="F154">
+        <f>SUM(F2:F153)</f>
         <v>-2500</v>
       </c>
     </row>

--- a/excel/k_parties.xlsx
+++ b/excel/k_parties.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16068" windowHeight="6780"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>الشيكل</t>
   </si>
@@ -73,9 +73,6 @@
     <t xml:space="preserve">وديع ضاهر  </t>
   </si>
   <si>
-    <t>حاتم المجذوب ابو كريم</t>
-  </si>
-  <si>
     <t xml:space="preserve">أبو المعتصم </t>
   </si>
   <si>
@@ -88,9 +85,6 @@
     <t>أبو مفيد</t>
   </si>
   <si>
-    <t>أبو علي الصباغ محمد الصباغ</t>
-  </si>
-  <si>
     <t>خالد عبد الرحمن</t>
   </si>
   <si>
@@ -133,12 +127,6 @@
     <t>أيهاب أبن خالي</t>
   </si>
   <si>
-    <t xml:space="preserve">جبر كحيل </t>
-  </si>
-  <si>
-    <t>سامر شراب بلتينيوم</t>
-  </si>
-  <si>
     <t>غسان العجلة</t>
   </si>
   <si>
@@ -151,15 +139,9 @@
     <t>مصاريف مكتب أسامة</t>
   </si>
   <si>
-    <t>نور عبيد + رامي الغلايني</t>
-  </si>
-  <si>
     <t>استثمار - حبيب</t>
   </si>
   <si>
-    <t>محمد نصار الاسراء</t>
-  </si>
-  <si>
     <t>وفيق ابو سيدو</t>
   </si>
   <si>
@@ -292,9 +274,6 @@
     <t xml:space="preserve">فايز السعدي </t>
   </si>
   <si>
-    <t>دغمش بناشر وشوك</t>
-  </si>
-  <si>
     <t>أبو يوسف الغلايني</t>
   </si>
   <si>
@@ -310,18 +289,12 @@
     <t>عادل لظن</t>
   </si>
   <si>
-    <t>محمد أبو مدللة  ابووسام</t>
-  </si>
-  <si>
     <t>أبو علي أبو طويلة</t>
   </si>
   <si>
     <t>الشيخ رضوان</t>
   </si>
   <si>
-    <t>أبو عماد الحايك سامي الحايك</t>
-  </si>
-  <si>
     <t>أستثمار في الريس سنتر + كاظم</t>
   </si>
   <si>
@@ -355,12 +328,6 @@
     <t>حسين وكالة</t>
   </si>
   <si>
-    <t>تأمينات سيارات</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> مكي - ماجد مكي</t>
-  </si>
-  <si>
     <t>قطر فون</t>
   </si>
   <si>
@@ -373,18 +340,9 @@
     <t>خالي حمادة + أبو رفيق</t>
   </si>
   <si>
-    <t>شادي غازي الريس</t>
-  </si>
-  <si>
     <t xml:space="preserve">كاظم </t>
   </si>
   <si>
-    <t xml:space="preserve">صيدلية ماجد </t>
-  </si>
-  <si>
-    <t>الغصين ابومحمد الغصين</t>
-  </si>
-  <si>
     <t>انيس</t>
   </si>
   <si>
@@ -409,9 +367,6 @@
     <t>زين أبو سيدو</t>
   </si>
   <si>
-    <t>أبو فياض محمود</t>
-  </si>
-  <si>
     <t>أبو علاء الرفاتي</t>
   </si>
   <si>
@@ -430,33 +385,21 @@
     <t>DAI</t>
   </si>
   <si>
-    <t>فورة</t>
-  </si>
-  <si>
     <t>أبو يامن الجرجاوي</t>
   </si>
   <si>
     <t>أبو خميس الجرجاوي 2</t>
   </si>
   <si>
-    <t>أبو علي طويلة 2</t>
-  </si>
-  <si>
     <t>حمود الحايك</t>
   </si>
   <si>
     <t>حساينة الرمال</t>
   </si>
   <si>
-    <t xml:space="preserve"> بنك القدس 22-01-2023  $</t>
-  </si>
-  <si>
     <t xml:space="preserve">مالك ابومعرف </t>
   </si>
   <si>
-    <t>شحاته</t>
-  </si>
-  <si>
     <t>البنك الاسلامي الفلسطيني</t>
   </si>
   <si>
@@ -469,9 +412,6 @@
     <t>علي الحمامي + أبراهيم لظن</t>
   </si>
   <si>
-    <t>محمود الادغم كاظم</t>
-  </si>
-  <si>
     <t>حسام الأشقر</t>
   </si>
   <si>
@@ -481,16 +421,73 @@
     <t xml:space="preserve">برنامج المحاسبة للشركة  </t>
   </si>
   <si>
-    <t>جهاد عاشور</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ميار دلول سندس للصرافة </t>
-  </si>
-  <si>
     <t>الجنية</t>
   </si>
   <si>
     <t>الريال</t>
+  </si>
+  <si>
+    <t>حاتم المجذوب</t>
+  </si>
+  <si>
+    <t>أبو علي الصباغ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جبركحيل </t>
+  </si>
+  <si>
+    <t>سامر شراب</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> رامي الغلايني</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ابو داير </t>
+  </si>
+  <si>
+    <t>دغمش بناشر</t>
+  </si>
+  <si>
+    <t>أبو مدللة</t>
+  </si>
+  <si>
+    <t>أبو عماد الحايك</t>
+  </si>
+  <si>
+    <t>أبو مريد الهليس</t>
+  </si>
+  <si>
+    <t>أبو أيهاب الصفدي</t>
+  </si>
+  <si>
+    <t>شادي غازي</t>
+  </si>
+  <si>
+    <t>صيدلية ماجد</t>
+  </si>
+  <si>
+    <t>الغصين</t>
+  </si>
+  <si>
+    <t>أبو فياض</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> فورة</t>
+  </si>
+  <si>
+    <t>الحويطي</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> بنك القدس22-01-2023 $</t>
+  </si>
+  <si>
+    <t>شحاتة بنك</t>
+  </si>
+  <si>
+    <t>محمود كاظم</t>
+  </si>
+  <si>
+    <t>ميار دلول سندس للصرافة</t>
   </si>
 </sst>
 </file>
@@ -1072,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1094,10 +1091,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="F1" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1119,7 +1116,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-1390</v>
+        <v>-2790</v>
       </c>
       <c r="C3">
         <v>-3624</v>
@@ -1150,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-1978</v>
+        <v>1676</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1234,7 +1231,7 @@
         <v>-815</v>
       </c>
       <c r="C11">
-        <v>-35688</v>
+        <v>-632</v>
       </c>
       <c r="D11">
         <v>-100</v>
@@ -1262,7 +1259,7 @@
         <v>6600</v>
       </c>
       <c r="C13">
-        <v>-9000</v>
+        <v>-19000</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1298,7 +1295,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="B16">
         <v>-1000</v>
@@ -1312,7 +1309,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>-400</v>
@@ -1326,7 +1323,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1340,7 +1337,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1354,13 +1351,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="D20">
         <v>66</v>
@@ -1368,7 +1365,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="B21">
         <v>-100</v>
@@ -1382,7 +1379,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1396,7 +1393,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>-530</v>
@@ -1410,7 +1407,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>-385</v>
@@ -1424,7 +1421,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1438,7 +1435,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26">
         <v>-1500</v>
@@ -1452,7 +1449,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1466,7 +1463,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1480,13 +1477,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>-1400</v>
       </c>
       <c r="C29">
-        <v>-1471</v>
+        <v>-2471</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1494,7 +1491,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30">
         <v>-285</v>
@@ -1508,7 +1505,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>-44785</v>
@@ -1522,27 +1519,27 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>13670</v>
       </c>
       <c r="C32">
-        <v>-297066</v>
+        <v>-261128</v>
       </c>
       <c r="D32">
-        <v>3225</v>
+        <v>7725</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33">
-        <v>9000</v>
+        <v>6000</v>
       </c>
       <c r="C33">
-        <v>14500</v>
+        <v>8000</v>
       </c>
       <c r="D33">
         <v>30000</v>
@@ -1550,7 +1547,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34">
         <v>-1156</v>
@@ -1564,7 +1561,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35">
         <v>-650</v>
@@ -1578,10 +1575,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
       <c r="B36">
-        <v>116000</v>
+        <v>32500</v>
       </c>
       <c r="C36">
         <v>3500</v>
@@ -1592,7 +1589,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="B37">
         <v>7000</v>
@@ -1606,7 +1603,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1620,7 +1617,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>-1000</v>
@@ -1634,7 +1631,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B40">
         <v>-250</v>
@@ -1648,7 +1645,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>-1400</v>
@@ -1662,13 +1659,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="B42">
         <v>-1000</v>
       </c>
       <c r="C42">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1676,7 +1673,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1690,10 +1687,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>140</v>
       </c>
       <c r="B44">
-        <v>-200</v>
+        <v>-75190</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1704,7 +1701,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1718,7 +1715,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1732,7 +1729,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B47">
         <v>-6723</v>
@@ -1746,7 +1743,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B48">
         <v>-800</v>
@@ -1760,7 +1757,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1774,7 +1771,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1788,10 +1785,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B51">
-        <v>-4500</v>
+        <v>-100</v>
       </c>
       <c r="C51">
         <v>-200</v>
@@ -1802,7 +1799,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1816,7 +1813,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B53">
         <v>-55</v>
@@ -1830,13 +1827,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>-1090</v>
+        <v>-2800</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1844,7 +1841,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B55">
         <v>50</v>
@@ -1858,7 +1855,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1872,7 +1869,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1886,7 +1883,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B58">
         <v>-600</v>
@@ -1900,10 +1897,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B59">
-        <v>-70000</v>
+        <v>0</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1914,7 +1911,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1928,7 +1925,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1945,13 +1942,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B62">
         <v>0</v>
       </c>
       <c r="C62">
-        <v>-10602</v>
+        <v>-10575</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1959,7 +1956,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B63">
         <v>-4220</v>
@@ -1973,7 +1970,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B64">
         <v>-600</v>
@@ -1987,7 +1984,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2001,7 +1998,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2015,7 +2012,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2029,7 +2026,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2043,7 +2040,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2057,7 +2054,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B70">
         <v>-700</v>
@@ -2071,7 +2068,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2085,10 +2082,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B72">
-        <v>-13770</v>
+        <v>-12270</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2099,7 +2096,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B73">
         <v>-400</v>
@@ -2113,7 +2110,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2127,7 +2124,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B75">
         <v>-350</v>
@@ -2141,7 +2138,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2155,7 +2152,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B77">
         <v>-80</v>
@@ -2169,7 +2166,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B78">
         <v>-800</v>
@@ -2183,7 +2180,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2197,10 +2194,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B80">
-        <v>-14000</v>
+        <v>-64000</v>
       </c>
       <c r="C80">
         <v>-7785</v>
@@ -2211,10 +2208,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="C81">
         <v>40000</v>
@@ -2225,7 +2222,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B82">
         <v>-1000</v>
@@ -2239,7 +2236,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B83">
         <v>-275</v>
@@ -2253,7 +2250,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B84">
         <v>-100</v>
@@ -2267,7 +2264,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B85">
         <v>-1090</v>
@@ -2281,7 +2278,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2295,7 +2292,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2309,7 +2306,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2323,7 +2320,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>141</v>
       </c>
       <c r="B89">
         <v>-300</v>
@@ -2337,7 +2334,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2351,7 +2348,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B91">
         <v>-20000</v>
@@ -2365,7 +2362,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2379,7 +2376,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B93">
         <v>133</v>
@@ -2393,7 +2390,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -2407,13 +2404,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="B95">
         <v>-375</v>
       </c>
       <c r="C95">
-        <v>10530</v>
+        <v>6030</v>
       </c>
       <c r="D95">
         <v>-100</v>
@@ -2421,7 +2418,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2435,7 +2432,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B97">
         <v>-650</v>
@@ -2449,7 +2446,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2463,7 +2460,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B99">
         <v>5900</v>
@@ -2477,7 +2474,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B100">
         <v>-1260</v>
@@ -2491,7 +2488,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B101">
         <v>-1000</v>
@@ -2505,7 +2502,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2519,7 +2516,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B103">
         <v>104081</v>
@@ -2533,13 +2530,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B104">
-        <v>-1400</v>
+        <v>-5500</v>
       </c>
       <c r="C104">
-        <v>-8000</v>
+        <v>-6500</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -2547,7 +2544,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B105">
         <v>-550</v>
@@ -2561,7 +2558,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2575,7 +2572,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B107">
         <v>8000</v>
@@ -2589,10 +2586,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B108">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="C108">
         <v>-500</v>
@@ -2603,7 +2600,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B109">
         <v>-250</v>
@@ -2617,13 +2614,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>144</v>
       </c>
       <c r="B110">
-        <v>-470</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -2631,13 +2628,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111">
         <v>-1000</v>
-      </c>
-      <c r="C111">
-        <v>0</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2645,7 +2642,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B112">
         <v>1984</v>
@@ -2659,7 +2656,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B113">
         <v>-9520</v>
@@ -2673,7 +2670,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B114">
         <v>-150</v>
@@ -2687,7 +2684,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2701,10 +2698,10 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>146</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C116">
         <v>5000</v>
@@ -2715,13 +2712,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B117">
-        <v>114000</v>
+        <v>113530</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2729,7 +2726,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="B118">
         <v>-170</v>
@@ -2743,7 +2740,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="B119">
         <v>-150</v>
@@ -2757,7 +2754,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B120">
         <v>3730</v>
@@ -2771,7 +2768,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B121">
         <v>527</v>
@@ -2785,7 +2782,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B122">
         <v>-2300</v>
@@ -2799,13 +2796,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B123">
         <v>-47568</v>
       </c>
       <c r="C123">
-        <v>-8953</v>
+        <v>-9153</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -2813,13 +2810,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B124">
         <v>-30648</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D124">
         <v>-310</v>
@@ -2827,7 +2824,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B125">
         <v>-700</v>
@@ -2841,7 +2838,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -2855,10 +2852,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B127">
-        <v>-80</v>
+        <v>-697</v>
       </c>
       <c r="C127">
         <v>-1000</v>
@@ -2869,7 +2866,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="B128">
         <v>-205</v>
@@ -2883,7 +2880,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B129">
         <v>-2200</v>
@@ -2897,7 +2894,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B130">
         <v>-925</v>
@@ -2911,7 +2908,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B131">
         <v>-200</v>
@@ -2925,7 +2922,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -2939,7 +2936,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B133">
         <v>104981</v>
@@ -2953,7 +2950,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B134">
         <v>-830</v>
@@ -2967,7 +2964,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B135">
         <v>-226</v>
@@ -2981,7 +2978,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B136">
         <v>-1500</v>
@@ -2995,7 +2992,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3009,13 +3006,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="C138">
-        <v>-7652</v>
+        <v>-300</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -3023,10 +3020,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B139">
-        <v>-15000</v>
+        <v>-7000</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3037,7 +3034,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3051,13 +3048,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="C141">
-        <v>-742</v>
+        <v>-16736</v>
       </c>
       <c r="D141">
         <v>-383</v>
@@ -3065,7 +3062,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3079,13 +3076,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="B143">
         <v>-1200</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -3093,7 +3090,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="B144">
         <v>-1350</v>
@@ -3107,7 +3104,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="B145">
         <v>-50</v>
@@ -3121,7 +3118,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3135,7 +3132,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3149,7 +3146,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B148">
         <v>492460</v>
@@ -3163,13 +3160,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B149">
         <v>0</v>
       </c>
       <c r="C149">
-        <v>-9500</v>
+        <v>-4500</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -3177,7 +3174,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B150">
         <v>-1000</v>
@@ -3191,13 +3188,13 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
       <c r="C151">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -3205,7 +3202,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -3214,14 +3211,9 @@
         <v>0</v>
       </c>
       <c r="D152">
-        <v>-80</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>154</v>
-      </c>
-      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="F152">
         <v>-5379</v>
       </c>
     </row>

--- a/excel/k_parties.xlsx
+++ b/excel/k_parties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="156">
   <si>
     <t>الشيكل</t>
   </si>
@@ -211,9 +211,6 @@
     <t>أرباح حسابات كامل</t>
   </si>
   <si>
-    <t>أبو حسين الغميري</t>
-  </si>
-  <si>
     <t>رشدي أبو سيدو</t>
   </si>
   <si>
@@ -430,9 +427,6 @@
     <t>حاتم المجذوب</t>
   </si>
   <si>
-    <t>أبو علي الصباغ</t>
-  </si>
-  <si>
     <t xml:space="preserve">جبركحيل </t>
   </si>
   <si>
@@ -442,9 +436,6 @@
     <t xml:space="preserve"> رامي الغلايني</t>
   </si>
   <si>
-    <t xml:space="preserve">ابو داير </t>
-  </si>
-  <si>
     <t>دغمش بناشر</t>
   </si>
   <si>
@@ -469,9 +460,6 @@
     <t>الغصين</t>
   </si>
   <si>
-    <t>أبو فياض</t>
-  </si>
-  <si>
     <t xml:space="preserve"> فورة</t>
   </si>
   <si>
@@ -488,6 +476,18 @@
   </si>
   <si>
     <t>ميار دلول سندس للصرافة</t>
+  </si>
+  <si>
+    <t>أبو داير</t>
+  </si>
+  <si>
+    <t>تجميع كهرباء</t>
+  </si>
+  <si>
+    <t>أبو حهاد عاشور</t>
+  </si>
+  <si>
+    <t>أياد الريس</t>
   </si>
 </sst>
 </file>
@@ -1069,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1091,10 +1091,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" t="s">
         <v>133</v>
-      </c>
-      <c r="F1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1116,7 +1116,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-2790</v>
+        <v>-3100</v>
       </c>
       <c r="C3">
         <v>-3624</v>
@@ -1228,10 +1228,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-815</v>
+        <v>-11965</v>
       </c>
       <c r="C11">
-        <v>-632</v>
+        <v>-20632</v>
       </c>
       <c r="D11">
         <v>-100</v>
@@ -1256,7 +1256,7 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>6600</v>
+        <v>15600</v>
       </c>
       <c r="C13">
         <v>-19000</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B16">
         <v>-1000</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="D20">
         <v>66</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B21">
-        <v>-100</v>
+        <v>60000</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>-30000</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>-2471</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>-830</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1525,7 +1525,7 @@
         <v>13670</v>
       </c>
       <c r="C32">
-        <v>-261128</v>
+        <v>-216143</v>
       </c>
       <c r="D32">
         <v>7725</v>
@@ -1575,10 +1575,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B36">
-        <v>32500</v>
+        <v>30500</v>
       </c>
       <c r="C36">
         <v>3500</v>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B37">
         <v>7000</v>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B42">
         <v>-1000</v>
@@ -1687,13 +1687,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="B44">
-        <v>-75190</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>-30000</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1732,10 +1732,10 @@
         <v>42</v>
       </c>
       <c r="B47">
-        <v>-6723</v>
+        <v>0</v>
       </c>
       <c r="C47">
-        <v>-550</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2026,21 +2026,21 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C68">
-        <v>-2527</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>-1820</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B70">
         <v>-700</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2082,7 +2082,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B72">
         <v>-12270</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B73">
         <v>-400</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2124,7 +2124,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B75">
         <v>-350</v>
@@ -2138,13 +2138,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
       <c r="C76">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B77">
         <v>-80</v>
@@ -2166,7 +2166,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B78">
         <v>-800</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2194,10 +2194,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B80">
-        <v>-64000</v>
+        <v>-24000</v>
       </c>
       <c r="C80">
         <v>-7785</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B81">
         <v>-1500</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B82">
         <v>-1000</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B83">
         <v>-275</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B84">
         <v>-100</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B85">
         <v>-1090</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B89">
         <v>-300</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2348,13 +2348,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B91">
-        <v>-20000</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B93">
         <v>133</v>
@@ -2390,10 +2390,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B94">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="C94">
         <v>-5250</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B95">
         <v>-375</v>
@@ -2418,13 +2418,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
       <c r="C96">
-        <v>-31000</v>
+        <v>-25244</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B97">
         <v>-650</v>
@@ -2446,7 +2446,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -2460,7 +2460,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B99">
         <v>5900</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B100">
         <v>-1260</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B101">
         <v>-1000</v>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2516,7 +2516,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B103">
         <v>104081</v>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B104">
         <v>-5500</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B105">
         <v>-550</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2572,7 +2572,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B107">
         <v>8000</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B109">
         <v>-250</v>
@@ -2614,13 +2614,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -2628,7 +2628,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -2642,7 +2642,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B112">
         <v>1984</v>
@@ -2656,7 +2656,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B113">
         <v>-9520</v>
@@ -2670,7 +2670,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B114">
         <v>-150</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2698,13 +2698,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B116">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2712,21 +2712,21 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B117">
-        <v>113530</v>
+        <v>120000</v>
       </c>
       <c r="C117">
-        <v>3500</v>
+        <v>-741</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B118">
         <v>-170</v>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B119">
         <v>-150</v>
@@ -2754,10 +2754,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B120">
-        <v>3730</v>
+        <v>1000</v>
       </c>
       <c r="C120">
         <v>3100</v>
@@ -2768,7 +2768,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B121">
         <v>527</v>
@@ -2782,7 +2782,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B122">
         <v>-2300</v>
@@ -2796,13 +2796,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B123">
         <v>-47568</v>
       </c>
       <c r="C123">
-        <v>-9153</v>
+        <v>-9353</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B124">
         <v>-30648</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B125">
         <v>-700</v>
@@ -2838,7 +2838,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B127">
         <v>-697</v>
@@ -2866,10 +2866,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B128">
-        <v>-205</v>
+        <v>-2600</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2880,7 +2880,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B129">
         <v>-2200</v>
@@ -2894,7 +2894,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B130">
         <v>-925</v>
@@ -2908,7 +2908,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B131">
         <v>-200</v>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B133">
         <v>104981</v>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B134">
         <v>-830</v>
@@ -2964,7 +2964,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B135">
         <v>-226</v>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B136">
         <v>-1500</v>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -3006,7 +3006,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3020,10 +3020,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="B139">
-        <v>-7000</v>
+        <v>-1200</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3034,7 +3034,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3048,13 +3048,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="C141">
-        <v>-16736</v>
+        <v>-33802</v>
       </c>
       <c r="D141">
         <v>-383</v>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3076,13 +3076,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B143">
         <v>-1200</v>
       </c>
       <c r="C143">
-        <v>-2600</v>
+        <v>-2300</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -3090,7 +3090,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B144">
         <v>-1350</v>
@@ -3104,7 +3104,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B145">
         <v>-50</v>
@@ -3118,7 +3118,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3132,7 +3132,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B148">
         <v>492460</v>
@@ -3160,7 +3160,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B150">
         <v>-1000</v>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -3202,18 +3202,23 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>-1349</v>
       </c>
       <c r="D152">
         <v>0</v>
       </c>
-      <c r="F152">
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>151</v>
+      </c>
+      <c r="F153">
         <v>-5379</v>
       </c>
     </row>

--- a/excel/k_parties.xlsx
+++ b/excel/k_parties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>الشيكل</t>
   </si>
@@ -1069,10 +1069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1897,13 +1897,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>-280</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1911,44 +1911,44 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>-280</v>
+        <v>0</v>
       </c>
       <c r="D60">
         <v>0</v>
+      </c>
+      <c r="E60">
+        <v>-2500</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>-10575</v>
       </c>
       <c r="D61">
         <v>0</v>
-      </c>
-      <c r="E61">
-        <v>-2500</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-4220</v>
       </c>
       <c r="C62">
-        <v>-10575</v>
+        <v>1000</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1956,13 +1956,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B63">
-        <v>-4220</v>
+        <v>-600</v>
       </c>
       <c r="C63">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1970,13 +1970,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B64">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1984,13 +1984,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>-300</v>
+        <v>4000</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1998,13 +1998,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2012,13 +2012,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>153</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="C67">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2026,10 +2026,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="B68">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2040,10 +2040,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2054,13 +2054,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B70">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2068,13 +2068,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>-12270</v>
       </c>
       <c r="C71">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2082,10 +2082,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B72">
-        <v>-12270</v>
+        <v>-400</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B73">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2110,13 +2110,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>-350</v>
       </c>
       <c r="C74">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2124,10 +2124,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B75">
-        <v>-350</v>
+        <v>0</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2138,13 +2138,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>-1244</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2152,13 +2152,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B77">
-        <v>-80</v>
+        <v>-800</v>
       </c>
       <c r="C77">
-        <v>-1244</v>
+        <v>0</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2166,13 +2166,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B78">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>-122</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2180,55 +2180,55 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-24000</v>
       </c>
       <c r="C79">
-        <v>-122</v>
+        <v>-7785</v>
       </c>
       <c r="D79">
-        <v>0</v>
+        <v>-204</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B80">
-        <v>-24000</v>
+        <v>-1500</v>
       </c>
       <c r="C80">
-        <v>-7785</v>
+        <v>40000</v>
       </c>
       <c r="D80">
-        <v>-204</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B81">
-        <v>-1500</v>
+        <v>-1000</v>
       </c>
       <c r="C81">
-        <v>40000</v>
+        <v>-35000</v>
       </c>
       <c r="D81">
-        <v>-1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B82">
-        <v>-1000</v>
+        <v>-275</v>
       </c>
       <c r="C82">
-        <v>-35000</v>
+        <v>0</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2236,10 +2236,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B83">
-        <v>-275</v>
+        <v>-100</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2250,10 +2250,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B84">
-        <v>-100</v>
+        <v>-1090</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2264,13 +2264,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B85">
-        <v>-1090</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2278,13 +2278,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>-500</v>
+        <v>-30000</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2292,13 +2292,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>-30000</v>
+        <v>-915</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2306,13 +2306,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C88">
-        <v>-915</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2320,41 +2320,41 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="B89">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="D89">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>-150</v>
+        <v>500</v>
       </c>
       <c r="D90">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>500</v>
+        <v>-615</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2362,13 +2362,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="C92">
-        <v>-615</v>
+        <v>791</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2376,13 +2376,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B93">
-        <v>133</v>
+        <v>2000</v>
       </c>
       <c r="C93">
-        <v>791</v>
+        <v>-5250</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2390,41 +2390,41 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="B94">
-        <v>2000</v>
+        <v>-375</v>
       </c>
       <c r="C94">
-        <v>-5250</v>
+        <v>6030</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="B95">
-        <v>-375</v>
+        <v>0</v>
       </c>
       <c r="C95">
-        <v>6030</v>
+        <v>-25244</v>
       </c>
       <c r="D95">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-650</v>
       </c>
       <c r="C96">
-        <v>-25244</v>
+        <v>-2781</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2432,41 +2432,41 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="B97">
-        <v>-650</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>-2781</v>
+        <v>150</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>5900</v>
       </c>
       <c r="C98">
-        <v>150</v>
+        <v>-30000</v>
       </c>
       <c r="D98">
-        <v>8370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B99">
-        <v>5900</v>
+        <v>-1260</v>
       </c>
       <c r="C99">
-        <v>-30000</v>
+        <v>125</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -2474,69 +2474,69 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B100">
-        <v>-1260</v>
+        <v>-1000</v>
       </c>
       <c r="C100">
-        <v>125</v>
+        <v>-100</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B101">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="C101">
-        <v>-100</v>
+        <v>-110</v>
       </c>
       <c r="D101">
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>104081</v>
       </c>
       <c r="C102">
-        <v>-110</v>
+        <v>400</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B103">
-        <v>104081</v>
+        <v>-5500</v>
       </c>
       <c r="C103">
-        <v>400</v>
+        <v>-6500</v>
       </c>
       <c r="D103">
-        <v>-400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B104">
-        <v>-5500</v>
+        <v>-550</v>
       </c>
       <c r="C104">
-        <v>-6500</v>
+        <v>0</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -2544,13 +2544,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B105">
-        <v>-550</v>
+        <v>0</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>1550</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2558,13 +2558,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="C106">
-        <v>1550</v>
+        <v>-2440</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2572,13 +2572,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B107">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>-2440</v>
+        <v>-500</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -2586,13 +2586,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="C108">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -2600,13 +2600,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="B109">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -2614,13 +2614,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>1500</v>
+        <v>-1000</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -2628,38 +2628,38 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>1984</v>
       </c>
       <c r="C111">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>-550</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B112">
-        <v>1984</v>
+        <v>-9520</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>-550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B113">
-        <v>-9520</v>
+        <v>-150</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2670,10 +2670,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B114">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2684,13 +2684,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>4900</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2698,38 +2698,38 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>120000</v>
       </c>
       <c r="C116">
-        <v>4900</v>
+        <v>-741</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>-1000</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="B117">
-        <v>120000</v>
+        <v>-170</v>
       </c>
       <c r="C117">
-        <v>-741</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>-1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B118">
-        <v>-170</v>
+        <v>-150</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2740,13 +2740,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="B119">
-        <v>-150</v>
+        <v>1000</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2754,13 +2754,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B120">
-        <v>1000</v>
+        <v>527</v>
       </c>
       <c r="C120">
-        <v>3100</v>
+        <v>-198</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2768,13 +2768,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B121">
-        <v>527</v>
+        <v>-2300</v>
       </c>
       <c r="C121">
-        <v>-198</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -2782,13 +2782,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B122">
-        <v>-2300</v>
+        <v>-47568</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>-9353</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -2796,41 +2796,41 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B123">
-        <v>-47568</v>
+        <v>-30648</v>
       </c>
       <c r="C123">
-        <v>-9353</v>
+        <v>-300</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>-310</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B124">
-        <v>-30648</v>
+        <v>-700</v>
       </c>
       <c r="C124">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>-310</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B125">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -2838,13 +2838,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>-697</v>
       </c>
       <c r="C126">
-        <v>-300</v>
+        <v>-1000</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -2852,13 +2852,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>113</v>
+        <v>154</v>
       </c>
       <c r="B127">
-        <v>-697</v>
+        <v>-2600</v>
       </c>
       <c r="C127">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -2866,10 +2866,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="B128">
-        <v>-2600</v>
+        <v>-2200</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2880,13 +2880,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B129">
-        <v>-2200</v>
+        <v>-925</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -2894,13 +2894,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B130">
-        <v>-925</v>
+        <v>-200</v>
       </c>
       <c r="C130">
-        <v>-10</v>
+        <v>-100</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -2908,13 +2908,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B131">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C131">
-        <v>-100</v>
+        <v>-820</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2922,13 +2922,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>104981</v>
       </c>
       <c r="C132">
-        <v>-820</v>
+        <v>5000</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -2936,13 +2936,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B133">
-        <v>104981</v>
+        <v>-830</v>
       </c>
       <c r="C133">
-        <v>5000</v>
+        <v>-94</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2950,13 +2950,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="B134">
-        <v>-830</v>
+        <v>-226</v>
       </c>
       <c r="C134">
-        <v>-94</v>
+        <v>0</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -2964,13 +2964,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="B135">
-        <v>-226</v>
+        <v>-1500</v>
       </c>
       <c r="C135">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -2978,41 +2978,41 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B136">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>-900</v>
+        <v>-937</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>-215</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
       <c r="B137">
         <v>0</v>
       </c>
       <c r="C137">
-        <v>-937</v>
+        <v>-300</v>
       </c>
       <c r="D137">
-        <v>-215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="C138">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D138">
         <v>0</v>
@@ -3020,13 +3020,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="B139">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="C139">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D139">
         <v>0</v>
@@ -3034,41 +3034,41 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="C140">
-        <v>-500</v>
+        <v>-33802</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>-383</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="C141">
-        <v>-33802</v>
+        <v>-312</v>
       </c>
       <c r="D141">
-        <v>-383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="C142">
-        <v>-312</v>
+        <v>-2300</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -3076,13 +3076,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="B143">
-        <v>-1200</v>
+        <v>-1350</v>
       </c>
       <c r="C143">
-        <v>-2300</v>
+        <v>-2421</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -3090,13 +3090,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B144">
-        <v>-1350</v>
+        <v>-50</v>
       </c>
       <c r="C144">
-        <v>-2421</v>
+        <v>0</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -3104,13 +3104,13 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B145">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -3118,13 +3118,13 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B146">
         <v>0</v>
       </c>
       <c r="C146">
-        <v>-100</v>
+        <v>-62922</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -3132,13 +3132,13 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>492460</v>
       </c>
       <c r="C147">
-        <v>-62922</v>
+        <v>0</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -3146,13 +3146,13 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B148">
-        <v>492460</v>
+        <v>0</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>-4500</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -3160,13 +3160,13 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="C149">
-        <v>-4500</v>
+        <v>-77500</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -3174,13 +3174,13 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B150">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="C150">
-        <v>-77500</v>
+        <v>1500</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -3188,13 +3188,13 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B151">
         <v>0</v>
       </c>
       <c r="C151">
-        <v>1500</v>
+        <v>-1349</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -3202,23 +3202,9 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>122</v>
-      </c>
-      <c r="B152">
-        <v>0</v>
-      </c>
-      <c r="C152">
-        <v>-1349</v>
-      </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
         <v>151</v>
       </c>
-      <c r="F153">
+      <c r="F152">
         <v>-5379</v>
       </c>
     </row>

--- a/excel/k_parties.xlsx
+++ b/excel/k_parties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>الشيكل</t>
   </si>
@@ -115,9 +115,6 @@
     <t>أحمد شقة</t>
   </si>
   <si>
-    <t>صندوق  (2)</t>
-  </si>
-  <si>
     <t>عماد الاشقر</t>
   </si>
   <si>
@@ -133,9 +130,6 @@
     <t>فكة</t>
   </si>
   <si>
-    <t>أبو علاء سكيك</t>
-  </si>
-  <si>
     <t>مصاريف مكتب أسامة</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>نجلاء ابو سيدو</t>
   </si>
   <si>
-    <t>الميدناااا محاسبة</t>
-  </si>
-  <si>
     <t>أدهم الحاطوم</t>
   </si>
   <si>
@@ -211,9 +202,6 @@
     <t>أرباح حسابات كامل</t>
   </si>
   <si>
-    <t>رشدي أبو سيدو</t>
-  </si>
-  <si>
     <t>أيهاب الريس</t>
   </si>
   <si>
@@ -232,9 +220,6 @@
     <t>بطنيجي كمبيوتر</t>
   </si>
   <si>
-    <t>أبو عرفا سكيك</t>
-  </si>
-  <si>
     <t>علي الحايك</t>
   </si>
   <si>
@@ -262,9 +247,6 @@
     <t>حوالات أبو الشوبكي</t>
   </si>
   <si>
-    <t xml:space="preserve">أسامة سيارة  </t>
-  </si>
-  <si>
     <t>ثمن 3 مكاتب من اليازجي</t>
   </si>
   <si>
@@ -388,9 +370,6 @@
     <t>أبو خميس الجرجاوي 2</t>
   </si>
   <si>
-    <t>حمود الحايك</t>
-  </si>
-  <si>
     <t>حساينة الرمال</t>
   </si>
   <si>
@@ -448,9 +427,6 @@
     <t>أبو مريد الهليس</t>
   </si>
   <si>
-    <t>أبو أيهاب الصفدي</t>
-  </si>
-  <si>
     <t>شادي غازي</t>
   </si>
   <si>
@@ -460,34 +436,43 @@
     <t>الغصين</t>
   </si>
   <si>
-    <t xml:space="preserve"> فورة</t>
-  </si>
-  <si>
     <t>الحويطي</t>
   </si>
   <si>
     <t xml:space="preserve"> بنك القدس22-01-2023 $</t>
   </si>
   <si>
-    <t>شحاتة بنك</t>
-  </si>
-  <si>
     <t>محمود كاظم</t>
   </si>
   <si>
-    <t>ميار دلول سندس للصرافة</t>
-  </si>
-  <si>
-    <t>أبو داير</t>
-  </si>
-  <si>
     <t>تجميع كهرباء</t>
   </si>
   <si>
-    <t>أبو حهاد عاشور</t>
-  </si>
-  <si>
     <t>أياد الريس</t>
+  </si>
+  <si>
+    <t>صندوق  احمد (2) احمد</t>
+  </si>
+  <si>
+    <t>أبو مازن مجدلاوي</t>
+  </si>
+  <si>
+    <t>الصباغ</t>
+  </si>
+  <si>
+    <t>ابو عرفا سكيك</t>
+  </si>
+  <si>
+    <t>كافور</t>
+  </si>
+  <si>
+    <t>ابو فياض</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ميار </t>
+  </si>
+  <si>
+    <t xml:space="preserve">شحاتة البنك </t>
   </si>
 </sst>
 </file>
@@ -1069,15 +1054,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.8984375" customWidth="1"/>
+    <col min="1" max="1" width="31.19921875" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1091,10 +1081,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F1" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1116,10 +1106,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-3100</v>
+        <v>-3350</v>
       </c>
       <c r="C3">
-        <v>-3624</v>
+        <v>-3724</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1228,10 +1218,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-11965</v>
+        <v>-75255</v>
       </c>
       <c r="C11">
-        <v>-20632</v>
+        <v>-20802</v>
       </c>
       <c r="D11">
         <v>-100</v>
@@ -1295,7 +1285,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B16">
         <v>-1000</v>
@@ -1357,21 +1347,18 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>-3000</v>
+        <v>-250</v>
       </c>
       <c r="D20">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>152</v>
-      </c>
       <c r="B21">
-        <v>60000</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>-30000</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1519,7 +1506,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="B32">
         <v>13670</v>
@@ -1528,26 +1515,26 @@
         <v>-216143</v>
       </c>
       <c r="D32">
-        <v>7725</v>
+        <v>9725</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>6000</v>
+        <v>28440</v>
       </c>
       <c r="C33">
-        <v>8000</v>
+        <v>-1000</v>
       </c>
       <c r="D33">
-        <v>30000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>-1156</v>
@@ -1561,7 +1548,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>-650</v>
@@ -1575,13 +1562,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B36">
-        <v>30500</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>3500</v>
+        <v>8000</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1589,7 +1576,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B37">
         <v>7000</v>
@@ -1603,7 +1590,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1617,7 +1604,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39">
         <v>-1000</v>
@@ -1630,11 +1617,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>37</v>
-      </c>
       <c r="B40">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1645,7 +1629,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41">
         <v>-1400</v>
@@ -1659,7 +1643,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B42">
         <v>-1000</v>
@@ -1673,7 +1657,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1687,7 +1671,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1701,7 +1685,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1715,7 +1699,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1728,9 +1712,6 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>42</v>
-      </c>
       <c r="B47">
         <v>0</v>
       </c>
@@ -1743,7 +1724,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B48">
         <v>-800</v>
@@ -1757,7 +1738,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1771,7 +1752,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1785,7 +1766,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B51">
         <v>-100</v>
@@ -1799,7 +1780,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1813,7 +1794,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B53">
         <v>-55</v>
@@ -1827,7 +1808,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1841,7 +1822,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B55">
         <v>50</v>
@@ -1855,7 +1836,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1869,7 +1850,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1883,7 +1864,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B58">
         <v>-600</v>
@@ -1896,14 +1877,11 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>55</v>
-      </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>-280</v>
+        <v>0</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1911,44 +1889,44 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B60">
         <v>0</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>-280</v>
       </c>
       <c r="D60">
         <v>0</v>
-      </c>
-      <c r="E60">
-        <v>-2500</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
-        <v>-10575</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>0</v>
+      </c>
+      <c r="E61">
+        <v>-2500</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B62">
-        <v>-4220</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>1000</v>
+        <v>-10575</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1956,13 +1934,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B63">
-        <v>-600</v>
+        <v>-4220</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1970,13 +1948,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="C64">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1984,13 +1962,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B65">
         <v>0</v>
       </c>
       <c r="C65">
-        <v>4000</v>
+        <v>-300</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1998,13 +1976,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -2012,13 +1990,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>153</v>
+        <v>59</v>
       </c>
       <c r="B67">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -2026,10 +2004,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2040,27 +2018,27 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>144</v>
       </c>
       <c r="B69">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>-200</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="C70">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -2068,13 +2046,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B71">
-        <v>-12270</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -2082,10 +2060,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B72">
-        <v>-400</v>
+        <v>-12270</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2096,13 +2074,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="C73">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2110,13 +2088,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B74">
-        <v>-350</v>
+        <v>0</v>
       </c>
       <c r="C74">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2124,10 +2102,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>-350</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2138,13 +2116,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>145</v>
       </c>
       <c r="B76">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="C76">
-        <v>-1244</v>
+        <v>-50</v>
       </c>
       <c r="D76">
         <v>0</v>
@@ -2152,13 +2130,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B77">
-        <v>-800</v>
+        <v>-80</v>
       </c>
       <c r="C77">
-        <v>0</v>
+        <v>-1244</v>
       </c>
       <c r="D77">
         <v>0</v>
@@ -2166,13 +2144,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="C78">
-        <v>-122</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -2180,55 +2158,55 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B79">
-        <v>-24000</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>-7785</v>
+        <v>-122</v>
       </c>
       <c r="D79">
-        <v>-204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B80">
-        <v>-1500</v>
+        <v>-24000</v>
       </c>
       <c r="C80">
-        <v>40000</v>
+        <v>-7785</v>
       </c>
       <c r="D80">
-        <v>-1000</v>
+        <v>-204</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B81">
-        <v>-1000</v>
+        <v>-1500</v>
       </c>
       <c r="C81">
-        <v>-35000</v>
+        <v>40000</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>-2500</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B82">
-        <v>-275</v>
+        <v>-1000</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-35000</v>
       </c>
       <c r="D82">
         <v>0</v>
@@ -2236,10 +2214,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B83">
-        <v>-100</v>
+        <v>-275</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2250,10 +2228,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B84">
-        <v>-1090</v>
+        <v>-100</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2264,13 +2242,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>-1090</v>
       </c>
       <c r="C85">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="D85">
         <v>0</v>
@@ -2278,13 +2256,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="B86">
         <v>0</v>
       </c>
       <c r="C86">
-        <v>-30000</v>
+        <v>-150</v>
       </c>
       <c r="D86">
         <v>0</v>
@@ -2292,13 +2270,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B87">
         <v>0</v>
       </c>
       <c r="C87">
-        <v>-915</v>
+        <v>-30000</v>
       </c>
       <c r="D87">
         <v>0</v>
@@ -2306,13 +2284,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="B88">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>-915</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2320,41 +2298,41 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C89">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B90">
         <v>0</v>
       </c>
       <c r="C90">
-        <v>500</v>
+        <v>-150</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>-615</v>
+        <v>500</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2362,13 +2340,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B92">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>791</v>
+        <v>-615</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2376,13 +2354,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B93">
-        <v>2000</v>
+        <v>133</v>
       </c>
       <c r="C93">
-        <v>-5250</v>
+        <v>791</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2390,41 +2368,41 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="B94">
-        <v>-375</v>
+        <v>2000</v>
       </c>
       <c r="C94">
-        <v>6030</v>
+        <v>-5250</v>
       </c>
       <c r="D94">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="B95">
-        <v>0</v>
+        <v>-375</v>
       </c>
       <c r="C95">
-        <v>-25244</v>
+        <v>6030</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B96">
-        <v>-650</v>
+        <v>59770</v>
       </c>
       <c r="C96">
-        <v>-2781</v>
+        <v>-25244</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2432,41 +2410,41 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-650</v>
       </c>
       <c r="C97">
-        <v>150</v>
+        <v>-2781</v>
       </c>
       <c r="D97">
-        <v>8370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="B98">
-        <v>5900</v>
+        <v>-50</v>
       </c>
       <c r="C98">
-        <v>-30000</v>
+        <v>150</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>8370</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B99">
-        <v>-1260</v>
+        <v>5900</v>
       </c>
       <c r="C99">
-        <v>125</v>
+        <v>-30000</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -2474,69 +2452,69 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B100">
-        <v>-1000</v>
+        <v>-1260</v>
       </c>
       <c r="C100">
-        <v>-100</v>
+        <v>125</v>
       </c>
       <c r="D100">
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B101">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="C101">
-        <v>-110</v>
+        <v>-100</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B102">
-        <v>104081</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>400</v>
+        <v>-110</v>
       </c>
       <c r="D102">
-        <v>-400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B103">
-        <v>-5500</v>
+        <v>104081</v>
       </c>
       <c r="C103">
-        <v>-6500</v>
+        <v>400</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B104">
-        <v>-550</v>
+        <v>-1400</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-6000</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -2544,13 +2522,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>-550</v>
       </c>
       <c r="C105">
-        <v>1550</v>
+        <v>0</v>
       </c>
       <c r="D105">
         <v>0</v>
@@ -2558,13 +2536,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B106">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>-2440</v>
+        <v>1550</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2572,13 +2550,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="C107">
-        <v>-500</v>
+        <v>-2440</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -2586,13 +2564,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B108">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -2600,13 +2578,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>141</v>
+        <v>94</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="C109">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -2614,13 +2592,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B110">
         <v>0</v>
       </c>
       <c r="C110">
-        <v>-1000</v>
+        <v>1500</v>
       </c>
       <c r="D110">
         <v>0</v>
@@ -2628,38 +2606,38 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="B111">
-        <v>1984</v>
+        <v>0</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111">
-        <v>-550</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B112">
-        <v>-9520</v>
+        <v>1984</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>-550</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B113">
-        <v>-150</v>
+        <v>-9520</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2670,10 +2648,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2684,13 +2662,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="B115">
         <v>0</v>
       </c>
       <c r="C115">
-        <v>4900</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2698,27 +2676,27 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>105</v>
+        <v>135</v>
       </c>
       <c r="B116">
-        <v>120000</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>-741</v>
+        <v>4500</v>
       </c>
       <c r="D116">
-        <v>-1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="B117">
-        <v>-170</v>
+        <v>120000</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>-741</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2726,10 +2704,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B118">
-        <v>-150</v>
+        <v>-170</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2740,13 +2718,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="B119">
-        <v>1000</v>
+        <v>-150</v>
       </c>
       <c r="C119">
-        <v>3100</v>
+        <v>-1000</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -2754,13 +2732,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B120">
-        <v>527</v>
+        <v>13000</v>
       </c>
       <c r="C120">
-        <v>-198</v>
+        <v>3600</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2768,13 +2746,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B121">
-        <v>-2300</v>
+        <v>527</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>-198</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -2782,13 +2760,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B122">
-        <v>-47568</v>
+        <v>-2300</v>
       </c>
       <c r="C122">
-        <v>-9353</v>
+        <v>0</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -2796,41 +2774,41 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B123">
-        <v>-30648</v>
+        <v>-47568</v>
       </c>
       <c r="C123">
-        <v>-300</v>
+        <v>-9553</v>
       </c>
       <c r="D123">
-        <v>-310</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B124">
-        <v>-700</v>
+        <v>-30668</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>-310</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="C125">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D125">
         <v>0</v>
@@ -2838,13 +2816,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B126">
-        <v>-697</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>-1000</v>
+        <v>-300</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -2852,13 +2830,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>154</v>
+        <v>107</v>
       </c>
       <c r="B127">
-        <v>-2600</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="D127">
         <v>0</v>
@@ -2866,346 +2844,341 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>148</v>
+      </c>
+      <c r="B128">
+        <v>-100</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>108</v>
+      </c>
+      <c r="B129">
+        <v>-2200</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>109</v>
+      </c>
+      <c r="B130">
+        <v>-925</v>
+      </c>
+      <c r="C130">
+        <v>-10</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>110</v>
+      </c>
+      <c r="B131">
+        <v>-200</v>
+      </c>
+      <c r="C131">
+        <v>-100</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>111</v>
+      </c>
+      <c r="B132">
+        <v>0</v>
+      </c>
+      <c r="C132">
+        <v>-820</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>112</v>
+      </c>
+      <c r="B133">
+        <v>104981</v>
+      </c>
+      <c r="C133">
+        <v>5000</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>113</v>
+      </c>
+      <c r="B134">
+        <v>-830</v>
+      </c>
+      <c r="C134">
+        <v>-94</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>149</v>
+      </c>
+      <c r="B135">
+        <v>0</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>-5379</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>114</v>
       </c>
-      <c r="B128">
-        <v>-2200</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="B136">
+        <v>-1500</v>
+      </c>
+      <c r="C136">
+        <v>-900</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>115</v>
       </c>
-      <c r="B129">
-        <v>-925</v>
-      </c>
-      <c r="C129">
-        <v>-10</v>
-      </c>
-      <c r="D129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
+      <c r="B137">
+        <v>0</v>
+      </c>
+      <c r="C137">
+        <v>-937</v>
+      </c>
+      <c r="D137">
+        <v>-215</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>-300</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>142</v>
+      </c>
+      <c r="B139">
+        <v>-1900</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>116</v>
       </c>
-      <c r="B130">
-        <v>-200</v>
-      </c>
-      <c r="C130">
+      <c r="B140">
+        <v>0</v>
+      </c>
+      <c r="C140">
+        <v>-500</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>0</v>
+      </c>
+      <c r="C141">
+        <v>-1802</v>
+      </c>
+      <c r="D141">
+        <v>-383</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>117</v>
+      </c>
+      <c r="B142">
+        <v>0</v>
+      </c>
+      <c r="C142">
+        <v>-312</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>150</v>
+      </c>
+      <c r="B143">
+        <v>-20330</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>118</v>
+      </c>
+      <c r="B144">
+        <v>-1350</v>
+      </c>
+      <c r="C144">
+        <v>-2421</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>119</v>
+      </c>
+      <c r="B145">
+        <v>-50</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>120</v>
+      </c>
+      <c r="B146">
+        <v>0</v>
+      </c>
+      <c r="C146">
         <v>-100</v>
       </c>
-      <c r="D130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>117</v>
-      </c>
-      <c r="B131">
-        <v>0</v>
-      </c>
-      <c r="C131">
-        <v>-820</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>118</v>
-      </c>
-      <c r="B132">
-        <v>104981</v>
-      </c>
-      <c r="C132">
-        <v>5000</v>
-      </c>
-      <c r="D132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>119</v>
-      </c>
-      <c r="B133">
-        <v>-830</v>
-      </c>
-      <c r="C133">
-        <v>-94</v>
-      </c>
-      <c r="D133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>146</v>
-      </c>
-      <c r="B134">
-        <v>-226</v>
-      </c>
-      <c r="C134">
-        <v>0</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>120</v>
-      </c>
-      <c r="B135">
-        <v>-1500</v>
-      </c>
-      <c r="C135">
-        <v>-900</v>
-      </c>
-      <c r="D135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+      <c r="D146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>121</v>
       </c>
-      <c r="B136">
-        <v>0</v>
-      </c>
-      <c r="C136">
-        <v>-937</v>
-      </c>
-      <c r="D136">
-        <v>-215</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>147</v>
-      </c>
-      <c r="B137">
-        <v>0</v>
-      </c>
-      <c r="C137">
-        <v>-300</v>
-      </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>155</v>
-      </c>
-      <c r="B138">
-        <v>-1200</v>
-      </c>
-      <c r="C138">
-        <v>0</v>
-      </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+      <c r="B147">
+        <v>0</v>
+      </c>
+      <c r="C147">
+        <v>-62922</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>140</v>
+      </c>
+      <c r="B148">
+        <v>487460</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>122</v>
+      </c>
+      <c r="B149">
+        <v>0</v>
+      </c>
+      <c r="C149">
+        <v>-4500</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
         <v>123</v>
       </c>
-      <c r="B139">
-        <v>0</v>
-      </c>
-      <c r="C139">
-        <v>-500</v>
-      </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>148</v>
-      </c>
-      <c r="B140">
-        <v>0</v>
-      </c>
-      <c r="C140">
-        <v>-33802</v>
-      </c>
-      <c r="D140">
-        <v>-383</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="B150">
+        <v>-1000</v>
+      </c>
+      <c r="C150">
+        <v>-77500</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>124</v>
       </c>
-      <c r="B141">
-        <v>0</v>
-      </c>
-      <c r="C141">
-        <v>-312</v>
-      </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>149</v>
-      </c>
-      <c r="B142">
-        <v>-1200</v>
-      </c>
-      <c r="C142">
-        <v>-2300</v>
-      </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>125</v>
-      </c>
-      <c r="B143">
-        <v>-1350</v>
-      </c>
-      <c r="C143">
-        <v>-2421</v>
-      </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>126</v>
-      </c>
-      <c r="B144">
-        <v>-50</v>
-      </c>
-      <c r="C144">
-        <v>0</v>
-      </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>127</v>
-      </c>
-      <c r="B145">
-        <v>0</v>
-      </c>
-      <c r="C145">
-        <v>-100</v>
-      </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>128</v>
-      </c>
-      <c r="B146">
-        <v>0</v>
-      </c>
-      <c r="C146">
-        <v>-62922</v>
-      </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>150</v>
-      </c>
-      <c r="B147">
-        <v>492460</v>
-      </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>129</v>
-      </c>
-      <c r="B148">
-        <v>0</v>
-      </c>
-      <c r="C148">
-        <v>-4500</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>130</v>
-      </c>
-      <c r="B149">
-        <v>-1000</v>
-      </c>
-      <c r="C149">
-        <v>-77500</v>
-      </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>131</v>
-      </c>
-      <c r="B150">
-        <v>0</v>
-      </c>
-      <c r="C150">
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
         <v>1500</v>
       </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>122</v>
-      </c>
-      <c r="B151">
-        <v>0</v>
-      </c>
-      <c r="C151">
-        <v>-1349</v>
-      </c>
       <c r="D151">
         <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>151</v>
-      </c>
-      <c r="F152">
-        <v>-5379</v>
       </c>
     </row>
   </sheetData>

--- a/excel/k_parties.xlsx
+++ b/excel/k_parties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>الشيكل</t>
   </si>
@@ -160,9 +160,6 @@
     <t>جودت الريس</t>
   </si>
   <si>
-    <t>منيب أبو سيدو</t>
-  </si>
-  <si>
     <t>مصطفى ابو سيدو</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
     <t>نضارات أبو تيكانا</t>
   </si>
   <si>
-    <t>محمد ثابت</t>
-  </si>
-  <si>
     <t>نبيل أبو معيلق</t>
   </si>
   <si>
@@ -256,9 +250,6 @@
     <t>أبو يوسف الغلايني</t>
   </si>
   <si>
-    <t>أياد الجماصي</t>
-  </si>
-  <si>
     <t>ثائر الريس</t>
   </si>
   <si>
@@ -448,12 +439,6 @@
     <t>تجميع كهرباء</t>
   </si>
   <si>
-    <t>أياد الريس</t>
-  </si>
-  <si>
-    <t>صندوق  احمد (2) احمد</t>
-  </si>
-  <si>
     <t>أبو مازن مجدلاوي</t>
   </si>
   <si>
@@ -463,16 +448,25 @@
     <t>ابو عرفا سكيك</t>
   </si>
   <si>
-    <t>كافور</t>
-  </si>
-  <si>
-    <t>ابو فياض</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ميار </t>
-  </si>
-  <si>
-    <t xml:space="preserve">شحاتة البنك </t>
+    <t>صندوق احمد (2) احمــــــــــــــــد</t>
+  </si>
+  <si>
+    <t>أسماعيل عمبر</t>
+  </si>
+  <si>
+    <t>سامي الحداد</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> أبو جهاد عاشور</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ميار سندس للصرافة</t>
+  </si>
+  <si>
+    <t>النعسان أصيل</t>
+  </si>
+  <si>
+    <t>شحاتة بنك</t>
   </si>
 </sst>
 </file>
@@ -1056,8 +1050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A158" sqref="A158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1081,10 +1075,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,7 +1100,7 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>-3350</v>
+        <v>-3450</v>
       </c>
       <c r="C3">
         <v>-3724</v>
@@ -1218,10 +1212,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>-75255</v>
+        <v>-133305</v>
       </c>
       <c r="C11">
-        <v>-20802</v>
+        <v>-25302</v>
       </c>
       <c r="D11">
         <v>-100</v>
@@ -1246,10 +1240,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>15600</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>-19000</v>
+        <v>-9893</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1285,16 +1279,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B16">
         <v>-1000</v>
       </c>
       <c r="C16">
-        <v>-2000</v>
+        <v>-2050</v>
       </c>
       <c r="D16">
-        <v>-300</v>
+        <v>-1040</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1506,13 +1500,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B32">
         <v>13670</v>
       </c>
       <c r="C32">
-        <v>-216143</v>
+        <v>-213013</v>
       </c>
       <c r="D32">
         <v>9725</v>
@@ -1523,7 +1517,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>28440</v>
+        <v>11420</v>
       </c>
       <c r="C33">
         <v>-1000</v>
@@ -1557,12 +1551,12 @@
         <v>-1000</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-210</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1576,7 +1570,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B37">
         <v>7000</v>
@@ -1643,7 +1637,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B42">
         <v>-1000</v>
@@ -1671,13 +1665,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>-30000</v>
+        <v>-30300</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1691,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>127000</v>
+        <v>136000</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1807,14 +1801,11 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>46</v>
-      </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>-2800</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1822,7 +1813,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B55">
         <v>50</v>
@@ -1836,7 +1827,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -1850,7 +1841,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1864,7 +1855,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B58">
         <v>-600</v>
@@ -1877,11 +1868,14 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>143</v>
+      </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1889,7 +1883,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1903,7 +1897,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -1920,7 +1914,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1934,7 +1928,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B63">
         <v>-4220</v>
@@ -1948,7 +1942,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B64">
         <v>-600</v>
@@ -1962,7 +1956,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -1976,7 +1970,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -1990,7 +1984,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2004,7 +1998,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B68">
         <v>500</v>
@@ -2018,7 +2012,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2032,7 +2026,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B70">
         <v>-700</v>
@@ -2046,7 +2040,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2060,7 +2054,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B72">
         <v>-12270</v>
@@ -2073,11 +2067,8 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>63</v>
-      </c>
       <c r="B73">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2088,7 +2079,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2102,7 +2093,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B75">
         <v>-350</v>
@@ -2116,7 +2107,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2130,7 +2121,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B77">
         <v>-80</v>
@@ -2144,7 +2135,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B78">
         <v>-800</v>
@@ -2158,7 +2149,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2172,7 +2163,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B80">
         <v>-24000</v>
@@ -2186,10 +2177,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B81">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="C81">
         <v>40000</v>
@@ -2200,7 +2191,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B82">
         <v>-1000</v>
@@ -2214,7 +2205,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B83">
         <v>-275</v>
@@ -2228,7 +2219,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B84">
         <v>-100</v>
@@ -2242,7 +2233,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B85">
         <v>-1090</v>
@@ -2256,7 +2247,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -2270,7 +2261,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2284,7 +2275,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -2298,7 +2289,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B89">
         <v>-300</v>
@@ -2312,7 +2303,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -2325,14 +2316,11 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>78</v>
-      </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2340,7 +2328,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -2354,7 +2342,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B93">
         <v>133</v>
@@ -2368,7 +2356,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B94">
         <v>2000</v>
@@ -2382,7 +2370,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B95">
         <v>-375</v>
@@ -2396,13 +2384,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B96">
-        <v>59770</v>
+        <v>-230</v>
       </c>
       <c r="C96">
-        <v>-25244</v>
+        <v>179</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2410,7 +2398,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B97">
         <v>-650</v>
@@ -2424,7 +2412,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B98">
         <v>-50</v>
@@ -2438,7 +2426,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B99">
         <v>5900</v>
@@ -2452,7 +2440,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B100">
         <v>-1260</v>
@@ -2466,7 +2454,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B101">
         <v>-1000</v>
@@ -2480,7 +2468,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2494,7 +2482,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B103">
         <v>104081</v>
@@ -2508,13 +2496,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B104">
         <v>-1400</v>
       </c>
       <c r="C104">
-        <v>-6000</v>
+        <v>-4450</v>
       </c>
       <c r="D104">
         <v>0</v>
@@ -2522,7 +2510,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B105">
         <v>-550</v>
@@ -2536,7 +2524,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -2550,7 +2538,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B107">
         <v>8000</v>
@@ -2564,7 +2552,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -2578,7 +2566,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B109">
         <v>-250</v>
@@ -2592,7 +2580,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -2606,21 +2594,21 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B111">
         <v>0</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="D111">
-        <v>-180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B112">
         <v>1984</v>
@@ -2634,7 +2622,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B113">
         <v>-9520</v>
@@ -2648,7 +2636,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B114">
         <v>-150</v>
@@ -2662,7 +2650,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -2676,7 +2664,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2690,13 +2678,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B117">
         <v>120000</v>
       </c>
       <c r="C117">
-        <v>-741</v>
+        <v>-366</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2704,7 +2692,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B118">
         <v>-170</v>
@@ -2718,7 +2706,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B119">
         <v>-150</v>
@@ -2732,10 +2720,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B120">
-        <v>13000</v>
+        <v>1000</v>
       </c>
       <c r="C120">
         <v>3600</v>
@@ -2746,7 +2734,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B121">
         <v>527</v>
@@ -2760,7 +2748,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B122">
         <v>-2300</v>
@@ -2774,13 +2762,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B123">
-        <v>-47568</v>
+        <v>-37568</v>
       </c>
       <c r="C123">
-        <v>-9553</v>
+        <v>-9753</v>
       </c>
       <c r="D123">
         <v>0</v>
@@ -2788,24 +2776,24 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B124">
         <v>-30668</v>
       </c>
       <c r="C124">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="D124">
-        <v>-310</v>
+        <v>-810</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B125">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2816,7 +2804,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -2830,7 +2818,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -2844,10 +2832,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B128">
-        <v>-100</v>
+        <v>-2500</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2858,10 +2846,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B129">
-        <v>-2200</v>
+        <v>-4926</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2872,7 +2860,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B130">
         <v>-925</v>
@@ -2886,7 +2874,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B131">
         <v>-200</v>
@@ -2900,7 +2888,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -2914,10 +2902,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B133">
-        <v>104981</v>
+        <v>81131</v>
       </c>
       <c r="C133">
         <v>5000</v>
@@ -2928,7 +2916,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B134">
         <v>-830</v>
@@ -2942,7 +2930,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -2959,7 +2947,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B136">
         <v>-1500</v>
@@ -2973,7 +2961,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -2987,7 +2975,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -3001,10 +2989,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B139">
-        <v>-1900</v>
+        <v>-200</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -3015,7 +3003,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -3029,13 +3017,13 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B141">
         <v>0</v>
       </c>
       <c r="C141">
-        <v>-1802</v>
+        <v>-30432</v>
       </c>
       <c r="D141">
         <v>-383</v>
@@ -3043,7 +3031,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -3057,13 +3045,13 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B143">
-        <v>-20330</v>
+        <v>-2780</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>-2500</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -3071,7 +3059,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B144">
         <v>-1350</v>
@@ -3085,7 +3073,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B145">
         <v>-50</v>
@@ -3099,7 +3087,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -3113,13 +3101,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B147">
         <v>0</v>
       </c>
       <c r="C147">
-        <v>-62922</v>
+        <v>-58142</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -3127,7 +3115,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B148">
         <v>487460</v>
@@ -3136,12 +3124,12 @@
         <v>0</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -3155,7 +3143,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B150">
         <v>-1000</v>
@@ -3169,7 +3157,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B151">
         <v>0</v>

--- a/excel/k_parties.xlsx
+++ b/excel/k_parties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>الشيكل</t>
   </si>
@@ -322,15 +322,9 @@
     <t>دليس</t>
   </si>
   <si>
-    <t>عدنان ميلاد</t>
-  </si>
-  <si>
     <t>تأمينات بنك القدس</t>
   </si>
   <si>
-    <t>زين أبو سيدو</t>
-  </si>
-  <si>
     <t>أبو علاء الرفاتي</t>
   </si>
   <si>
@@ -358,9 +352,6 @@
     <t>حساينة الرمال</t>
   </si>
   <si>
-    <t xml:space="preserve">مالك ابومعرف </t>
-  </si>
-  <si>
     <t>البنك الاسلامي الفلسطيني</t>
   </si>
   <si>
@@ -394,9 +385,6 @@
     <t>سامر شراب</t>
   </si>
   <si>
-    <t xml:space="preserve"> رامي الغلايني</t>
-  </si>
-  <si>
     <t>دغمش بناشر</t>
   </si>
   <si>
@@ -427,61 +415,55 @@
     <t>محمود كاظم</t>
   </si>
   <si>
-    <t>تجميع كهرباء</t>
-  </si>
-  <si>
-    <t>أبو مازن مجدلاوي</t>
-  </si>
-  <si>
-    <t>الصباغ</t>
-  </si>
-  <si>
     <t>ابو عرفا سكيك</t>
   </si>
   <si>
     <t xml:space="preserve"> أبو جهاد عاشور</t>
   </si>
   <si>
-    <t>ساعد سعد</t>
-  </si>
-  <si>
-    <t>الزهارنة المنيوم</t>
-  </si>
-  <si>
-    <t>ادهم شحيبر</t>
-  </si>
-  <si>
-    <t>صندوق احمد صندوق2 أحــــــــــمـــــــــــد</t>
-  </si>
-  <si>
     <t>حمود الحايك</t>
   </si>
   <si>
     <t>رشدي ابوسيدو</t>
   </si>
   <si>
-    <t>أسماعيل عنبر</t>
-  </si>
-  <si>
-    <t>أسامة بلبل</t>
-  </si>
-  <si>
     <t xml:space="preserve">ابو انس </t>
   </si>
   <si>
     <t>خالد الغندور</t>
   </si>
   <si>
-    <t xml:space="preserve"> ميار دللول سندس للصرافة</t>
-  </si>
-  <si>
-    <t>مالك النتيسي</t>
-  </si>
-  <si>
-    <t>شحاتة بـــــــنــــــك</t>
-  </si>
-  <si>
-    <t>أبو علاء سكيك</t>
+    <t>ساعد</t>
+  </si>
+  <si>
+    <t>أبو داير</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أبو فياض </t>
+  </si>
+  <si>
+    <t>صندوق 2 احمد صنودق2 احـــــــــــــــــــــــــــــــــــــمــــــــــــــــد</t>
+  </si>
+  <si>
+    <t>محمد ثابت</t>
+  </si>
+  <si>
+    <t>أبو أنس أو سيدو</t>
+  </si>
+  <si>
+    <t>مالك أبو معروف</t>
+  </si>
+  <si>
+    <t>سامي الحلو</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ميار دلول سندس للصرافة</t>
+  </si>
+  <si>
+    <t>أبو يعقوب لظن</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شحاتة بـــنـــــك </t>
   </si>
 </sst>
 </file>
@@ -1068,15 +1050,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.19921875" style="21" customWidth="1"/>
+    <col min="1" max="1" width="40.59765625" style="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="21" customWidth="1"/>
     <col min="3" max="3" width="11" style="21" customWidth="1"/>
     <col min="4" max="4" width="13.3984375" style="21" customWidth="1"/>
@@ -1096,10 +1078,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1121,7 +1103,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="21">
-        <v>-4250</v>
+        <v>-6100</v>
       </c>
       <c r="C3" s="21">
         <v>-3724</v>
@@ -1233,13 +1215,13 @@
         <v>12</v>
       </c>
       <c r="B11" s="21">
-        <v>-23605</v>
+        <v>-39</v>
       </c>
       <c r="C11" s="21">
-        <v>-82350</v>
+        <v>-5067</v>
       </c>
       <c r="D11" s="21">
-        <v>-100</v>
+        <v>-11200</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1250,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="21">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="D12" s="21">
         <v>0</v>
@@ -1272,7 +1254,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B14" s="21">
         <v>-380</v>
@@ -1300,16 +1282,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B16" s="21">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="C16" s="21">
         <v>-2050</v>
       </c>
       <c r="D16" s="21">
-        <v>-1040</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1328,13 +1310,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B18" s="21">
         <v>0</v>
       </c>
       <c r="C18" s="21">
-        <v>-5000</v>
+        <v>-41000</v>
       </c>
       <c r="D18" s="21">
         <v>0</v>
@@ -1370,16 +1352,16 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B21" s="21">
-        <v>-2040</v>
+        <v>-300</v>
       </c>
       <c r="C21" s="21">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="D21" s="21">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1524,16 +1506,16 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B32" s="21">
         <v>13670</v>
       </c>
       <c r="C32" s="21">
-        <v>-196450</v>
+        <v>-296306</v>
       </c>
       <c r="D32" s="21">
-        <v>5725</v>
+        <v>39195</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1541,10 +1523,10 @@
         <v>29</v>
       </c>
       <c r="B33" s="21">
-        <v>36000</v>
+        <v>44000</v>
       </c>
       <c r="C33" s="21">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="D33" s="21">
         <v>20000</v>
@@ -1572,18 +1554,18 @@
         <v>-650</v>
       </c>
       <c r="C35" s="21">
-        <v>-1000</v>
+        <v>-1810</v>
       </c>
       <c r="D35" s="21">
-        <v>-210</v>
+        <v>-150</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B36" s="21">
-        <v>41000</v>
+        <v>28000</v>
       </c>
       <c r="C36" s="21">
         <v>13000</v>
@@ -1594,7 +1576,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B37" s="21">
         <v>7000</v>
@@ -1636,13 +1618,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="21" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B40" s="21">
         <v>0</v>
       </c>
       <c r="C40" s="21">
-        <v>-15205</v>
+        <v>-3491</v>
       </c>
       <c r="D40" s="21">
         <v>0</v>
@@ -1663,11 +1645,8 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>124</v>
-      </c>
       <c r="B42" s="21">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="C42" s="21">
         <v>0</v>
@@ -1734,7 +1713,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B47" s="21">
         <v>0</v>
@@ -1793,7 +1772,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="21">
-        <v>35100</v>
+        <v>25100</v>
       </c>
       <c r="C51" s="21">
         <v>-200</v>
@@ -1831,8 +1810,11 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>141</v>
+      </c>
       <c r="B54" s="21">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="C54" s="21">
         <v>0</v>
@@ -1894,18 +1876,15 @@
         <v>-8065</v>
       </c>
       <c r="D58" s="21">
-        <v>-300</v>
+        <v>7750</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
-        <v>146</v>
-      </c>
       <c r="B59" s="21">
         <v>0</v>
       </c>
       <c r="C59" s="21">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="D59" s="21">
         <v>0</v>
@@ -1950,7 +1929,7 @@
         <v>0</v>
       </c>
       <c r="C62" s="21">
-        <v>-10575</v>
+        <v>-10700</v>
       </c>
       <c r="D62" s="21">
         <v>0</v>
@@ -2027,9 +2006,6 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="21" t="s">
-        <v>135</v>
-      </c>
       <c r="B68" s="21">
         <v>0</v>
       </c>
@@ -2042,16 +2018,16 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B69" s="21">
         <v>0</v>
       </c>
       <c r="C69" s="21">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D69" s="21">
-        <v>-200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2087,7 +2063,7 @@
         <v>59</v>
       </c>
       <c r="B72" s="21">
-        <v>-12270</v>
+        <v>-9270</v>
       </c>
       <c r="C72" s="21">
         <v>0</v>
@@ -2098,13 +2074,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B73" s="21">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C73" s="21">
-        <v>0</v>
+        <v>-350</v>
       </c>
       <c r="D73" s="21">
         <v>0</v>
@@ -2140,13 +2116,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="B76" s="21">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="C76" s="21">
-        <v>-50</v>
+        <v>-1244</v>
       </c>
       <c r="D76" s="21">
         <v>0</v>
@@ -2154,13 +2130,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B77" s="21">
-        <v>-80</v>
+        <v>-800</v>
       </c>
       <c r="C77" s="21">
-        <v>-1244</v>
+        <v>0</v>
       </c>
       <c r="D77" s="21">
         <v>0</v>
@@ -2168,13 +2144,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B78" s="21">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="C78" s="21">
-        <v>0</v>
+        <v>-122</v>
       </c>
       <c r="D78" s="21">
         <v>0</v>
@@ -2182,55 +2158,55 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B79" s="21">
-        <v>0</v>
+        <v>-24000</v>
       </c>
       <c r="C79" s="21">
-        <v>-122</v>
+        <v>-7785</v>
       </c>
       <c r="D79" s="21">
-        <v>0</v>
+        <v>-204</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B80" s="21">
-        <v>-24000</v>
+        <v>-500</v>
       </c>
       <c r="C80" s="21">
-        <v>-7785</v>
+        <v>17435</v>
       </c>
       <c r="D80" s="21">
-        <v>-204</v>
+        <v>-2500</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B81" s="21">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="C81" s="21">
-        <v>25000</v>
+        <v>-35000</v>
       </c>
       <c r="D81" s="21">
-        <v>-2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B82" s="21">
-        <v>-1000</v>
+        <v>-275</v>
       </c>
       <c r="C82" s="21">
-        <v>-35000</v>
+        <v>0</v>
       </c>
       <c r="D82" s="21">
         <v>0</v>
@@ -2238,10 +2214,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B83" s="21">
-        <v>-275</v>
+        <v>-100</v>
       </c>
       <c r="C83" s="21">
         <v>0</v>
@@ -2252,10 +2228,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B84" s="21">
-        <v>-100</v>
+        <v>-1090</v>
       </c>
       <c r="C84" s="21">
         <v>0</v>
@@ -2266,13 +2242,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="B85" s="21">
-        <v>-1090</v>
+        <v>0</v>
       </c>
       <c r="C85" s="21">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="D85" s="21">
         <v>0</v>
@@ -2280,13 +2256,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="B86" s="21">
         <v>0</v>
       </c>
       <c r="C86" s="21">
-        <v>-150</v>
+        <v>-30000</v>
       </c>
       <c r="D86" s="21">
         <v>0</v>
@@ -2294,13 +2270,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B87" s="21">
         <v>0</v>
       </c>
       <c r="C87" s="21">
-        <v>-30000</v>
+        <v>-915</v>
       </c>
       <c r="D87" s="21">
         <v>0</v>
@@ -2308,13 +2284,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="B88" s="21">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C88" s="21">
-        <v>-915</v>
+        <v>0</v>
       </c>
       <c r="D88" s="21">
         <v>0</v>
@@ -2322,41 +2298,41 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="B89" s="21">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C89" s="21">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="D89" s="21">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="B90" s="21">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="C90" s="21">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="D90" s="21">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="B91" s="21">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="C91" s="21">
-        <v>0</v>
+        <v>-615</v>
       </c>
       <c r="D91" s="21">
         <v>0</v>
@@ -2364,13 +2340,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B92" s="21">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="C92" s="21">
-        <v>-615</v>
+        <v>791</v>
       </c>
       <c r="D92" s="21">
         <v>0</v>
@@ -2378,13 +2354,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B93" s="21">
-        <v>133</v>
+        <v>3050</v>
       </c>
       <c r="C93" s="21">
-        <v>791</v>
+        <v>-5250</v>
       </c>
       <c r="D93" s="21">
         <v>0</v>
@@ -2392,13 +2368,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="B94" s="21">
-        <v>3050</v>
+        <v>-1500</v>
       </c>
       <c r="C94" s="21">
-        <v>-5250</v>
+        <v>-3300</v>
       </c>
       <c r="D94" s="21">
         <v>0</v>
@@ -2406,13 +2382,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="B95" s="21">
         <v>0</v>
       </c>
       <c r="C95" s="21">
-        <v>-3300</v>
+        <v>-13376</v>
       </c>
       <c r="D95" s="21">
         <v>0</v>
@@ -2420,13 +2396,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B96" s="21">
-        <v>-2230</v>
+        <v>-650</v>
       </c>
       <c r="C96" s="21">
-        <v>179</v>
+        <v>-2781</v>
       </c>
       <c r="D96" s="21">
         <v>0</v>
@@ -2434,41 +2410,41 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
-        <v>78</v>
+        <v>123</v>
       </c>
       <c r="B97" s="21">
-        <v>-650</v>
+        <v>10715</v>
       </c>
       <c r="C97" s="21">
-        <v>-2781</v>
+        <v>4100</v>
       </c>
       <c r="D97" s="21">
-        <v>0</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="B98" s="21">
-        <v>25112</v>
+        <v>5900</v>
       </c>
       <c r="C98" s="21">
-        <v>150</v>
+        <v>-30000</v>
       </c>
       <c r="D98" s="21">
-        <v>3370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B99" s="21">
-        <v>5900</v>
+        <v>-1260</v>
       </c>
       <c r="C99" s="21">
-        <v>-30000</v>
+        <v>125</v>
       </c>
       <c r="D99" s="21">
         <v>0</v>
@@ -2476,69 +2452,69 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B100" s="21">
-        <v>-1260</v>
+        <v>-1000</v>
       </c>
       <c r="C100" s="21">
-        <v>125</v>
+        <v>-100</v>
       </c>
       <c r="D100" s="21">
-        <v>0</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B101" s="21">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="C101" s="21">
-        <v>-100</v>
+        <v>-110</v>
       </c>
       <c r="D101" s="21">
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B102" s="21">
-        <v>0</v>
+        <v>238383</v>
       </c>
       <c r="C102" s="21">
-        <v>-110</v>
+        <v>0</v>
       </c>
       <c r="D102" s="21">
-        <v>0</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B103" s="21">
-        <v>104081</v>
+        <v>-1400</v>
       </c>
       <c r="C103" s="21">
-        <v>37000</v>
+        <v>-6960</v>
       </c>
       <c r="D103" s="21">
-        <v>-400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B104" s="21">
-        <v>-1400</v>
+        <v>-550</v>
       </c>
       <c r="C104" s="21">
-        <v>-3898</v>
+        <v>0</v>
       </c>
       <c r="D104" s="21">
         <v>0</v>
@@ -2546,13 +2522,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B105" s="21">
-        <v>-550</v>
+        <v>0</v>
       </c>
       <c r="C105" s="21">
-        <v>0</v>
+        <v>1550</v>
       </c>
       <c r="D105" s="21">
         <v>0</v>
@@ -2560,13 +2536,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B106" s="21">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="C106" s="21">
-        <v>1550</v>
+        <v>-2440</v>
       </c>
       <c r="D106" s="21">
         <v>0</v>
@@ -2574,13 +2550,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B107" s="21">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="C107" s="21">
-        <v>-2440</v>
+        <v>-600</v>
       </c>
       <c r="D107" s="21">
         <v>0</v>
@@ -2588,13 +2564,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B108" s="21">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="C108" s="21">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="D108" s="21">
         <v>0</v>
@@ -2602,13 +2578,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="B109" s="21">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="C109" s="21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D109" s="21">
         <v>0</v>
@@ -2616,13 +2592,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B110" s="21">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="C110" s="21">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D110" s="21">
         <v>0</v>
@@ -2630,38 +2606,38 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="B111" s="21">
-        <v>-400</v>
+        <v>1984</v>
       </c>
       <c r="C111" s="21">
         <v>0</v>
       </c>
       <c r="D111" s="21">
-        <v>0</v>
+        <v>-550</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B112" s="21">
-        <v>1984</v>
+        <v>-9520</v>
       </c>
       <c r="C112" s="21">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D112" s="21">
-        <v>-550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B113" s="21">
-        <v>-9520</v>
+        <v>-150</v>
       </c>
       <c r="C113" s="21">
         <v>0</v>
@@ -2672,10 +2648,10 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B114" s="21">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="C114" s="21">
         <v>0</v>
@@ -2686,13 +2662,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
       <c r="B115" s="21">
         <v>0</v>
       </c>
       <c r="C115" s="21">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="D115" s="21">
         <v>0</v>
@@ -2700,41 +2676,41 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="B116" s="21">
-        <v>0</v>
+        <v>129000</v>
       </c>
       <c r="C116" s="21">
-        <v>1800</v>
+        <v>-1016</v>
       </c>
       <c r="D116" s="21">
-        <v>0</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="B117" s="21">
-        <v>95000</v>
+        <v>-170</v>
       </c>
       <c r="C117" s="21">
-        <v>-366</v>
+        <v>0</v>
       </c>
       <c r="D117" s="21">
-        <v>-1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B118" s="21">
-        <v>-170</v>
+        <v>-150</v>
       </c>
       <c r="C118" s="21">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D118" s="21">
         <v>0</v>
@@ -2742,13 +2718,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="B119" s="21">
-        <v>-150</v>
+        <v>3500</v>
       </c>
       <c r="C119" s="21">
-        <v>0</v>
+        <v>9600</v>
       </c>
       <c r="D119" s="21">
         <v>0</v>
@@ -2756,13 +2732,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B120" s="21">
-        <v>3600</v>
+        <v>527</v>
       </c>
       <c r="C120" s="21">
-        <v>9600</v>
+        <v>-198</v>
       </c>
       <c r="D120" s="21">
         <v>0</v>
@@ -2770,13 +2746,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B121" s="21">
-        <v>527</v>
+        <v>-2300</v>
       </c>
       <c r="C121" s="21">
-        <v>-198</v>
+        <v>0</v>
       </c>
       <c r="D121" s="21">
         <v>0</v>
@@ -2784,13 +2760,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B122" s="21">
-        <v>-2300</v>
+        <v>-9218</v>
       </c>
       <c r="C122" s="21">
-        <v>0</v>
+        <v>-6553</v>
       </c>
       <c r="D122" s="21">
         <v>0</v>
@@ -2798,30 +2774,30 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B123" s="21">
-        <v>-47968</v>
+        <v>-15418</v>
       </c>
       <c r="C123" s="21">
-        <v>-9953</v>
+        <v>-700</v>
       </c>
       <c r="D123" s="21">
-        <v>0</v>
+        <v>-810</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="B124" s="21">
-        <v>-30668</v>
+        <v>0</v>
       </c>
       <c r="C124" s="21">
-        <v>-700</v>
+        <v>-300</v>
       </c>
       <c r="D124" s="21">
-        <v>-810</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2832,21 +2808,18 @@
         <v>0</v>
       </c>
       <c r="C125" s="21">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D125" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="21" t="s">
-        <v>101</v>
-      </c>
       <c r="B126" s="21">
         <v>0</v>
       </c>
       <c r="C126" s="21">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D126" s="21">
         <v>0</v>
@@ -2854,13 +2827,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="B127" s="21">
-        <v>0</v>
+        <v>-2500</v>
       </c>
       <c r="C127" s="21">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="D127" s="21">
         <v>0</v>
@@ -2868,10 +2841,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="B128" s="21">
-        <v>-2500</v>
+        <v>-4926</v>
       </c>
       <c r="C128" s="21">
         <v>0</v>
@@ -2882,13 +2855,13 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B129" s="21">
-        <v>-4926</v>
+        <v>-925</v>
       </c>
       <c r="C129" s="21">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D129" s="21">
         <v>0</v>
@@ -2896,13 +2869,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B130" s="21">
-        <v>-925</v>
+        <v>-200</v>
       </c>
       <c r="C130" s="21">
-        <v>-10</v>
+        <v>-100</v>
       </c>
       <c r="D130" s="21">
         <v>0</v>
@@ -2910,13 +2883,13 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B131" s="21">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C131" s="21">
-        <v>-100</v>
+        <v>-820</v>
       </c>
       <c r="D131" s="21">
         <v>0</v>
@@ -2924,13 +2897,13 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B132" s="21">
-        <v>0</v>
+        <v>25691</v>
       </c>
       <c r="C132" s="21">
-        <v>-820</v>
+        <v>8000</v>
       </c>
       <c r="D132" s="21">
         <v>0</v>
@@ -2938,13 +2911,13 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B133" s="21">
-        <v>51131</v>
+        <v>-830</v>
       </c>
       <c r="C133" s="21">
-        <v>5000</v>
+        <v>-94</v>
       </c>
       <c r="D133" s="21">
         <v>0</v>
@@ -2952,72 +2925,72 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="B134" s="21">
-        <v>-830</v>
+        <v>0</v>
       </c>
       <c r="C134" s="21">
-        <v>-94</v>
+        <v>0</v>
       </c>
       <c r="D134" s="21">
         <v>0</v>
+      </c>
+      <c r="F134" s="21">
+        <v>-3379</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
-        <v>150</v>
+        <v>107</v>
       </c>
       <c r="B135" s="21">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="C135" s="21">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="D135" s="21">
         <v>0</v>
-      </c>
-      <c r="F135" s="21">
-        <v>-5379</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B136" s="21">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="C136" s="21">
-        <v>-900</v>
+        <v>-937</v>
       </c>
       <c r="D136" s="21">
-        <v>0</v>
+        <v>-215</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B137" s="21">
         <v>0</v>
       </c>
       <c r="C137" s="21">
-        <v>-937</v>
+        <v>-300</v>
       </c>
       <c r="D137" s="21">
-        <v>-215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="B138" s="21">
         <v>0</v>
       </c>
       <c r="C138" s="21">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="D138" s="21">
         <v>0</v>
@@ -3025,13 +2998,13 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="B139" s="21">
         <v>0</v>
       </c>
       <c r="C139" s="21">
-        <v>-6200</v>
+        <v>-500</v>
       </c>
       <c r="D139" s="21">
         <v>0</v>
@@ -3039,41 +3012,38 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B140" s="21">
-        <v>0</v>
+        <v>-54</v>
       </c>
       <c r="C140" s="21">
-        <v>-500</v>
+        <v>-1995</v>
       </c>
       <c r="D140" s="21">
-        <v>0</v>
+        <v>-383</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="21" t="s">
-        <v>133</v>
-      </c>
       <c r="B141" s="21">
-        <v>-63900</v>
+        <v>0</v>
       </c>
       <c r="C141" s="21">
-        <v>-28846</v>
+        <v>0</v>
       </c>
       <c r="D141" s="21">
-        <v>-383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="B142" s="21">
-        <v>0</v>
+        <v>-4990</v>
       </c>
       <c r="C142" s="21">
-        <v>-7930</v>
+        <v>-5700</v>
       </c>
       <c r="D142" s="21">
         <v>0</v>
@@ -3081,13 +3051,13 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="B143" s="21">
-        <v>-3465</v>
+        <v>-1350</v>
       </c>
       <c r="C143" s="21">
-        <v>-4200</v>
+        <v>-2421</v>
       </c>
       <c r="D143" s="21">
         <v>0</v>
@@ -3095,13 +3065,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B144" s="21">
-        <v>-1350</v>
+        <v>-50</v>
       </c>
       <c r="C144" s="21">
-        <v>-2421</v>
+        <v>0</v>
       </c>
       <c r="D144" s="21">
         <v>0</v>
@@ -3109,13 +3079,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B145" s="21">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="C145" s="21">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D145" s="21">
         <v>0</v>
@@ -3123,13 +3093,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B146" s="21">
         <v>0</v>
       </c>
       <c r="C146" s="21">
-        <v>-100</v>
+        <v>-53554</v>
       </c>
       <c r="D146" s="21">
         <v>0</v>
@@ -3137,41 +3107,38 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="B147" s="21">
-        <v>0</v>
+        <v>492460</v>
       </c>
       <c r="C147" s="21">
-        <v>-53554</v>
+        <v>0</v>
       </c>
       <c r="D147" s="21">
-        <v>0</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="21" t="s">
-        <v>134</v>
-      </c>
       <c r="B148" s="21">
-        <v>484460</v>
+        <v>0</v>
       </c>
       <c r="C148" s="21">
         <v>0</v>
       </c>
       <c r="D148" s="21">
-        <v>-300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="21" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="B149" s="21">
-        <v>-200</v>
+        <v>-1000</v>
       </c>
       <c r="C149" s="21">
-        <v>0</v>
+        <v>-77500</v>
       </c>
       <c r="D149" s="21">
         <v>0</v>
@@ -3179,29 +3146,15 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B150" s="21">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="C150" s="21">
-        <v>-77500</v>
+        <v>1500</v>
       </c>
       <c r="D150" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B151" s="21">
-        <v>0</v>
-      </c>
-      <c r="C151" s="21">
-        <v>1500</v>
-      </c>
-      <c r="D151" s="21">
         <v>0</v>
       </c>
     </row>

--- a/excel/k_parties.xlsx
+++ b/excel/k_parties.xlsx
@@ -457,24 +457,15 @@
     <t>أبوداير</t>
   </si>
   <si>
-    <t>سامي احلو</t>
-  </si>
-  <si>
     <t>ام خليل لظن</t>
   </si>
   <si>
     <t>مالك الرنتيسي</t>
   </si>
   <si>
-    <t>الزهارنة ألمنيوم</t>
-  </si>
-  <si>
     <t xml:space="preserve">منيب أبو سيد </t>
   </si>
   <si>
-    <t>صندوق 2 صندوق احمد صندوق2احــــمد</t>
-  </si>
-  <si>
     <t>أبو حسن الغمري</t>
   </si>
   <si>
@@ -488,6 +479,15 @@
   </si>
   <si>
     <t>شـحاتة بـنـك</t>
+  </si>
+  <si>
+    <t>صندوق2 صندوق احمد صندوق2 احمد</t>
+  </si>
+  <si>
+    <t>شرين مشتهى</t>
+  </si>
+  <si>
+    <t>يورو</t>
   </si>
 </sst>
 </file>
@@ -1084,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="H153" sqref="H153"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="F156" sqref="F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1099,7 +1099,7 @@
     <col min="7" max="16384" width="8.796875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1115,8 +1115,11 @@
       <c r="F1" s="21" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>5</v>
       </c>
@@ -1158,7 +1161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
@@ -1172,7 +1175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>8</v>
       </c>
@@ -1200,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>9</v>
       </c>
@@ -1214,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
@@ -1228,7 +1231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>11</v>
       </c>
@@ -1242,21 +1245,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="21">
-        <v>-12664</v>
+        <v>-73445</v>
       </c>
       <c r="C11" s="21">
-        <v>-20296</v>
+        <v>-26721</v>
       </c>
       <c r="D11" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>13</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>14</v>
       </c>
@@ -1284,7 +1287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>135</v>
       </c>
@@ -1298,7 +1301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>15</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
         <v>115</v>
       </c>
@@ -1320,7 +1323,7 @@
         <v>-6400</v>
       </c>
       <c r="C16" s="21">
-        <v>-1290</v>
+        <v>-1805</v>
       </c>
       <c r="D16" s="21">
         <v>-1400</v>
@@ -1538,7 +1541,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B32" s="21">
         <v>0</v>
@@ -1547,7 +1550,7 @@
         <v>-29462</v>
       </c>
       <c r="D32" s="21">
-        <v>-25712</v>
+        <v>-27712</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1555,7 +1558,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="21">
-        <v>35000</v>
+        <v>32000</v>
       </c>
       <c r="C33" s="21">
         <v>0</v>
@@ -1597,7 +1600,7 @@
         <v>116</v>
       </c>
       <c r="B36" s="21">
-        <v>7800</v>
+        <v>4800</v>
       </c>
       <c r="C36" s="21">
         <v>2940</v>
@@ -1838,7 +1841,7 @@
         <v>-5000</v>
       </c>
       <c r="C53" s="21">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="D53" s="21">
         <v>0</v>
@@ -1911,12 +1914,12 @@
         <v>-8065</v>
       </c>
       <c r="D58" s="21">
-        <v>7062</v>
+        <v>6762</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B59" s="21">
         <v>0</v>
@@ -2059,7 +2062,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B69" s="21">
         <v>-350</v>
@@ -2157,7 +2160,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B76" s="21">
         <v>-2700</v>
@@ -2219,7 +2222,7 @@
         <v>-100</v>
       </c>
       <c r="C80" s="21">
-        <v>-17079</v>
+        <v>-13079</v>
       </c>
       <c r="D80" s="21">
         <v>-204</v>
@@ -2418,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="C94" s="21">
-        <v>-2620</v>
+        <v>-2820</v>
       </c>
       <c r="D94" s="21">
         <v>0</v>
@@ -2555,7 +2558,7 @@
         <v>81</v>
       </c>
       <c r="B104" s="21">
-        <v>-1400</v>
+        <v>-4400</v>
       </c>
       <c r="C104" s="21">
         <v>-534</v>
@@ -2635,11 +2638,14 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="21" t="s">
+        <v>154</v>
+      </c>
       <c r="B110" s="21">
         <v>0</v>
       </c>
       <c r="C110" s="21">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="D110" s="21">
         <v>0</v>
@@ -2723,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="C116" s="21">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="D116" s="21">
         <v>0</v>
@@ -2734,10 +2740,10 @@
         <v>91</v>
       </c>
       <c r="B117" s="21">
-        <v>111200</v>
+        <v>132000</v>
       </c>
       <c r="C117" s="21">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D117" s="21">
         <v>-1500</v>
@@ -2779,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="C120" s="21">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="D120" s="21">
         <v>0</v>
@@ -2843,7 +2849,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B125" s="21">
         <v>0</v>
@@ -3024,14 +3030,11 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="21" t="s">
-        <v>145</v>
-      </c>
       <c r="B138" s="21">
         <v>0</v>
       </c>
       <c r="C138" s="21">
-        <v>5500</v>
+        <v>0</v>
       </c>
       <c r="D138" s="21">
         <v>0</v>
@@ -3073,7 +3076,7 @@
         <v>-3270</v>
       </c>
       <c r="C141" s="21">
-        <v>-159830</v>
+        <v>-139830</v>
       </c>
       <c r="D141" s="21">
         <v>-383</v>
@@ -3081,7 +3084,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B142" s="21">
         <v>0</v>
@@ -3095,13 +3098,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B143" s="21">
         <v>-5015</v>
       </c>
       <c r="C143" s="21">
-        <v>-6080</v>
+        <v>-1080</v>
       </c>
       <c r="D143" s="21">
         <v>0</v>
@@ -3157,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="C147" s="21">
-        <v>-69312</v>
+        <v>-53384</v>
       </c>
       <c r="D147" s="21">
         <v>0</v>
@@ -3179,7 +3182,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149" s="21">
         <v>0</v>
@@ -3220,14 +3223,11 @@
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="21" t="s">
-        <v>148</v>
-      </c>
       <c r="B152" s="21">
         <v>0</v>
       </c>
       <c r="C152" s="21">
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="D152" s="21">
         <v>0</v>
@@ -3235,7 +3235,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B153" s="21">
         <v>0</v>

--- a/excel/k_parties.xlsx
+++ b/excel/k_parties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>الشيكل</t>
   </si>
@@ -163,9 +163,6 @@
     <t>عمر أبو سيدو</t>
   </si>
   <si>
-    <t>ابو حمزة المشهراوي</t>
-  </si>
-  <si>
     <t>مجموع عملات أجنبية</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
     <t>عادل لظن</t>
   </si>
   <si>
-    <t>أبو علي أبو طويلة</t>
-  </si>
-  <si>
     <t>الشيخ رضوان</t>
   </si>
   <si>
@@ -340,9 +334,6 @@
     <t>أبو خميس الجرجاوي 2</t>
   </si>
   <si>
-    <t>حساينة الرمال</t>
-  </si>
-  <si>
     <t>البنك الاسلامي الفلسطيني</t>
   </si>
   <si>
@@ -370,9 +361,6 @@
     <t>حاتم المجذوب</t>
   </si>
   <si>
-    <t xml:space="preserve">جبركحيل </t>
-  </si>
-  <si>
     <t>سامر شراب</t>
   </si>
   <si>
@@ -412,9 +400,6 @@
     <t xml:space="preserve">ابو انس </t>
   </si>
   <si>
-    <t>خالد الغندور</t>
-  </si>
-  <si>
     <t xml:space="preserve">أبو فياض </t>
   </si>
   <si>
@@ -424,51 +409,24 @@
     <t>مالك أبو معروف</t>
   </si>
   <si>
-    <t>أبو يعقوب لظن</t>
-  </si>
-  <si>
     <t>ساعد</t>
   </si>
   <si>
-    <t>محمد فورة</t>
-  </si>
-  <si>
     <t>أبو علي أبو طويلة  2 تشغيل</t>
   </si>
   <si>
-    <t>جهاد الريس</t>
-  </si>
-  <si>
     <t>تجميع كهرباء</t>
   </si>
   <si>
-    <t>أبو علاء سكيك</t>
-  </si>
-  <si>
     <t>أسهم الأسلامي الفلسطين 30277 بتاريخ 13-04-2023</t>
   </si>
   <si>
-    <t>اياد الريس</t>
-  </si>
-  <si>
-    <t>نهاد المدهون   أبو فياض</t>
-  </si>
-  <si>
-    <t>أبوداير</t>
-  </si>
-  <si>
     <t>ام خليل لظن</t>
   </si>
   <si>
     <t>مالك الرنتيسي</t>
   </si>
   <si>
-    <t xml:space="preserve">منيب أبو سيد </t>
-  </si>
-  <si>
-    <t>أبو حسن الغمري</t>
-  </si>
-  <si>
     <t>رشدي أبو سيدو</t>
   </si>
   <si>
@@ -481,13 +439,43 @@
     <t>شـحاتة بـنـك</t>
   </si>
   <si>
-    <t>صندوق2 صندوق احمد صندوق2 احمد</t>
-  </si>
-  <si>
-    <t>شرين مشتهى</t>
-  </si>
-  <si>
-    <t>يورو</t>
+    <t>صندوق2 صندوق احـــــــــــــمـــــــــد 2</t>
+  </si>
+  <si>
+    <t>حسام صالحة</t>
+  </si>
+  <si>
+    <t>ابو حمزة المشهراوي + أسامة سفر</t>
+  </si>
+  <si>
+    <t>أبو علاء  سكيك</t>
+  </si>
+  <si>
+    <t>مصاريف عزومة العبادلة</t>
+  </si>
+  <si>
+    <t>حسان صوان كومدووور</t>
+  </si>
+  <si>
+    <t>أياد الريس</t>
+  </si>
+  <si>
+    <t>الزهارنة المنيوم</t>
+  </si>
+  <si>
+    <t>عابدين</t>
+  </si>
+  <si>
+    <t>اعديات الموظفين</t>
+  </si>
+  <si>
+    <t xml:space="preserve">البسمة </t>
+  </si>
+  <si>
+    <t>منيب أبو سيدو</t>
+  </si>
+  <si>
+    <t>شيكات أجلة للصرف</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="F156" sqref="F156"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1095,11 +1083,11 @@
     <col min="3" max="3" width="11" style="21" customWidth="1"/>
     <col min="4" max="4" width="13.3984375" style="21" customWidth="1"/>
     <col min="5" max="5" width="10.3984375" style="21" customWidth="1"/>
-    <col min="6" max="6" width="19.8984375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="21.19921875" style="21" customWidth="1"/>
     <col min="7" max="16384" width="8.796875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
@@ -1110,16 +1098,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>3</v>
       </c>
@@ -1133,12 +1118,12 @@
         <v>-17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="21">
-        <v>-300</v>
+        <v>-2150</v>
       </c>
       <c r="C3" s="21">
         <v>-135</v>
@@ -1147,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
         <v>5</v>
       </c>
@@ -1161,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
@@ -1175,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
@@ -1189,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
         <v>8</v>
       </c>
@@ -1203,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
         <v>9</v>
       </c>
@@ -1217,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>10</v>
       </c>
@@ -1231,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>11</v>
       </c>
@@ -1245,21 +1230,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="21">
-        <v>-73445</v>
+        <v>-193778</v>
       </c>
       <c r="C11" s="21">
-        <v>-26721</v>
+        <v>-606</v>
       </c>
       <c r="D11" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>13</v>
       </c>
@@ -1273,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
         <v>14</v>
       </c>
@@ -1287,9 +1272,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B14" s="21">
         <v>-380</v>
@@ -1301,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>15</v>
       </c>
@@ -1315,18 +1300,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B16" s="21">
-        <v>-6400</v>
+        <v>0</v>
       </c>
       <c r="C16" s="21">
-        <v>-1805</v>
+        <v>-515</v>
       </c>
       <c r="D16" s="21">
-        <v>-1400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1344,11 +1329,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
-        <v>136</v>
-      </c>
       <c r="B18" s="21">
-        <v>-580</v>
+        <v>0</v>
       </c>
       <c r="C18" s="21">
         <v>0</v>
@@ -1387,13 +1369,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B21" s="21">
-        <v>-714</v>
+        <v>-600</v>
       </c>
       <c r="C21" s="21">
-        <v>-571</v>
+        <v>0</v>
       </c>
       <c r="D21" s="21">
         <v>0</v>
@@ -1415,13 +1397,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B23" s="21">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="C23" s="21">
-        <v>-10000</v>
+        <v>-8117</v>
       </c>
       <c r="D23" s="21">
         <v>0</v>
@@ -1505,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="21">
-        <v>2661</v>
+        <v>3661</v>
       </c>
       <c r="D29" s="21">
         <v>0</v>
@@ -1541,16 +1523,16 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="B32" s="21">
         <v>0</v>
       </c>
       <c r="C32" s="21">
-        <v>-29462</v>
+        <v>-152370</v>
       </c>
       <c r="D32" s="21">
-        <v>-27712</v>
+        <v>-10848</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1558,13 +1540,13 @@
         <v>28</v>
       </c>
       <c r="B33" s="21">
-        <v>32000</v>
+        <v>67150</v>
       </c>
       <c r="C33" s="21">
         <v>0</v>
       </c>
       <c r="D33" s="21">
-        <v>20000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1592,18 +1574,15 @@
         <v>-1635</v>
       </c>
       <c r="D35" s="21">
-        <v>-100</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>116</v>
-      </c>
       <c r="B36" s="21">
-        <v>4800</v>
+        <v>0</v>
       </c>
       <c r="C36" s="21">
-        <v>2940</v>
+        <v>0</v>
       </c>
       <c r="D36" s="21">
         <v>0</v>
@@ -1611,7 +1590,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B37" s="21">
         <v>0</v>
@@ -1652,9 +1631,6 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
-        <v>128</v>
-      </c>
       <c r="B40" s="21">
         <v>0</v>
       </c>
@@ -1666,9 +1642,6 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>138</v>
-      </c>
       <c r="B41" s="21">
         <v>0</v>
       </c>
@@ -1681,10 +1654,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B42" s="21">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="C42" s="21">
         <v>0</v>
@@ -1712,10 +1685,10 @@
         <v>45</v>
       </c>
       <c r="B44" s="21">
-        <v>-1453</v>
+        <v>-2000</v>
       </c>
       <c r="C44" s="21">
-        <v>-30000</v>
+        <v>-40000</v>
       </c>
       <c r="D44" s="21">
         <v>0</v>
@@ -1751,13 +1724,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B47" s="21">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C47" s="21">
-        <v>0</v>
+        <v>-4000</v>
       </c>
       <c r="D47" s="21">
         <v>0</v>
@@ -1810,10 +1783,10 @@
         <v>39</v>
       </c>
       <c r="B51" s="21">
-        <v>15900</v>
+        <v>14800</v>
       </c>
       <c r="C51" s="21">
-        <v>-200</v>
+        <v>-1400</v>
       </c>
       <c r="D51" s="21">
         <v>0</v>
@@ -1821,7 +1794,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B52" s="21">
         <v>0</v>
@@ -1841,7 +1814,7 @@
         <v>-5000</v>
       </c>
       <c r="C53" s="21">
-        <v>6500</v>
+        <v>4300</v>
       </c>
       <c r="D53" s="21">
         <v>0</v>
@@ -1849,7 +1822,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B54" s="21">
         <v>-200</v>
@@ -1908,30 +1881,30 @@
         <v>44</v>
       </c>
       <c r="B58" s="21">
-        <v>-600</v>
+        <v>-1200</v>
       </c>
       <c r="C58" s="21">
-        <v>-8065</v>
+        <v>-8265</v>
       </c>
       <c r="D58" s="21">
-        <v>6762</v>
+        <v>6462</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B59" s="21">
         <v>0</v>
       </c>
       <c r="C59" s="21">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="D59" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
         <v>46</v>
       </c>
@@ -1944,16 +1917,19 @@
       <c r="D60" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E60" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="B61" s="21">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="C61" s="21">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="D61" s="21">
         <v>0</v>
@@ -1964,13 +1940,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B62" s="21">
         <v>0</v>
       </c>
       <c r="C62" s="21">
-        <v>-10945</v>
+        <v>-11680</v>
       </c>
       <c r="D62" s="21">
         <v>0</v>
@@ -1978,7 +1954,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B63" s="21">
         <v>-4220</v>
@@ -1992,10 +1968,10 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B64" s="21">
-        <v>-100</v>
+        <v>-600</v>
       </c>
       <c r="C64" s="21">
         <v>0</v>
@@ -2006,7 +1982,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B65" s="21">
         <v>0</v>
@@ -2020,7 +1996,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B66" s="21">
         <v>0</v>
@@ -2034,7 +2010,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B67" s="21">
         <v>0</v>
@@ -2051,7 +2027,7 @@
         <v>142</v>
       </c>
       <c r="B68" s="21">
-        <v>-1500</v>
+        <v>-200</v>
       </c>
       <c r="C68" s="21">
         <v>0</v>
@@ -2062,13 +2038,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B69" s="21">
-        <v>-350</v>
+        <v>-620</v>
       </c>
       <c r="C69" s="21">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D69" s="21">
         <v>0</v>
@@ -2076,7 +2052,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B70" s="21">
         <v>-700</v>
@@ -2090,7 +2066,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B71" s="21">
         <v>0</v>
@@ -2104,7 +2080,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B72" s="21">
         <v>-6270</v>
@@ -2118,13 +2094,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B73" s="21">
         <v>0</v>
       </c>
       <c r="C73" s="21">
-        <v>-350</v>
+        <v>-422</v>
       </c>
       <c r="D73" s="21">
         <v>0</v>
@@ -2132,7 +2108,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B74" s="21">
         <v>0</v>
@@ -2146,7 +2122,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B75" s="21">
         <v>-350</v>
@@ -2160,7 +2136,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B76" s="21">
         <v>-2700</v>
@@ -2174,7 +2150,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B77" s="21">
         <v>-80</v>
@@ -2188,7 +2164,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B78" s="21">
         <v>-400</v>
@@ -2202,7 +2178,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B79" s="21">
         <v>0</v>
@@ -2216,35 +2192,35 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" s="21">
+        <v>-2100</v>
+      </c>
+      <c r="C80" s="21">
+        <v>-21930</v>
+      </c>
+      <c r="D80" s="21">
+        <v>-2704</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="B80" s="21">
-        <v>-100</v>
-      </c>
-      <c r="C80" s="21">
-        <v>-13079</v>
-      </c>
-      <c r="D80" s="21">
-        <v>-204</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="21" t="s">
+      <c r="B81" s="21">
+        <v>-500</v>
+      </c>
+      <c r="C81" s="21">
+        <v>0</v>
+      </c>
+      <c r="D81" s="21">
+        <v>-360</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
         <v>63</v>
-      </c>
-      <c r="B81" s="21">
-        <v>0</v>
-      </c>
-      <c r="C81" s="21">
-        <v>0</v>
-      </c>
-      <c r="D81" s="21">
-        <v>-2500</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="21" t="s">
-        <v>64</v>
       </c>
       <c r="B82" s="21">
         <v>-1000</v>
@@ -2256,9 +2232,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B83" s="21">
         <v>-275</v>
@@ -2270,23 +2246,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B84" s="21">
+        <v>0</v>
+      </c>
+      <c r="C84" s="21">
+        <v>0</v>
+      </c>
+      <c r="D84" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="21" t="s">
         <v>66</v>
-      </c>
-      <c r="B84" s="21">
-        <v>0</v>
-      </c>
-      <c r="C84" s="21">
-        <v>0</v>
-      </c>
-      <c r="D84" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="21" t="s">
-        <v>67</v>
       </c>
       <c r="B85" s="21">
         <v>-1090</v>
@@ -2298,9 +2274,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B86" s="21">
         <v>0</v>
@@ -2309,12 +2285,12 @@
         <v>0</v>
       </c>
       <c r="D86" s="21">
-        <v>-100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B87" s="21">
         <v>0</v>
@@ -2326,9 +2302,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B88" s="21">
         <v>0</v>
@@ -2340,9 +2316,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B89" s="21">
         <v>-300</v>
@@ -2354,9 +2330,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B90" s="21">
         <v>0</v>
@@ -2368,12 +2344,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B91" s="21">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="C91" s="21">
         <v>0</v>
@@ -2381,13 +2357,10 @@
       <c r="D91" s="21">
         <v>0</v>
       </c>
-      <c r="G91" s="21">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B92" s="21">
         <v>0</v>
@@ -2399,9 +2372,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B93" s="21">
         <v>133</v>
@@ -2413,43 +2386,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B94" s="21">
         <v>0</v>
       </c>
       <c r="C94" s="21">
-        <v>-2820</v>
+        <v>-3520</v>
       </c>
       <c r="D94" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B95" s="21">
         <v>-280</v>
       </c>
       <c r="C95" s="21">
-        <v>-2300</v>
+        <v>-1500</v>
       </c>
       <c r="D95" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="21" t="s">
-        <v>74</v>
-      </c>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B96" s="21">
-        <v>-560</v>
+        <v>0</v>
       </c>
       <c r="C96" s="21">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="D96" s="21">
         <v>0</v>
@@ -2457,7 +2427,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B97" s="21">
         <v>-650</v>
@@ -2471,21 +2441,21 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B98" s="21">
         <v>0</v>
       </c>
       <c r="C98" s="21">
-        <v>8200</v>
+        <v>3400</v>
       </c>
       <c r="D98" s="21">
-        <v>4000</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B99" s="21">
         <v>6000</v>
@@ -2499,7 +2469,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B100" s="21">
         <v>-1260</v>
@@ -2513,13 +2483,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B101" s="21">
         <v>-1000</v>
       </c>
       <c r="C101" s="21">
-        <v>-100</v>
+        <v>-650</v>
       </c>
       <c r="D101" s="21">
         <v>-40</v>
@@ -2527,7 +2497,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B102" s="21">
         <v>0</v>
@@ -2541,7 +2511,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B103" s="21">
         <v>237983</v>
@@ -2555,13 +2525,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B104" s="21">
-        <v>-4400</v>
+        <v>-1600</v>
       </c>
       <c r="C104" s="21">
-        <v>-534</v>
+        <v>-10176</v>
       </c>
       <c r="D104" s="21">
         <v>0</v>
@@ -2569,7 +2539,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B105" s="21">
         <v>-550</v>
@@ -2583,7 +2553,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B106" s="21">
         <v>0</v>
@@ -2597,7 +2567,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B107" s="21">
         <v>8000</v>
@@ -2611,7 +2581,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B108" s="21">
         <v>0</v>
@@ -2625,7 +2595,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B109" s="21">
         <v>-250</v>
@@ -2639,13 +2609,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B110" s="21">
-        <v>0</v>
+        <v>-625</v>
       </c>
       <c r="C110" s="21">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="D110" s="21">
         <v>0</v>
@@ -2653,10 +2623,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B111" s="21">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="C111" s="21">
         <v>0</v>
@@ -2667,7 +2637,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B112" s="21">
         <v>1984</v>
@@ -2681,13 +2651,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B113" s="21">
         <v>-9520</v>
       </c>
       <c r="C113" s="21">
-        <v>-5100</v>
+        <v>700</v>
       </c>
       <c r="D113" s="21">
         <v>0</v>
@@ -2695,7 +2665,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B114" s="21">
         <v>-150</v>
@@ -2709,7 +2679,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B115" s="21">
         <v>0</v>
@@ -2723,13 +2693,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B116" s="21">
         <v>0</v>
       </c>
       <c r="C116" s="21">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D116" s="21">
         <v>0</v>
@@ -2737,13 +2707,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B117" s="21">
-        <v>132000</v>
+        <v>135000</v>
       </c>
       <c r="C117" s="21">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D117" s="21">
         <v>-1500</v>
@@ -2751,7 +2721,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B118" s="21">
         <v>-170</v>
@@ -2765,13 +2735,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B119" s="21">
-        <v>-150</v>
+        <v>-5150</v>
       </c>
       <c r="C119" s="21">
-        <v>-200</v>
+        <v>-2700</v>
       </c>
       <c r="D119" s="21">
         <v>0</v>
@@ -2779,13 +2749,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B120" s="21">
-        <v>0</v>
+        <v>24000</v>
       </c>
       <c r="C120" s="21">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="D120" s="21">
         <v>0</v>
@@ -2793,7 +2763,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B121" s="21">
         <v>527</v>
@@ -2807,7 +2777,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B122" s="21">
         <v>-2300</v>
@@ -2821,13 +2791,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B123" s="21">
-        <v>-10518</v>
+        <v>-11618</v>
       </c>
       <c r="C123" s="21">
-        <v>-5953</v>
+        <v>-4968</v>
       </c>
       <c r="D123" s="21">
         <v>0</v>
@@ -2835,10 +2805,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B124" s="21">
-        <v>-10418</v>
+        <v>-13918</v>
       </c>
       <c r="C124" s="21">
         <v>-800</v>
@@ -2849,13 +2819,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B125" s="21">
         <v>0</v>
       </c>
       <c r="C125" s="21">
-        <v>2365</v>
+        <v>8350</v>
       </c>
       <c r="D125" s="21">
         <v>0</v>
@@ -2863,7 +2833,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B126" s="21">
         <v>0</v>
@@ -2877,10 +2847,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B127" s="21">
-        <v>-500</v>
+        <v>-3500</v>
       </c>
       <c r="C127" s="21">
         <v>0</v>
@@ -2891,7 +2861,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B128" s="21">
         <v>-2500</v>
@@ -2905,7 +2875,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B129" s="21">
         <v>-3870</v>
@@ -2919,7 +2889,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B130" s="21">
         <v>-925</v>
@@ -2933,7 +2903,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B131" s="21">
         <v>-200</v>
@@ -2947,10 +2917,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B132" s="21">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="C132" s="21">
         <v>-720</v>
@@ -2961,7 +2931,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B133" s="21">
         <v>12887</v>
@@ -2975,7 +2945,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B134" s="21">
         <v>-830</v>
@@ -2989,13 +2959,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B135" s="21">
         <v>0</v>
       </c>
       <c r="C135" s="21">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="D135" s="21">
         <v>0</v>
@@ -3003,7 +2973,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B136" s="21">
         <v>-1500</v>
@@ -3017,7 +2987,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B137" s="21">
         <v>0</v>
@@ -3030,39 +3000,39 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="21" t="s">
+        <v>147</v>
+      </c>
       <c r="B138" s="21">
         <v>0</v>
       </c>
       <c r="C138" s="21">
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="D138" s="21">
-        <v>0</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B139" s="21">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C139" s="21">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D139" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="21" t="s">
-        <v>106</v>
-      </c>
       <c r="B140" s="21">
         <v>0</v>
       </c>
       <c r="C140" s="21">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="D140" s="21">
         <v>0</v>
@@ -3070,13 +3040,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B141" s="21">
-        <v>-3270</v>
+        <v>-1075</v>
       </c>
       <c r="C141" s="21">
-        <v>-139830</v>
+        <v>-135727</v>
       </c>
       <c r="D141" s="21">
         <v>-383</v>
@@ -3084,7 +3054,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B142" s="21">
         <v>0</v>
@@ -3098,13 +3068,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B143" s="21">
-        <v>-5015</v>
+        <v>-2415</v>
       </c>
       <c r="C143" s="21">
-        <v>-1080</v>
+        <v>-7430</v>
       </c>
       <c r="D143" s="21">
         <v>0</v>
@@ -3112,7 +3082,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B144" s="21">
         <v>-1350</v>
@@ -3124,9 +3094,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B145" s="21">
         <v>-50</v>
@@ -3138,9 +3108,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B146" s="21">
         <v>0</v>
@@ -3152,23 +3122,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B147" s="21">
         <v>0</v>
       </c>
       <c r="C147" s="21">
-        <v>-53384</v>
+        <v>-49704</v>
       </c>
       <c r="D147" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B148" s="21">
         <v>483460</v>
@@ -3180,23 +3150,23 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="21" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B149" s="21">
         <v>0</v>
       </c>
       <c r="C149" s="21">
-        <v>-3500</v>
+        <v>0</v>
       </c>
       <c r="D149" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B150" s="21">
         <v>-1000</v>
@@ -3208,9 +3178,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B151" s="21">
         <v>0</v>
@@ -3222,28 +3192,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="21" t="s">
+        <v>150</v>
+      </c>
       <c r="B152" s="21">
         <v>0</v>
       </c>
       <c r="C152" s="21">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="D152" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="21" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B153" s="21">
         <v>0</v>
       </c>
       <c r="C153" s="21">
-        <v>-2200</v>
+        <v>-1800</v>
       </c>
       <c r="D153" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B154" s="21">
+        <v>13000</v>
+      </c>
+      <c r="C154" s="21">
+        <v>1200</v>
+      </c>
+      <c r="D154" s="21">
+        <v>0</v>
+      </c>
+      <c r="E154" s="21">
+        <f>SUM(E2:E153)</f>
+        <v>-2500</v>
+      </c>
+      <c r="F154" s="21">
+        <f>SUM(F2:F153)</f>
         <v>0</v>
       </c>
     </row>

--- a/excel/k_parties.xlsx
+++ b/excel/k_parties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>الشيكل</t>
   </si>
@@ -34,9 +34,6 @@
     <t>بنك فلسطين</t>
   </si>
   <si>
-    <t>زكاه سنه 2023</t>
-  </si>
-  <si>
     <t>ايجار 2024</t>
   </si>
   <si>
@@ -205,9 +202,6 @@
     <t>عمر زقوت</t>
   </si>
   <si>
-    <t>سلام عليوة شيكات ش43900</t>
-  </si>
-  <si>
     <t>محمد عليوة</t>
   </si>
   <si>
@@ -382,9 +376,6 @@
     <t>الغصين</t>
   </si>
   <si>
-    <t xml:space="preserve"> بنك القدس22-01-2023 $</t>
-  </si>
-  <si>
     <t>محمود كاظم</t>
   </si>
   <si>
@@ -394,12 +385,6 @@
     <t xml:space="preserve"> أبو جهاد عاشور</t>
   </si>
   <si>
-    <t>حمود الحايك</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ابو انس </t>
-  </si>
-  <si>
     <t xml:space="preserve">أبو فياض </t>
   </si>
   <si>
@@ -421,12 +406,6 @@
     <t>أسهم الأسلامي الفلسطين 30277 بتاريخ 13-04-2023</t>
   </si>
   <si>
-    <t>ام خليل لظن</t>
-  </si>
-  <si>
-    <t>مالك الرنتيسي</t>
-  </si>
-  <si>
     <t>رشدي أبو سيدو</t>
   </si>
   <si>
@@ -436,46 +415,79 @@
     <t>زيادة لراس المال</t>
   </si>
   <si>
-    <t>شـحاتة بـنـك</t>
-  </si>
-  <si>
-    <t>صندوق2 صندوق احـــــــــــــمـــــــــد 2</t>
-  </si>
-  <si>
     <t>حسام صالحة</t>
   </si>
   <si>
     <t>ابو حمزة المشهراوي + أسامة سفر</t>
   </si>
   <si>
-    <t>أبو علاء  سكيك</t>
-  </si>
-  <si>
-    <t>مصاريف عزومة العبادلة</t>
-  </si>
-  <si>
-    <t>حسان صوان كومدووور</t>
-  </si>
-  <si>
     <t>أياد الريس</t>
   </si>
   <si>
-    <t>الزهارنة المنيوم</t>
-  </si>
-  <si>
     <t>عابدين</t>
   </si>
   <si>
-    <t>اعديات الموظفين</t>
-  </si>
-  <si>
     <t xml:space="preserve">البسمة </t>
   </si>
   <si>
-    <t>منيب أبو سيدو</t>
-  </si>
-  <si>
     <t>شيكات أجلة للصرف</t>
+  </si>
+  <si>
+    <t>زكاه سنه 2024</t>
+  </si>
+  <si>
+    <t>سامي الحلو</t>
+  </si>
+  <si>
+    <t>صندوق2 احمد صندوق 2 احــــمــد</t>
+  </si>
+  <si>
+    <t>أبو أنس يورو</t>
+  </si>
+  <si>
+    <t>حسين سالم</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أبو داير </t>
+  </si>
+  <si>
+    <t xml:space="preserve">صوان </t>
+  </si>
+  <si>
+    <t>نور عبيد</t>
+  </si>
+  <si>
+    <t>سلام عليوة شيكات</t>
+  </si>
+  <si>
+    <t>أبو طلعت الحساينة</t>
+  </si>
+  <si>
+    <t>الأصيل ألمنيوم</t>
+  </si>
+  <si>
+    <t>خالد الحداد</t>
+  </si>
+  <si>
+    <t>يوسف الغز</t>
+  </si>
+  <si>
+    <t>علاء أبو شعبان سيارات</t>
+  </si>
+  <si>
+    <t>محمد فورة</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> بنك القدس17-06-2023 $</t>
+  </si>
+  <si>
+    <t>أبو يعقوب لظن</t>
+  </si>
+  <si>
+    <t>شـحاتة بـنك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">منيب أبو سيد </t>
   </si>
 </sst>
 </file>
@@ -1072,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="H105" sqref="H105"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1098,49 +1110,35 @@
         <v>2</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="21">
-        <v>-75</v>
-      </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21">
-        <v>-17</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="21">
-        <v>-2150</v>
+        <v>-75</v>
       </c>
       <c r="C3" s="21">
-        <v>-135</v>
+        <v>0</v>
       </c>
       <c r="D3" s="21">
-        <v>0</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>5</v>
+        <v>137</v>
       </c>
       <c r="B4" s="21">
-        <v>0</v>
+        <v>-770</v>
       </c>
       <c r="C4" s="21">
-        <v>0</v>
+        <v>-1655</v>
       </c>
       <c r="D4" s="21">
         <v>0</v>
@@ -1148,13 +1146,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="21">
         <v>0</v>
       </c>
       <c r="C5" s="21">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="D5" s="21">
         <v>0</v>
@@ -1162,7 +1160,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="21">
         <v>0</v>
@@ -1176,13 +1174,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="21">
         <v>0</v>
       </c>
       <c r="C7" s="21">
-        <v>1824</v>
+        <v>0</v>
       </c>
       <c r="D7" s="21">
         <v>0</v>
@@ -1190,13 +1188,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="21">
         <v>0</v>
       </c>
       <c r="C8" s="21">
-        <v>100000</v>
+        <v>1824</v>
       </c>
       <c r="D8" s="21">
         <v>0</v>
@@ -1204,13 +1202,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="21">
         <v>0</v>
       </c>
       <c r="C9" s="21">
-        <v>590</v>
+        <v>100000</v>
       </c>
       <c r="D9" s="21">
         <v>0</v>
@@ -1218,13 +1216,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="21">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C10" s="21">
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="D10" s="21">
         <v>0</v>
@@ -1232,13 +1230,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="21">
-        <v>-193778</v>
+        <v>-200</v>
       </c>
       <c r="C11" s="21">
-        <v>-606</v>
+        <v>0</v>
       </c>
       <c r="D11" s="21">
         <v>0</v>
@@ -1246,13 +1244,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="21">
-        <v>0</v>
+        <v>-41099</v>
       </c>
       <c r="C12" s="21">
-        <v>-300</v>
+        <v>-20445</v>
       </c>
       <c r="D12" s="21">
         <v>0</v>
@@ -1260,13 +1258,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="21">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="C13" s="21">
-        <v>-22329</v>
+        <v>-300</v>
       </c>
       <c r="D13" s="21">
         <v>0</v>
@@ -1274,13 +1272,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="B14" s="21">
-        <v>-380</v>
+        <v>-30</v>
       </c>
       <c r="C14" s="21">
-        <v>-250</v>
+        <v>-23329</v>
       </c>
       <c r="D14" s="21">
         <v>0</v>
@@ -1288,13 +1286,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
       <c r="B15" s="21">
-        <v>0</v>
+        <v>-380</v>
       </c>
       <c r="C15" s="21">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D15" s="21">
         <v>0</v>
@@ -1302,13 +1300,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="B16" s="21">
         <v>0</v>
       </c>
       <c r="C16" s="21">
-        <v>-515</v>
+        <v>0</v>
       </c>
       <c r="D16" s="21">
         <v>0</v>
@@ -1316,19 +1314,22 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="B17" s="21">
         <v>0</v>
       </c>
       <c r="C17" s="21">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="D17" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="B18" s="21">
         <v>0</v>
       </c>
@@ -1341,13 +1342,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>17</v>
+        <v>138</v>
       </c>
       <c r="B19" s="21">
         <v>0</v>
       </c>
       <c r="C19" s="21">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D19" s="21">
         <v>0</v>
@@ -1355,41 +1356,41 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="21">
         <v>0</v>
       </c>
       <c r="C20" s="21">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D20" s="21">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="B21" s="21">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="C21" s="21">
         <v>0</v>
       </c>
       <c r="D21" s="21">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="B22" s="21">
-        <v>0</v>
+        <v>-290</v>
       </c>
       <c r="C22" s="21">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D22" s="21">
         <v>0</v>
@@ -1397,13 +1398,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="B23" s="21">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="C23" s="21">
-        <v>-8117</v>
+        <v>1000</v>
       </c>
       <c r="D23" s="21">
         <v>0</v>
@@ -1411,13 +1412,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>20</v>
+        <v>125</v>
       </c>
       <c r="B24" s="21">
-        <v>-385</v>
+        <v>-600</v>
       </c>
       <c r="C24" s="21">
-        <v>-4557</v>
+        <v>13622</v>
       </c>
       <c r="D24" s="21">
         <v>0</v>
@@ -1425,13 +1426,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B25" s="21">
-        <v>0</v>
+        <v>-385</v>
       </c>
       <c r="C25" s="21">
-        <v>-450</v>
+        <v>-4557</v>
       </c>
       <c r="D25" s="21">
         <v>0</v>
@@ -1439,13 +1440,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26" s="21">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="C26" s="21">
-        <v>0</v>
+        <v>-450</v>
       </c>
       <c r="D26" s="21">
         <v>0</v>
@@ -1453,13 +1454,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27" s="21">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="C27" s="21">
-        <v>-155</v>
+        <v>0</v>
       </c>
       <c r="D27" s="21">
         <v>0</v>
@@ -1467,13 +1468,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B28" s="21">
         <v>0</v>
       </c>
       <c r="C28" s="21">
-        <v>4320</v>
+        <v>-155</v>
       </c>
       <c r="D28" s="21">
         <v>0</v>
@@ -1481,13 +1482,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" s="21">
         <v>0</v>
       </c>
       <c r="C29" s="21">
-        <v>3661</v>
+        <v>4320</v>
       </c>
       <c r="D29" s="21">
         <v>0</v>
@@ -1495,13 +1496,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B30" s="21">
-        <v>-285</v>
+        <v>0</v>
       </c>
       <c r="C30" s="21">
-        <v>-8220</v>
+        <v>3788</v>
       </c>
       <c r="D30" s="21">
         <v>0</v>
@@ -1509,13 +1510,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B31" s="21">
-        <v>-44785</v>
+        <v>-285</v>
       </c>
       <c r="C31" s="21">
-        <v>11079</v>
+        <v>-8220</v>
       </c>
       <c r="D31" s="21">
         <v>0</v>
@@ -1523,66 +1524,69 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="B32" s="21">
-        <v>0</v>
+        <v>-44785</v>
       </c>
       <c r="C32" s="21">
-        <v>-152370</v>
+        <v>11079</v>
       </c>
       <c r="D32" s="21">
-        <v>-10848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>28</v>
+        <v>139</v>
       </c>
       <c r="B33" s="21">
-        <v>67150</v>
+        <v>0</v>
       </c>
       <c r="C33" s="21">
-        <v>0</v>
+        <v>-259891</v>
       </c>
       <c r="D33" s="21">
-        <v>10000</v>
+        <v>-10621</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B34" s="21">
-        <v>-1156</v>
+        <v>0</v>
       </c>
       <c r="C34" s="21">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D34" s="21">
-        <v>0</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B35" s="21">
+        <v>-1156</v>
+      </c>
+      <c r="C35" s="21">
+        <v>0</v>
+      </c>
+      <c r="D35" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="21">
         <v>-650</v>
       </c>
-      <c r="C35" s="21">
+      <c r="C36" s="21">
         <v>-1635</v>
-      </c>
-      <c r="D35" s="21">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="21">
-        <v>0</v>
-      </c>
-      <c r="C36" s="21">
-        <v>0</v>
       </c>
       <c r="D36" s="21">
         <v>0</v>
@@ -1590,13 +1594,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="B37" s="21">
         <v>0</v>
       </c>
       <c r="C37" s="21">
-        <v>-1450</v>
+        <v>-400</v>
       </c>
       <c r="D37" s="21">
         <v>0</v>
@@ -1604,13 +1608,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="B38" s="21">
         <v>0</v>
       </c>
       <c r="C38" s="21">
-        <v>-2322</v>
+        <v>-1450</v>
       </c>
       <c r="D38" s="21">
         <v>0</v>
@@ -1618,22 +1622,25 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B39" s="21">
+        <v>0</v>
+      </c>
+      <c r="C39" s="21">
+        <v>-2322</v>
+      </c>
+      <c r="D39" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="21">
         <v>-1000</v>
       </c>
-      <c r="C39" s="21">
-        <v>0</v>
-      </c>
-      <c r="D39" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="21">
-        <v>0</v>
-      </c>
       <c r="C40" s="21">
         <v>0</v>
       </c>
@@ -1642,8 +1649,11 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>140</v>
+      </c>
       <c r="B41" s="21">
-        <v>0</v>
+        <v>-130</v>
       </c>
       <c r="C41" s="21">
         <v>0</v>
@@ -1654,27 +1664,27 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B42" s="21">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="C42" s="21">
         <v>0</v>
       </c>
       <c r="D42" s="21">
-        <v>0</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="B43" s="21">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="C43" s="21">
-        <v>565</v>
+        <v>0</v>
       </c>
       <c r="D43" s="21">
         <v>0</v>
@@ -1682,13 +1692,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B44" s="21">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="C44" s="21">
-        <v>-40000</v>
+        <v>565</v>
       </c>
       <c r="D44" s="21">
         <v>0</v>
@@ -1696,13 +1706,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B45" s="21">
         <v>0</v>
       </c>
       <c r="C45" s="21">
-        <v>111100</v>
+        <v>-22991</v>
       </c>
       <c r="D45" s="21">
         <v>0</v>
@@ -1710,13 +1720,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B46" s="21">
         <v>0</v>
       </c>
       <c r="C46" s="21">
-        <v>-100</v>
+        <v>111100</v>
       </c>
       <c r="D46" s="21">
         <v>0</v>
@@ -1724,13 +1734,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>134</v>
+        <v>34</v>
       </c>
       <c r="B47" s="21">
         <v>0</v>
       </c>
       <c r="C47" s="21">
-        <v>-4000</v>
+        <v>-100</v>
       </c>
       <c r="D47" s="21">
         <v>0</v>
@@ -1738,243 +1748,237 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="21">
+        <v>0</v>
+      </c>
+      <c r="C48" s="21">
+        <v>-40000</v>
+      </c>
+      <c r="D48" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="21">
+        <v>-800</v>
+      </c>
+      <c r="C49" s="21">
+        <v>0</v>
+      </c>
+      <c r="D49" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="21">
-        <v>-800</v>
-      </c>
-      <c r="C48" s="21">
-        <v>0</v>
-      </c>
-      <c r="D48" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="21" t="s">
+      <c r="B50" s="21">
+        <v>0</v>
+      </c>
+      <c r="C50" s="21">
+        <v>-170</v>
+      </c>
+      <c r="D50" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="21">
-        <v>0</v>
-      </c>
-      <c r="C49" s="21">
-        <v>-170</v>
-      </c>
-      <c r="D49" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
+      <c r="B51" s="21">
+        <v>0</v>
+      </c>
+      <c r="C51" s="21">
+        <v>-523</v>
+      </c>
+      <c r="D51" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="21">
-        <v>0</v>
-      </c>
-      <c r="C50" s="21">
-        <v>-523</v>
-      </c>
-      <c r="D50" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="21" t="s">
+      <c r="B52" s="21">
+        <v>14800</v>
+      </c>
+      <c r="C52" s="21">
+        <v>-1400</v>
+      </c>
+      <c r="D52" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B53" s="21">
+        <v>0</v>
+      </c>
+      <c r="C53" s="21">
+        <v>1534</v>
+      </c>
+      <c r="D53" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B51" s="21">
-        <v>14800</v>
-      </c>
-      <c r="C51" s="21">
-        <v>-1400</v>
-      </c>
-      <c r="D51" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
+      <c r="B54" s="21">
+        <v>-5000</v>
+      </c>
+      <c r="C54" s="21">
+        <v>10100</v>
+      </c>
+      <c r="D54" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="21">
+        <v>-200</v>
+      </c>
+      <c r="C55" s="21">
+        <v>0</v>
+      </c>
+      <c r="D55" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="21">
+        <v>50</v>
+      </c>
+      <c r="C56" s="21">
+        <v>-500</v>
+      </c>
+      <c r="D56" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="21">
+        <v>0</v>
+      </c>
+      <c r="C57" s="21">
+        <v>29013</v>
+      </c>
+      <c r="D57" s="21">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" s="21">
+        <v>0</v>
+      </c>
+      <c r="C58" s="21">
+        <v>0</v>
+      </c>
+      <c r="D58" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59" s="21">
+        <v>-1362</v>
+      </c>
+      <c r="C59" s="21">
+        <v>-7800</v>
+      </c>
+      <c r="D59" s="21">
+        <v>6162</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="21">
+        <v>0</v>
+      </c>
+      <c r="C60" s="21">
+        <v>0</v>
+      </c>
+      <c r="D60" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="21">
+        <v>0</v>
+      </c>
+      <c r="C61" s="21">
+        <v>-280</v>
+      </c>
+      <c r="D61" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="B52" s="21">
-        <v>0</v>
-      </c>
-      <c r="C52" s="21">
-        <v>1534</v>
-      </c>
-      <c r="D52" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" s="21">
-        <v>-5000</v>
-      </c>
-      <c r="C53" s="21">
-        <v>4300</v>
-      </c>
-      <c r="D53" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="B54" s="21">
-        <v>-200</v>
-      </c>
-      <c r="C54" s="21">
-        <v>0</v>
-      </c>
-      <c r="D54" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B55" s="21">
-        <v>50</v>
-      </c>
-      <c r="C55" s="21">
-        <v>-500</v>
-      </c>
-      <c r="D55" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" s="21">
-        <v>0</v>
-      </c>
-      <c r="C56" s="21">
-        <v>29013</v>
-      </c>
-      <c r="D56" s="21">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57" s="21">
-        <v>0</v>
-      </c>
-      <c r="C57" s="21">
-        <v>0</v>
-      </c>
-      <c r="D57" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58" s="21">
-        <v>-1200</v>
-      </c>
-      <c r="C58" s="21">
-        <v>-8265</v>
-      </c>
-      <c r="D58" s="21">
-        <v>6462</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="B59" s="21">
-        <v>0</v>
-      </c>
-      <c r="C59" s="21">
-        <v>-100</v>
-      </c>
-      <c r="D59" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="21" t="s">
+      <c r="B62" s="21">
+        <v>-1000</v>
+      </c>
+      <c r="C62" s="21">
+        <v>0</v>
+      </c>
+      <c r="D62" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="21">
-        <v>0</v>
-      </c>
-      <c r="C60" s="21">
-        <v>-280</v>
-      </c>
-      <c r="D60" s="21">
-        <v>0</v>
-      </c>
-      <c r="E60" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B61" s="21">
-        <v>-1000</v>
-      </c>
-      <c r="C61" s="21">
-        <v>-40</v>
-      </c>
-      <c r="D61" s="21">
-        <v>0</v>
-      </c>
-      <c r="E61" s="21">
-        <v>-2500</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="21" t="s">
+      <c r="B63" s="21">
+        <v>0</v>
+      </c>
+      <c r="C63" s="21">
+        <v>-8485</v>
+      </c>
+      <c r="D63" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="B62" s="21">
-        <v>0</v>
-      </c>
-      <c r="C62" s="21">
-        <v>-11680</v>
-      </c>
-      <c r="D62" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63" s="21">
+      <c r="B64" s="21">
         <v>-4220</v>
       </c>
-      <c r="C63" s="21">
+      <c r="C64" s="21">
         <v>1000</v>
-      </c>
-      <c r="D63" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B64" s="21">
-        <v>-600</v>
-      </c>
-      <c r="C64" s="21">
-        <v>0</v>
       </c>
       <c r="D64" s="21">
         <v>0</v>
@@ -1982,13 +1986,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B65" s="21">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="C65" s="21">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D65" s="21">
         <v>0</v>
@@ -1996,13 +2000,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B66" s="21">
         <v>0</v>
       </c>
       <c r="C66" s="21">
-        <v>4000</v>
+        <v>-300</v>
       </c>
       <c r="D66" s="21">
         <v>0</v>
@@ -2010,13 +2014,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B67" s="21">
         <v>0</v>
       </c>
       <c r="C67" s="21">
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="D67" s="21">
         <v>0</v>
@@ -2024,13 +2028,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>142</v>
+        <v>51</v>
       </c>
       <c r="B68" s="21">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C68" s="21">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D68" s="21">
         <v>0</v>
@@ -2038,13 +2042,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B69" s="21">
-        <v>-620</v>
+        <v>-200</v>
       </c>
       <c r="C69" s="21">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D69" s="21">
         <v>0</v>
@@ -2052,10 +2056,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="B70" s="21">
-        <v>-700</v>
+        <v>-120</v>
       </c>
       <c r="C70" s="21">
         <v>0</v>
@@ -2066,13 +2070,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B71" s="21">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="C71" s="21">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D71" s="21">
         <v>0</v>
@@ -2080,13 +2084,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B72" s="21">
-        <v>-6270</v>
+        <v>0</v>
       </c>
       <c r="C72" s="21">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D72" s="21">
         <v>0</v>
@@ -2094,13 +2098,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>128</v>
+        <v>54</v>
       </c>
       <c r="B73" s="21">
-        <v>0</v>
+        <v>-6270</v>
       </c>
       <c r="C73" s="21">
-        <v>-422</v>
+        <v>0</v>
       </c>
       <c r="D73" s="21">
         <v>0</v>
@@ -2108,13 +2112,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="B74" s="21">
         <v>0</v>
       </c>
       <c r="C74" s="21">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="D74" s="21">
         <v>0</v>
@@ -2122,13 +2126,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B75" s="21">
-        <v>-350</v>
+        <v>0</v>
       </c>
       <c r="C75" s="21">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="D75" s="21">
         <v>0</v>
@@ -2136,10 +2140,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="B76" s="21">
-        <v>-2700</v>
+        <v>-350</v>
       </c>
       <c r="C76" s="21">
         <v>0</v>
@@ -2150,27 +2154,27 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="B77" s="21">
-        <v>-80</v>
+        <v>-6200</v>
       </c>
       <c r="C77" s="21">
-        <v>-1244</v>
+        <v>-300</v>
       </c>
       <c r="D77" s="21">
-        <v>0</v>
+        <v>-750</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B78" s="21">
-        <v>-400</v>
+        <v>-80</v>
       </c>
       <c r="C78" s="21">
-        <v>0</v>
+        <v>-1244</v>
       </c>
       <c r="D78" s="21">
         <v>0</v>
@@ -2178,13 +2182,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B79" s="21">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="C79" s="21">
-        <v>-122</v>
+        <v>0</v>
       </c>
       <c r="D79" s="21">
         <v>0</v>
@@ -2192,41 +2196,41 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B80" s="21">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="C80" s="21">
-        <v>-21930</v>
+        <v>-122</v>
       </c>
       <c r="D80" s="21">
-        <v>-2704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="B81" s="21">
-        <v>-500</v>
+        <v>-4400</v>
       </c>
       <c r="C81" s="21">
-        <v>0</v>
+        <v>-15115</v>
       </c>
       <c r="D81" s="21">
-        <v>-360</v>
+        <v>-1850</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B82" s="21">
-        <v>-1000</v>
+        <v>-5000</v>
       </c>
       <c r="C82" s="21">
-        <v>-35000</v>
+        <v>0</v>
       </c>
       <c r="D82" s="21">
         <v>0</v>
@@ -2234,13 +2238,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B83" s="21">
-        <v>-275</v>
+        <v>-1000</v>
       </c>
       <c r="C83" s="21">
-        <v>0</v>
+        <v>-35000</v>
       </c>
       <c r="D83" s="21">
         <v>0</v>
@@ -2248,10 +2252,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B84" s="21">
-        <v>0</v>
+        <v>-275</v>
       </c>
       <c r="C84" s="21">
         <v>0</v>
@@ -2262,10 +2266,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B85" s="21">
-        <v>-1090</v>
+        <v>0</v>
       </c>
       <c r="C85" s="21">
         <v>0</v>
@@ -2276,10 +2280,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="B86" s="21">
-        <v>0</v>
+        <v>-1090</v>
       </c>
       <c r="C86" s="21">
         <v>0</v>
@@ -2290,13 +2294,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
-        <v>67</v>
+        <v>119</v>
       </c>
       <c r="B87" s="21">
         <v>0</v>
       </c>
       <c r="C87" s="21">
-        <v>-30000</v>
+        <v>0</v>
       </c>
       <c r="D87" s="21">
         <v>0</v>
@@ -2304,13 +2308,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B88" s="21">
         <v>0</v>
       </c>
       <c r="C88" s="21">
-        <v>-915</v>
+        <v>-30000</v>
       </c>
       <c r="D88" s="21">
         <v>0</v>
@@ -2318,13 +2322,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="B89" s="21">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C89" s="21">
-        <v>0</v>
+        <v>-915</v>
       </c>
       <c r="D89" s="21">
         <v>0</v>
@@ -2332,41 +2336,38 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="B90" s="21">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C90" s="21">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="D90" s="21">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="B91" s="21">
         <v>0</v>
       </c>
       <c r="C91" s="21">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="D91" s="21">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="21" t="s">
-        <v>70</v>
-      </c>
       <c r="B92" s="21">
         <v>0</v>
       </c>
       <c r="C92" s="21">
-        <v>-615</v>
+        <v>0</v>
       </c>
       <c r="D92" s="21">
         <v>0</v>
@@ -2374,13 +2375,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B93" s="21">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="C93" s="21">
-        <v>791</v>
+        <v>-615</v>
       </c>
       <c r="D93" s="21">
         <v>0</v>
@@ -2388,13 +2389,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B94" s="21">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="C94" s="21">
-        <v>-3520</v>
+        <v>791</v>
       </c>
       <c r="D94" s="21">
         <v>0</v>
@@ -2402,24 +2403,27 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="B95" s="21">
+        <v>0</v>
+      </c>
+      <c r="C95" s="21">
+        <v>-3205</v>
+      </c>
+      <c r="D95" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B96" s="21">
         <v>-280</v>
       </c>
-      <c r="C95" s="21">
+      <c r="C96" s="21">
         <v>-1500</v>
-      </c>
-      <c r="D95" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B96" s="21">
-        <v>0</v>
-      </c>
-      <c r="C96" s="21">
-        <v>0</v>
       </c>
       <c r="D96" s="21">
         <v>0</v>
@@ -2427,13 +2431,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="B97" s="21">
-        <v>-650</v>
+        <v>0</v>
       </c>
       <c r="C97" s="21">
-        <v>-2781</v>
+        <v>17700</v>
       </c>
       <c r="D97" s="21">
         <v>0</v>
@@ -2441,41 +2445,41 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="B98" s="21">
-        <v>0</v>
+        <v>-650</v>
       </c>
       <c r="C98" s="21">
-        <v>3400</v>
+        <v>-2781</v>
       </c>
       <c r="D98" s="21">
-        <v>326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
-        <v>74</v>
+        <v>114</v>
       </c>
       <c r="B99" s="21">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="C99" s="21">
-        <v>-28360</v>
+        <v>3900</v>
       </c>
       <c r="D99" s="21">
-        <v>0</v>
+        <v>813</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B100" s="21">
-        <v>-1260</v>
+        <v>6000</v>
       </c>
       <c r="C100" s="21">
-        <v>125</v>
+        <v>-28360</v>
       </c>
       <c r="D100" s="21">
         <v>0</v>
@@ -2483,69 +2487,69 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B101" s="21">
-        <v>-1000</v>
+        <v>-1260</v>
       </c>
       <c r="C101" s="21">
-        <v>-650</v>
+        <v>125</v>
       </c>
       <c r="D101" s="21">
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B102" s="21">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="C102" s="21">
-        <v>0</v>
+        <v>-650</v>
       </c>
       <c r="D102" s="21">
-        <v>0</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B103" s="21">
-        <v>237983</v>
+        <v>0</v>
       </c>
       <c r="C103" s="21">
-        <v>-4056</v>
+        <v>0</v>
       </c>
       <c r="D103" s="21">
-        <v>-400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B104" s="21">
-        <v>-1600</v>
+        <v>237983</v>
       </c>
       <c r="C104" s="21">
-        <v>-10176</v>
+        <v>-4083</v>
       </c>
       <c r="D104" s="21">
-        <v>0</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B105" s="21">
-        <v>-550</v>
+        <v>-1600</v>
       </c>
       <c r="C105" s="21">
-        <v>0</v>
+        <v>-5987</v>
       </c>
       <c r="D105" s="21">
         <v>0</v>
@@ -2553,13 +2557,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B106" s="21">
-        <v>0</v>
+        <v>-550</v>
       </c>
       <c r="C106" s="21">
-        <v>1550</v>
+        <v>0</v>
       </c>
       <c r="D106" s="21">
         <v>0</v>
@@ -2567,13 +2571,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B107" s="21">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="C107" s="21">
-        <v>-2440</v>
+        <v>1550</v>
       </c>
       <c r="D107" s="21">
         <v>0</v>
@@ -2581,13 +2585,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B108" s="21">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="C108" s="21">
-        <v>-600</v>
+        <v>-2440</v>
       </c>
       <c r="D108" s="21">
         <v>0</v>
@@ -2595,13 +2599,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B109" s="21">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="C109" s="21">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="D109" s="21">
         <v>0</v>
@@ -2609,10 +2613,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="B110" s="21">
-        <v>-625</v>
+        <v>-250</v>
       </c>
       <c r="C110" s="21">
         <v>0</v>
@@ -2623,10 +2627,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B111" s="21">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="C111" s="21">
         <v>0</v>
@@ -2637,38 +2641,38 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
       <c r="B112" s="21">
-        <v>1984</v>
+        <v>-225</v>
       </c>
       <c r="C112" s="21">
         <v>0</v>
       </c>
       <c r="D112" s="21">
-        <v>-550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B113" s="21">
-        <v>-9520</v>
+        <v>1984</v>
       </c>
       <c r="C113" s="21">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="D113" s="21">
-        <v>0</v>
+        <v>-550</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B114" s="21">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="C114" s="21">
         <v>0</v>
@@ -2679,10 +2683,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B115" s="21">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="C115" s="21">
         <v>0</v>
@@ -2693,13 +2697,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B116" s="21">
         <v>0</v>
       </c>
       <c r="C116" s="21">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="D116" s="21">
         <v>0</v>
@@ -2707,41 +2711,41 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="B117" s="21">
-        <v>135000</v>
+        <v>0</v>
       </c>
       <c r="C117" s="21">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D117" s="21">
-        <v>-1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="B118" s="21">
-        <v>-170</v>
+        <v>135000</v>
       </c>
       <c r="C118" s="21">
         <v>0</v>
       </c>
       <c r="D118" s="21">
-        <v>0</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B119" s="21">
-        <v>-5150</v>
+        <v>-170</v>
       </c>
       <c r="C119" s="21">
-        <v>-2700</v>
+        <v>0</v>
       </c>
       <c r="D119" s="21">
         <v>0</v>
@@ -2749,10 +2753,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="B120" s="21">
-        <v>24000</v>
+        <v>-150</v>
       </c>
       <c r="C120" s="21">
         <v>0</v>
@@ -2763,13 +2767,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B121" s="21">
-        <v>527</v>
+        <v>24000</v>
       </c>
       <c r="C121" s="21">
-        <v>-198</v>
+        <v>3000</v>
       </c>
       <c r="D121" s="21">
         <v>0</v>
@@ -2777,13 +2781,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B122" s="21">
-        <v>-2300</v>
+        <v>527</v>
       </c>
       <c r="C122" s="21">
-        <v>0</v>
+        <v>-198</v>
       </c>
       <c r="D122" s="21">
         <v>0</v>
@@ -2791,13 +2795,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B123" s="21">
-        <v>-11618</v>
+        <v>-2300</v>
       </c>
       <c r="C123" s="21">
-        <v>-4968</v>
+        <v>0</v>
       </c>
       <c r="D123" s="21">
         <v>0</v>
@@ -2805,41 +2809,41 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B124" s="21">
-        <v>-13918</v>
+        <v>-4218</v>
       </c>
       <c r="C124" s="21">
-        <v>-800</v>
+        <v>-2968</v>
       </c>
       <c r="D124" s="21">
-        <v>-810</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="B125" s="21">
-        <v>0</v>
+        <v>-13918</v>
       </c>
       <c r="C125" s="21">
-        <v>8350</v>
+        <v>-1303</v>
       </c>
       <c r="D125" s="21">
-        <v>0</v>
+        <v>-810</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="B126" s="21">
         <v>0</v>
       </c>
       <c r="C126" s="21">
-        <v>-300</v>
+        <v>9631</v>
       </c>
       <c r="D126" s="21">
         <v>0</v>
@@ -2847,13 +2851,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
-        <v>145</v>
+        <v>93</v>
       </c>
       <c r="B127" s="21">
-        <v>-3500</v>
+        <v>0</v>
       </c>
       <c r="C127" s="21">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D127" s="21">
         <v>0</v>
@@ -2861,13 +2865,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B128" s="21">
-        <v>-2500</v>
+        <v>0</v>
       </c>
       <c r="C128" s="21">
-        <v>0</v>
+        <v>-1152</v>
       </c>
       <c r="D128" s="21">
         <v>0</v>
@@ -2875,10 +2879,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B129" s="21">
-        <v>-3870</v>
+        <v>-2500</v>
       </c>
       <c r="C129" s="21">
         <v>0</v>
@@ -2889,13 +2893,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B130" s="21">
-        <v>-925</v>
+        <v>-3900</v>
       </c>
       <c r="C130" s="21">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D130" s="21">
         <v>0</v>
@@ -2903,13 +2907,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B131" s="21">
-        <v>-200</v>
+        <v>-925</v>
       </c>
       <c r="C131" s="21">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D131" s="21">
         <v>0</v>
@@ -2917,13 +2921,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B132" s="21">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="C132" s="21">
-        <v>-720</v>
+        <v>0</v>
       </c>
       <c r="D132" s="21">
         <v>0</v>
@@ -2931,13 +2935,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B133" s="21">
-        <v>12887</v>
+        <v>0</v>
       </c>
       <c r="C133" s="21">
-        <v>0</v>
+        <v>-720</v>
       </c>
       <c r="D133" s="21">
         <v>0</v>
@@ -2945,13 +2949,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B134" s="21">
-        <v>-830</v>
+        <v>12887</v>
       </c>
       <c r="C134" s="21">
-        <v>-94</v>
+        <v>0</v>
       </c>
       <c r="D134" s="21">
         <v>0</v>
@@ -2959,13 +2963,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
-        <v>146</v>
+        <v>99</v>
       </c>
       <c r="B135" s="21">
-        <v>0</v>
+        <v>-830</v>
       </c>
       <c r="C135" s="21">
-        <v>-5000</v>
+        <v>-94</v>
       </c>
       <c r="D135" s="21">
         <v>0</v>
@@ -2973,13 +2977,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
-        <v>102</v>
+        <v>149</v>
       </c>
       <c r="B136" s="21">
-        <v>-1500</v>
+        <v>-570</v>
       </c>
       <c r="C136" s="21">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="D136" s="21">
         <v>0</v>
@@ -2987,49 +2991,52 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B137" s="21">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="C137" s="21">
-        <v>-937</v>
+        <v>-900</v>
       </c>
       <c r="D137" s="21">
-        <v>-215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="B138" s="21">
         <v>0</v>
       </c>
       <c r="C138" s="21">
-        <v>30000</v>
+        <v>-937</v>
       </c>
       <c r="D138" s="21">
-        <v>-2000</v>
+        <v>-215</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B139" s="21">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="C139" s="21">
-        <v>0</v>
+        <v>24820</v>
       </c>
       <c r="D139" s="21">
-        <v>0</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="21" t="s">
+        <v>150</v>
+      </c>
       <c r="B140" s="21">
-        <v>0</v>
+        <v>44310</v>
       </c>
       <c r="C140" s="21">
         <v>0</v>
@@ -3040,41 +3047,41 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="B141" s="21">
-        <v>-1075</v>
+        <v>-297</v>
       </c>
       <c r="C141" s="21">
-        <v>-135727</v>
+        <v>-25</v>
       </c>
       <c r="D141" s="21">
-        <v>-383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="B142" s="21">
         <v>0</v>
       </c>
       <c r="C142" s="21">
-        <v>4000</v>
+        <v>-72175</v>
       </c>
       <c r="D142" s="21">
-        <v>0</v>
+        <v>-383</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="B143" s="21">
-        <v>-2415</v>
+        <v>0</v>
       </c>
       <c r="C143" s="21">
-        <v>-7430</v>
+        <v>-200</v>
       </c>
       <c r="D143" s="21">
         <v>0</v>
@@ -3082,163 +3089,155 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B144" s="21">
+        <v>-2715</v>
+      </c>
+      <c r="C144" s="21">
+        <v>-1430</v>
+      </c>
+      <c r="D144" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B145" s="21">
+        <v>-1350</v>
+      </c>
+      <c r="C145" s="21">
+        <v>-2421</v>
+      </c>
+      <c r="D145" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B146" s="21">
+        <v>-50</v>
+      </c>
+      <c r="C146" s="21">
+        <v>0</v>
+      </c>
+      <c r="D146" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="B144" s="21">
-        <v>-1350</v>
-      </c>
-      <c r="C144" s="21">
-        <v>-2421</v>
-      </c>
-      <c r="D144" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="21" t="s">
+      <c r="B147" s="21">
+        <v>0</v>
+      </c>
+      <c r="C147" s="21">
+        <v>-100</v>
+      </c>
+      <c r="D147" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B145" s="21">
-        <v>-50</v>
-      </c>
-      <c r="C145" s="21">
-        <v>0</v>
-      </c>
-      <c r="D145" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="21" t="s">
+      <c r="B148" s="21">
+        <v>-9600</v>
+      </c>
+      <c r="C148" s="21">
+        <v>-42334</v>
+      </c>
+      <c r="D148" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B149" s="21">
+        <v>561360</v>
+      </c>
+      <c r="C149" s="21">
+        <v>-7000</v>
+      </c>
+      <c r="D149" s="21">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B150" s="21">
+        <v>0</v>
+      </c>
+      <c r="C150" s="21">
+        <v>24000</v>
+      </c>
+      <c r="D150" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B146" s="21">
-        <v>0</v>
-      </c>
-      <c r="C146" s="21">
-        <v>-100</v>
-      </c>
-      <c r="D146" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="21" t="s">
+      <c r="B151" s="21">
+        <v>-1000</v>
+      </c>
+      <c r="C151" s="21">
+        <v>-77500</v>
+      </c>
+      <c r="D151" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B147" s="21">
-        <v>0</v>
-      </c>
-      <c r="C147" s="21">
-        <v>-49704</v>
-      </c>
-      <c r="D147" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="B148" s="21">
-        <v>483460</v>
-      </c>
-      <c r="C148" s="21">
-        <v>0</v>
-      </c>
-      <c r="D148" s="21">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="B149" s="21">
-        <v>0</v>
-      </c>
-      <c r="C149" s="21">
-        <v>0</v>
-      </c>
-      <c r="D149" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="B150" s="21">
-        <v>-1000</v>
-      </c>
-      <c r="C150" s="21">
-        <v>-77500</v>
-      </c>
-      <c r="D150" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B151" s="21">
-        <v>0</v>
-      </c>
-      <c r="C151" s="21">
+      <c r="B152" s="21">
+        <v>0</v>
+      </c>
+      <c r="C152" s="21">
         <v>1500</v>
       </c>
-      <c r="D151" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="B152" s="21">
-        <v>0</v>
-      </c>
-      <c r="C152" s="21">
-        <v>-2200</v>
-      </c>
       <c r="D152" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="21" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B153" s="21">
         <v>0</v>
       </c>
       <c r="C153" s="21">
-        <v>-1800</v>
+        <v>-200</v>
       </c>
       <c r="D153" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="B154" s="21">
-        <v>13000</v>
+        <v>0</v>
       </c>
       <c r="C154" s="21">
-        <v>1200</v>
+        <v>-900</v>
       </c>
       <c r="D154" s="21">
-        <v>0</v>
-      </c>
-      <c r="E154" s="21">
-        <f>SUM(E2:E153)</f>
-        <v>-2500</v>
-      </c>
-      <c r="F154" s="21">
-        <f>SUM(F2:F153)</f>
         <v>0</v>
       </c>
     </row>

--- a/excel/k_parties.xlsx
+++ b/excel/k_parties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="156">
   <si>
     <t>الشيكل</t>
   </si>
@@ -415,9 +415,6 @@
     <t>زيادة لراس المال</t>
   </si>
   <si>
-    <t>حسام صالحة</t>
-  </si>
-  <si>
     <t>ابو حمزة المشهراوي + أسامة سفر</t>
   </si>
   <si>
@@ -439,9 +436,6 @@
     <t>سامي الحلو</t>
   </si>
   <si>
-    <t>صندوق2 احمد صندوق 2 احــــمــد</t>
-  </si>
-  <si>
     <t>أبو أنس يورو</t>
   </si>
   <si>
@@ -454,27 +448,18 @@
     <t xml:space="preserve">صوان </t>
   </si>
   <si>
-    <t>نور عبيد</t>
-  </si>
-  <si>
     <t>سلام عليوة شيكات</t>
   </si>
   <si>
     <t>أبو طلعت الحساينة</t>
   </si>
   <si>
-    <t>الأصيل ألمنيوم</t>
-  </si>
-  <si>
     <t>خالد الحداد</t>
   </si>
   <si>
     <t>يوسف الغز</t>
   </si>
   <si>
-    <t>علاء أبو شعبان سيارات</t>
-  </si>
-  <si>
     <t>محمد فورة</t>
   </si>
   <si>
@@ -488,6 +473,21 @@
   </si>
   <si>
     <t xml:space="preserve">منيب أبو سيد </t>
+  </si>
+  <si>
+    <t>صندوق 2 صندوق احمد صندوق2 احــــــــمــــــد</t>
+  </si>
+  <si>
+    <t>ساري فرودة</t>
+  </si>
+  <si>
+    <t>الزهارنة ألمنيوم</t>
+  </si>
+  <si>
+    <t>أم علي الهبلة</t>
+  </si>
+  <si>
+    <t>حمود الحايك</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B4" s="21">
-        <v>-770</v>
+        <v>-970</v>
       </c>
       <c r="C4" s="21">
         <v>-1655</v>
@@ -1278,7 +1278,7 @@
         <v>-30</v>
       </c>
       <c r="C14" s="21">
-        <v>-23329</v>
+        <v>-20774</v>
       </c>
       <c r="D14" s="21">
         <v>0</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B19" s="21">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>121</v>
       </c>
       <c r="B22" s="21">
-        <v>-290</v>
+        <v>-690</v>
       </c>
       <c r="C22" s="21">
         <v>0</v>
@@ -1415,7 +1415,7 @@
         <v>125</v>
       </c>
       <c r="B24" s="21">
-        <v>-600</v>
+        <v>-970</v>
       </c>
       <c r="C24" s="21">
         <v>13622</v>
@@ -1538,13 +1538,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B33" s="21">
         <v>0</v>
       </c>
       <c r="C33" s="21">
-        <v>-259891</v>
+        <v>-307891</v>
       </c>
       <c r="D33" s="21">
         <v>-10621</v>
@@ -1555,7 +1555,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="21">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="C34" s="21">
         <v>-200</v>
@@ -1597,7 +1597,7 @@
         <v>128</v>
       </c>
       <c r="B37" s="21">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="C37" s="21">
         <v>-400</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="21">
-        <v>-1450</v>
+        <v>-1422</v>
       </c>
       <c r="D38" s="21">
         <v>0</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B41" s="21">
         <v>-130</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B42" s="21">
         <v>0</v>
@@ -1681,10 +1681,10 @@
         <v>126</v>
       </c>
       <c r="B43" s="21">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="C43" s="21">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="D43" s="21">
         <v>0</v>
@@ -1709,10 +1709,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="21">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="C45" s="21">
-        <v>-22991</v>
+        <v>0</v>
       </c>
       <c r="D45" s="21">
         <v>0</v>
@@ -1748,7 +1748,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B48" s="21">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>38</v>
       </c>
       <c r="B52" s="21">
-        <v>14800</v>
+        <v>6800</v>
       </c>
       <c r="C52" s="21">
         <v>-1400</v>
@@ -1838,7 +1838,7 @@
         <v>-5000</v>
       </c>
       <c r="C54" s="21">
-        <v>10100</v>
+        <v>30000</v>
       </c>
       <c r="D54" s="21">
         <v>0</v>
@@ -1915,9 +1915,6 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="21" t="s">
-        <v>131</v>
-      </c>
       <c r="B60" s="21">
         <v>0</v>
       </c>
@@ -1944,7 +1941,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B62" s="21">
         <v>-1000</v>
@@ -2042,7 +2039,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B69" s="21">
         <v>-200</v>
@@ -2056,10 +2053,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B70" s="21">
-        <v>-120</v>
+        <v>-5000</v>
       </c>
       <c r="C70" s="21">
         <v>0</v>
@@ -2210,7 +2207,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B81" s="21">
         <v>-4400</v>
@@ -2227,7 +2224,7 @@
         <v>60</v>
       </c>
       <c r="B82" s="21">
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="C82" s="21">
         <v>0</v>
@@ -2297,7 +2294,7 @@
         <v>119</v>
       </c>
       <c r="B87" s="21">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="C87" s="21">
         <v>0</v>
@@ -2363,11 +2360,14 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="21" t="s">
+        <v>153</v>
+      </c>
       <c r="B92" s="21">
         <v>0</v>
       </c>
       <c r="C92" s="21">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="D92" s="21">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>113</v>
       </c>
       <c r="B96" s="21">
-        <v>-280</v>
+        <v>-5680</v>
       </c>
       <c r="C96" s="21">
         <v>-1500</v>
@@ -2431,13 +2431,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B97" s="21">
         <v>0</v>
       </c>
       <c r="C97" s="21">
-        <v>17700</v>
+        <v>9200</v>
       </c>
       <c r="D97" s="21">
         <v>0</v>
@@ -2549,7 +2549,7 @@
         <v>-1600</v>
       </c>
       <c r="C105" s="21">
-        <v>-5987</v>
+        <v>-7352</v>
       </c>
       <c r="D105" s="21">
         <v>0</v>
@@ -2627,10 +2627,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B111" s="21">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="C111" s="21">
         <v>0</v>
@@ -2641,7 +2641,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B112" s="21">
         <v>-225</v>
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="C117" s="21">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="D117" s="21">
         <v>0</v>
@@ -2756,10 +2756,10 @@
         <v>117</v>
       </c>
       <c r="B120" s="21">
-        <v>-150</v>
+        <v>-400</v>
       </c>
       <c r="C120" s="21">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="D120" s="21">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>-4218</v>
       </c>
       <c r="C124" s="21">
-        <v>-2968</v>
+        <v>-3168</v>
       </c>
       <c r="D124" s="21">
         <v>0</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B128" s="21">
         <v>0</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B136" s="21">
         <v>-570</v>
@@ -3019,7 +3019,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B139" s="21">
         <v>0</v>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B140" s="21">
-        <v>44310</v>
+        <v>0</v>
       </c>
       <c r="C140" s="21">
         <v>0</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B141" s="21">
         <v>-297</v>
@@ -3061,13 +3061,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B142" s="21">
         <v>0</v>
       </c>
       <c r="C142" s="21">
-        <v>-72175</v>
+        <v>-35975</v>
       </c>
       <c r="D142" s="21">
         <v>-383</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B143" s="21">
         <v>0</v>
@@ -3089,13 +3089,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B144" s="21">
-        <v>-2715</v>
+        <v>-3405</v>
       </c>
       <c r="C144" s="21">
-        <v>-1430</v>
+        <v>-2430</v>
       </c>
       <c r="D144" s="21">
         <v>0</v>
@@ -3173,10 +3173,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B150" s="21">
-        <v>0</v>
+        <v>-1532</v>
       </c>
       <c r="C150" s="21">
         <v>24000</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="21" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B153" s="21">
         <v>0</v>
@@ -3229,7 +3229,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B154" s="21">
         <v>0</v>
@@ -3238,6 +3238,20 @@
         <v>-900</v>
       </c>
       <c r="D154" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B155" s="21">
+        <v>-6000</v>
+      </c>
+      <c r="C155" s="21">
+        <v>-1400</v>
+      </c>
+      <c r="D155" s="21">
         <v>0</v>
       </c>
     </row>

--- a/excel/k_parties.xlsx
+++ b/excel/k_parties.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>الشيكل</t>
   </si>
@@ -148,9 +148,6 @@
     <t>أرباح دهب</t>
   </si>
   <si>
-    <t>أبو طلعت</t>
-  </si>
-  <si>
     <t>العجلة محامي</t>
   </si>
   <si>
@@ -397,9 +394,6 @@
     <t>ساعد</t>
   </si>
   <si>
-    <t>أبو علي أبو طويلة  2 تشغيل</t>
-  </si>
-  <si>
     <t>تجميع كهرباء</t>
   </si>
   <si>
@@ -418,9 +412,6 @@
     <t>ابو حمزة المشهراوي + أسامة سفر</t>
   </si>
   <si>
-    <t>أياد الريس</t>
-  </si>
-  <si>
     <t>عابدين</t>
   </si>
   <si>
@@ -436,30 +427,15 @@
     <t>سامي الحلو</t>
   </si>
   <si>
-    <t>أبو أنس يورو</t>
-  </si>
-  <si>
     <t>حسين سالم</t>
   </si>
   <si>
-    <t xml:space="preserve">أبو داير </t>
-  </si>
-  <si>
-    <t xml:space="preserve">صوان </t>
-  </si>
-  <si>
     <t>سلام عليوة شيكات</t>
   </si>
   <si>
     <t>أبو طلعت الحساينة</t>
   </si>
   <si>
-    <t>خالد الحداد</t>
-  </si>
-  <si>
-    <t>يوسف الغز</t>
-  </si>
-  <si>
     <t>محمد فورة</t>
   </si>
   <si>
@@ -475,19 +451,43 @@
     <t xml:space="preserve">منيب أبو سيد </t>
   </si>
   <si>
-    <t>صندوق 2 صندوق احمد صندوق2 احــــــــمــــــد</t>
-  </si>
-  <si>
-    <t>ساري فرودة</t>
-  </si>
-  <si>
-    <t>الزهارنة ألمنيوم</t>
-  </si>
-  <si>
     <t>أم علي الهبلة</t>
   </si>
   <si>
-    <t>حمود الحايك</t>
+    <t>ارباح استثمار ابوعلي</t>
+  </si>
+  <si>
+    <t>صندوق2 صندوق احمد صندوق2 احمـــــــد</t>
+  </si>
+  <si>
+    <t>أبو أنس يورو + بو أنس سيدو</t>
+  </si>
+  <si>
+    <t>عبد الله المصري</t>
+  </si>
+  <si>
+    <t>ابو طويله 3</t>
+  </si>
+  <si>
+    <t>الرنتيسي</t>
+  </si>
+  <si>
+    <t>أبو تامر عزااام</t>
+  </si>
+  <si>
+    <t>أنور بنك القاهرة عمان</t>
+  </si>
+  <si>
+    <t>شركة الأدوية أستثمار</t>
+  </si>
+  <si>
+    <t>الميدنا حمزة محاسب</t>
+  </si>
+  <si>
+    <t>ساري فرودة + صوان</t>
+  </si>
+  <si>
+    <t>أبو علي طويلة 3</t>
   </si>
 </sst>
 </file>
@@ -1082,10 +1082,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1110,10 +1110,10 @@
         <v>2</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>108</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B4" s="21">
-        <v>-970</v>
+        <v>-1820</v>
       </c>
       <c r="C4" s="21">
         <v>-1655</v>
@@ -1247,10 +1247,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="21">
-        <v>-41099</v>
+        <v>-3179</v>
       </c>
       <c r="C12" s="21">
-        <v>-20445</v>
+        <v>-29453</v>
       </c>
       <c r="D12" s="21">
         <v>0</v>
@@ -1286,7 +1286,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B15" s="21">
         <v>-380</v>
@@ -1314,13 +1314,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B17" s="21">
         <v>0</v>
       </c>
       <c r="C17" s="21">
-        <v>-1200</v>
+        <v>-2300</v>
       </c>
       <c r="D17" s="21">
         <v>0</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B19" s="21">
         <v>0</v>
@@ -1384,10 +1384,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" s="21">
-        <v>-690</v>
+        <v>-890</v>
       </c>
       <c r="C22" s="21">
         <v>0</v>
@@ -1412,13 +1412,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="B24" s="21">
-        <v>-970</v>
+        <v>0</v>
       </c>
       <c r="C24" s="21">
-        <v>13622</v>
+        <v>700</v>
       </c>
       <c r="D24" s="21">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="21">
-        <v>4320</v>
+        <v>6720</v>
       </c>
       <c r="D29" s="21">
         <v>0</v>
@@ -1502,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="21">
-        <v>3788</v>
+        <v>1088</v>
       </c>
       <c r="D30" s="21">
         <v>0</v>
@@ -1538,16 +1538,16 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B33" s="21">
         <v>0</v>
       </c>
       <c r="C33" s="21">
-        <v>-307891</v>
+        <v>-155073</v>
       </c>
       <c r="D33" s="21">
-        <v>-10621</v>
+        <v>-4101</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1555,10 +1555,10 @@
         <v>27</v>
       </c>
       <c r="B34" s="21">
-        <v>-1500</v>
+        <v>-1000</v>
       </c>
       <c r="C34" s="21">
-        <v>-200</v>
+        <v>4400</v>
       </c>
       <c r="D34" s="21">
         <v>10000</v>
@@ -1594,13 +1594,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B37" s="21">
         <v>-150</v>
       </c>
       <c r="C37" s="21">
-        <v>-400</v>
+        <v>-700</v>
       </c>
       <c r="D37" s="21">
         <v>0</v>
@@ -1608,7 +1608,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B38" s="21">
         <v>0</v>
@@ -1650,13 +1650,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B41" s="21">
         <v>-130</v>
       </c>
       <c r="C41" s="21">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D41" s="21">
         <v>0</v>
@@ -1664,7 +1664,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B42" s="21">
         <v>0</v>
@@ -1678,13 +1678,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B43" s="21">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="C43" s="21">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="D43" s="21">
         <v>0</v>
@@ -1706,13 +1706,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="21">
-        <v>-1300</v>
+        <v>-132782</v>
       </c>
       <c r="C45" s="21">
-        <v>0</v>
+        <v>-650</v>
       </c>
       <c r="D45" s="21">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="C46" s="21">
-        <v>111100</v>
+        <v>-10000</v>
       </c>
       <c r="D46" s="21">
         <v>0</v>
@@ -1748,13 +1748,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="21" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B48" s="21">
         <v>0</v>
       </c>
       <c r="C48" s="21">
-        <v>-40000</v>
+        <v>8700</v>
       </c>
       <c r="D48" s="21">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>38</v>
       </c>
       <c r="B52" s="21">
-        <v>6800</v>
+        <v>0</v>
       </c>
       <c r="C52" s="21">
-        <v>-1400</v>
+        <v>-200</v>
       </c>
       <c r="D52" s="21">
         <v>0</v>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B53" s="21">
         <v>0</v>
@@ -1838,7 +1838,7 @@
         <v>-5000</v>
       </c>
       <c r="C54" s="21">
-        <v>30000</v>
+        <v>45000</v>
       </c>
       <c r="D54" s="21">
         <v>0</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B55" s="21">
         <v>-200</v>
@@ -1888,13 +1888,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="B58" s="21">
-        <v>0</v>
+        <v>-970</v>
       </c>
       <c r="C58" s="21">
-        <v>0</v>
+        <v>-18393</v>
       </c>
       <c r="D58" s="21">
         <v>0</v>
@@ -1902,21 +1902,24 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B59" s="21">
         <v>-1362</v>
       </c>
       <c r="C59" s="21">
-        <v>-7800</v>
+        <v>-7480</v>
       </c>
       <c r="D59" s="21">
         <v>6162</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>149</v>
+      </c>
       <c r="B60" s="21">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="C60" s="21">
         <v>0</v>
@@ -1927,7 +1930,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B61" s="21">
         <v>0</v>
@@ -1941,7 +1944,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B62" s="21">
         <v>-1000</v>
@@ -1955,13 +1958,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B63" s="21">
         <v>0</v>
       </c>
       <c r="C63" s="21">
-        <v>-8485</v>
+        <v>-7025</v>
       </c>
       <c r="D63" s="21">
         <v>0</v>
@@ -1969,7 +1972,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B64" s="21">
         <v>-4220</v>
@@ -1983,7 +1986,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B65" s="21">
         <v>-600</v>
@@ -1997,7 +2000,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B66" s="21">
         <v>0</v>
@@ -2011,7 +2014,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B67" s="21">
         <v>0</v>
@@ -2025,7 +2028,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B68" s="21">
         <v>0</v>
@@ -2039,10 +2042,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="B69" s="21">
-        <v>-200</v>
+        <v>-5152</v>
       </c>
       <c r="C69" s="21">
         <v>0</v>
@@ -2053,13 +2056,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B70" s="21">
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="C70" s="21">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D70" s="21">
         <v>0</v>
@@ -2067,7 +2070,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B71" s="21">
         <v>-700</v>
@@ -2081,7 +2084,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B72" s="21">
         <v>0</v>
@@ -2095,10 +2098,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B73" s="21">
-        <v>-6270</v>
+        <v>-4270</v>
       </c>
       <c r="C73" s="21">
         <v>0</v>
@@ -2109,7 +2112,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B74" s="21">
         <v>0</v>
@@ -2123,7 +2126,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B75" s="21">
         <v>0</v>
@@ -2137,7 +2140,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B76" s="21">
         <v>-350</v>
@@ -2151,7 +2154,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B77" s="21">
         <v>-6200</v>
@@ -2165,7 +2168,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B78" s="21">
         <v>-80</v>
@@ -2179,7 +2182,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B79" s="21">
         <v>-400</v>
@@ -2193,7 +2196,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B80" s="21">
         <v>0</v>
@@ -2207,13 +2210,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B81" s="21">
-        <v>-4400</v>
+        <v>-2000</v>
       </c>
       <c r="C81" s="21">
-        <v>-15115</v>
+        <v>-4032</v>
       </c>
       <c r="D81" s="21">
         <v>-1850</v>
@@ -2221,7 +2224,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B82" s="21">
         <v>0</v>
@@ -2230,12 +2233,12 @@
         <v>0</v>
       </c>
       <c r="D82" s="21">
-        <v>0</v>
+        <v>-104</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B83" s="21">
         <v>-1000</v>
@@ -2249,7 +2252,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B84" s="21">
         <v>-275</v>
@@ -2263,7 +2266,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B85" s="21">
         <v>0</v>
@@ -2277,13 +2280,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B86" s="21">
         <v>-1090</v>
       </c>
       <c r="C86" s="21">
-        <v>0</v>
+        <v>-15700</v>
       </c>
       <c r="D86" s="21">
         <v>0</v>
@@ -2291,10 +2294,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B87" s="21">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="C87" s="21">
         <v>0</v>
@@ -2305,7 +2308,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B88" s="21">
         <v>0</v>
@@ -2319,7 +2322,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B89" s="21">
         <v>0</v>
@@ -2333,7 +2336,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B90" s="21">
         <v>-300</v>
@@ -2347,7 +2350,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B91" s="21">
         <v>0</v>
@@ -2360,14 +2363,11 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="21" t="s">
-        <v>153</v>
-      </c>
       <c r="B92" s="21">
         <v>0</v>
       </c>
       <c r="C92" s="21">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="D92" s="21">
         <v>0</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B93" s="21">
         <v>0</v>
@@ -2389,7 +2389,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B94" s="21">
         <v>133</v>
@@ -2403,24 +2403,24 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B95" s="21">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="C95" s="21">
-        <v>-3205</v>
+        <v>-3550</v>
       </c>
       <c r="D95" s="21">
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B96" s="21">
-        <v>-5680</v>
+        <v>-280</v>
       </c>
       <c r="C96" s="21">
         <v>-1500</v>
@@ -2431,13 +2431,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B97" s="21">
         <v>0</v>
       </c>
       <c r="C97" s="21">
-        <v>9200</v>
+        <v>0</v>
       </c>
       <c r="D97" s="21">
         <v>0</v>
@@ -2445,7 +2445,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B98" s="21">
         <v>-650</v>
@@ -2459,21 +2459,21 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B99" s="21">
         <v>0</v>
       </c>
       <c r="C99" s="21">
-        <v>3900</v>
+        <v>400</v>
       </c>
       <c r="D99" s="21">
-        <v>813</v>
+        <v>633</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B100" s="21">
         <v>6000</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B101" s="21">
         <v>-1260</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B102" s="21">
         <v>-1000</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B103" s="21">
         <v>0</v>
@@ -2529,13 +2529,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B104" s="21">
         <v>237983</v>
       </c>
       <c r="C104" s="21">
-        <v>-4083</v>
+        <v>-4283</v>
       </c>
       <c r="D104" s="21">
         <v>-400</v>
@@ -2543,13 +2543,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B105" s="21">
         <v>-1600</v>
       </c>
       <c r="C105" s="21">
-        <v>-7352</v>
+        <v>-7346</v>
       </c>
       <c r="D105" s="21">
         <v>0</v>
@@ -2557,7 +2557,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B106" s="21">
         <v>-550</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B107" s="21">
         <v>0</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B108" s="21">
         <v>8000</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B109" s="21">
         <v>0</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B110" s="21">
         <v>-250</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B111" s="21">
         <v>-200</v>
@@ -2641,10 +2641,10 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B112" s="21">
-        <v>-225</v>
+        <v>-60000</v>
       </c>
       <c r="C112" s="21">
         <v>0</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B113" s="21">
         <v>1984</v>
@@ -2669,7 +2669,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B114" s="21">
         <v>0</v>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B115" s="21">
         <v>-150</v>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B116" s="21">
         <v>0</v>
@@ -2711,13 +2711,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117" s="21">
         <v>0</v>
       </c>
       <c r="C117" s="21">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D117" s="21">
         <v>0</v>
@@ -2725,10 +2725,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B118" s="21">
-        <v>135000</v>
+        <v>134000</v>
       </c>
       <c r="C118" s="21">
         <v>0</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B119" s="21">
         <v>-170</v>
@@ -2753,10 +2753,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B120" s="21">
-        <v>-400</v>
+        <v>-150</v>
       </c>
       <c r="C120" s="21">
         <v>-2000</v>
@@ -2767,10 +2767,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B121" s="21">
-        <v>24000</v>
+        <v>20000</v>
       </c>
       <c r="C121" s="21">
         <v>3000</v>
@@ -2781,7 +2781,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B122" s="21">
         <v>527</v>
@@ -2795,7 +2795,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B123" s="21">
         <v>-2300</v>
@@ -2809,13 +2809,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B124" s="21">
         <v>-4218</v>
       </c>
       <c r="C124" s="21">
-        <v>-3168</v>
+        <v>-768</v>
       </c>
       <c r="D124" s="21">
         <v>0</v>
@@ -2823,13 +2823,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B125" s="21">
         <v>-13918</v>
       </c>
       <c r="C125" s="21">
-        <v>-1303</v>
+        <v>-903</v>
       </c>
       <c r="D125" s="21">
         <v>-810</v>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B126" s="21">
         <v>0</v>
@@ -2851,7 +2851,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B127" s="21">
         <v>0</v>
@@ -2865,21 +2865,21 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="21" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="B128" s="21">
         <v>0</v>
       </c>
       <c r="C128" s="21">
-        <v>-1152</v>
+        <v>0</v>
       </c>
       <c r="D128" s="21">
-        <v>0</v>
+        <v>-190</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B129" s="21">
         <v>-2500</v>
@@ -2893,10 +2893,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B130" s="21">
-        <v>-3900</v>
+        <v>-3350</v>
       </c>
       <c r="C130" s="21">
         <v>0</v>
@@ -2907,7 +2907,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B131" s="21">
         <v>-925</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B132" s="21">
         <v>-200</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B133" s="21">
         <v>0</v>
@@ -2949,13 +2949,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B134" s="21">
-        <v>12887</v>
+        <v>7687</v>
       </c>
       <c r="C134" s="21">
-        <v>0</v>
+        <v>16750</v>
       </c>
       <c r="D134" s="21">
         <v>0</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B135" s="21">
         <v>-830</v>
@@ -2976,11 +2976,8 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="21" t="s">
-        <v>145</v>
-      </c>
       <c r="B136" s="21">
-        <v>-570</v>
+        <v>0</v>
       </c>
       <c r="C136" s="21">
         <v>0</v>
@@ -2991,7 +2988,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B137" s="21">
         <v>-1500</v>
@@ -3005,7 +3002,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B138" s="21">
         <v>0</v>
@@ -3019,22 +3016,19 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B139" s="21">
         <v>0</v>
       </c>
       <c r="C139" s="21">
-        <v>24820</v>
+        <v>22020</v>
       </c>
       <c r="D139" s="21">
         <v>-2000</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="21" t="s">
-        <v>152</v>
-      </c>
       <c r="B140" s="21">
         <v>0</v>
       </c>
@@ -3047,7 +3041,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B141" s="21">
         <v>-297</v>
@@ -3061,13 +3055,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B142" s="21">
-        <v>0</v>
+        <v>-35000</v>
       </c>
       <c r="C142" s="21">
-        <v>-35975</v>
+        <v>-4685</v>
       </c>
       <c r="D142" s="21">
         <v>-383</v>
@@ -3075,7 +3069,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="21" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B143" s="21">
         <v>0</v>
@@ -3089,13 +3083,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B144" s="21">
-        <v>-3405</v>
+        <v>-2685</v>
       </c>
       <c r="C144" s="21">
-        <v>-2430</v>
+        <v>-4329</v>
       </c>
       <c r="D144" s="21">
         <v>0</v>
@@ -3103,7 +3097,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B145" s="21">
         <v>-1350</v>
@@ -3117,7 +3111,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B146" s="21">
         <v>-50</v>
@@ -3131,7 +3125,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B147" s="21">
         <v>0</v>
@@ -3145,10 +3139,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B148" s="21">
-        <v>-9600</v>
+        <v>-8100</v>
       </c>
       <c r="C148" s="21">
         <v>-42334</v>
@@ -3159,7 +3153,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B149" s="21">
         <v>561360</v>
@@ -3173,13 +3167,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="21" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B150" s="21">
-        <v>-1532</v>
+        <v>0</v>
       </c>
       <c r="C150" s="21">
-        <v>24000</v>
+        <v>23000</v>
       </c>
       <c r="D150" s="21">
         <v>0</v>
@@ -3187,7 +3181,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B151" s="21">
         <v>-1000</v>
@@ -3201,7 +3195,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B152" s="21">
         <v>0</v>
@@ -3215,7 +3209,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="21" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B153" s="21">
         <v>0</v>
@@ -3229,29 +3223,54 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="21" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B154" s="21">
         <v>0</v>
       </c>
       <c r="C154" s="21">
-        <v>-900</v>
+        <v>-500</v>
       </c>
       <c r="D154" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="21" t="s">
+      <c r="B155" s="21">
+        <v>0</v>
+      </c>
+      <c r="C155" s="21">
+        <v>0</v>
+      </c>
+      <c r="D155" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B156" s="21">
+        <v>-100</v>
+      </c>
+      <c r="C156" s="21">
+        <v>-39</v>
+      </c>
+      <c r="D156" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B155" s="21">
-        <v>-6000</v>
-      </c>
-      <c r="C155" s="21">
-        <v>-1400</v>
-      </c>
-      <c r="D155" s="21">
+      <c r="B157" s="21">
+        <v>0</v>
+      </c>
+      <c r="C157" s="21">
+        <v>-50000</v>
+      </c>
+      <c r="D157" s="21">
         <v>0</v>
       </c>
     </row>

--- a/excel/k_parties.xlsx
+++ b/excel/k_parties.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>بنك فلسطين</t>
   </si>
@@ -430,34 +430,46 @@
     <t>صندوق الاستثمار</t>
   </si>
   <si>
-    <t>صندوق2 صندوق احمد صندوق 2 صندوق احــــــــــمــــــــــــــد</t>
-  </si>
-  <si>
     <t xml:space="preserve">أبو أنس يورو </t>
   </si>
   <si>
     <t>منير علي حسن</t>
   </si>
   <si>
-    <t>أياد الريس</t>
-  </si>
-  <si>
-    <t>عياد</t>
-  </si>
-  <si>
-    <t>شنط مدارس + مكيف للمحل</t>
-  </si>
-  <si>
-    <t>شـحاتة بــنك</t>
-  </si>
-  <si>
-    <t>ابو فادي ابو سيدو</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> صوان</t>
-  </si>
-  <si>
-    <t xml:space="preserve">أبو علي طويلة </t>
+    <t>أشرف أبو سيدو</t>
+  </si>
+  <si>
+    <t>صندوق 2 صندوق احمد صندوق 2 صندوق  احــــــــــــــــــــــــــــــمــــــــــــــــد</t>
+  </si>
+  <si>
+    <t>نور عبيد</t>
+  </si>
+  <si>
+    <t>اياد الريس</t>
+  </si>
+  <si>
+    <t>سرحان قويدر</t>
+  </si>
+  <si>
+    <t>عياد دخان</t>
+  </si>
+  <si>
+    <t>جهاد الريس</t>
+  </si>
+  <si>
+    <t>يوسف الغمري</t>
+  </si>
+  <si>
+    <t>أبو علي طويلة</t>
+  </si>
+  <si>
+    <t>ميار دلول</t>
+  </si>
+  <si>
+    <t>شـحاتة بـنك</t>
+  </si>
+  <si>
+    <t>الست أبو عمرة</t>
   </si>
 </sst>
 </file>
@@ -829,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43:L44"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -862,29 +874,43 @@
         <v>104</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-75</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>-17</v>
+      </c>
+    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="B3">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>-2925</v>
       </c>
       <c r="D3">
-        <v>-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>-3250</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>-1655</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -892,7 +918,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -906,27 +932,24 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>133</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-61000</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>42339</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>133</v>
-      </c>
       <c r="B7">
-        <v>-61000</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>22662</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -955,8 +978,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
       <c r="B10">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -967,13 +993,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>-200</v>
+        <v>-112460</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>-8275</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -981,13 +1007,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>-96605</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>-1225</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -995,13 +1021,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="C13">
-        <v>-300</v>
+        <v>-12774</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1009,13 +1035,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="B14">
-        <v>-30</v>
+        <v>-380</v>
       </c>
       <c r="C14">
-        <v>-20774</v>
+        <v>-250</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1023,13 +1049,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>6</v>
       </c>
       <c r="B15">
-        <v>-380</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1037,13 +1063,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1051,22 +1077,19 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
       <c r="C17">
-        <v>-1300</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
       <c r="B18">
         <v>0</v>
       </c>
@@ -1078,11 +1101,14 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1090,66 +1116,66 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>-2850</v>
       </c>
       <c r="C20">
-        <v>-300</v>
+        <v>28435</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>-1355</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>15756</v>
       </c>
       <c r="D21">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>-1170</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
       <c r="B23">
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
       <c r="B24">
-        <v>0</v>
+        <v>-385</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>-4557</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1157,13 +1183,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25">
-        <v>-385</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>-4557</v>
+        <v>-450</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1171,13 +1197,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="C26">
-        <v>-450</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1185,13 +1211,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B27">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>-155</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1199,24 +1225,27 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>136</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="C28">
-        <v>-155</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1435</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1224,13 +1253,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>-285</v>
       </c>
       <c r="C30">
-        <v>1088</v>
+        <v>-8220</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1238,13 +1267,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B31">
-        <v>-285</v>
+        <v>-44785</v>
       </c>
       <c r="C31">
-        <v>-8220</v>
+        <v>11079</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1252,41 +1281,41 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>137</v>
       </c>
       <c r="B32">
-        <v>-44785</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>11079</v>
+        <v>-150004</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>18522</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>134</v>
+        <v>19</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>32550</v>
       </c>
       <c r="C33">
-        <v>-105450</v>
+        <v>10000</v>
       </c>
       <c r="D33">
-        <v>-1601</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B34">
-        <v>40550</v>
+        <v>-1156</v>
       </c>
       <c r="C34">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1294,13 +1323,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B35">
-        <v>-1156</v>
+        <v>-650</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-1635</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1308,13 +1337,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="B36">
-        <v>-650</v>
+        <v>-378</v>
       </c>
       <c r="C36">
-        <v>-1635</v>
+        <v>-300</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1322,13 +1351,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="B37">
-        <v>-378</v>
+        <v>0</v>
       </c>
       <c r="C37">
-        <v>-300</v>
+        <v>-1422</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1336,13 +1365,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>-1422</v>
+        <v>-2322</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1350,13 +1379,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="C39">
-        <v>-2322</v>
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1364,10 +1393,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="B40">
-        <v>-1000</v>
+        <v>-1570</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1378,38 +1407,35 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B41">
-        <v>-130</v>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
       <c r="D42">
-        <v>-300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>113</v>
-      </c>
       <c r="B43">
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1419,8 +1445,11 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
       <c r="B44">
-        <v>0</v>
+        <v>-58970</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1431,13 +1460,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>106</v>
       </c>
       <c r="B45">
-        <v>-96670</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1445,13 +1474,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>-10000</v>
+        <v>-100</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1459,13 +1488,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>-100</v>
+        <v>7800</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1473,13 +1502,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>26</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="C48">
-        <v>9800</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1487,13 +1516,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B49">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-170</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1501,13 +1530,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>-170</v>
+        <v>-523</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1515,38 +1544,38 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B51">
-        <v>0</v>
+        <v>-2500</v>
       </c>
       <c r="C51">
-        <v>-523</v>
+        <v>-200</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>29</v>
-      </c>
       <c r="B52">
-        <v>-2500</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>30</v>
+      </c>
       <c r="B53">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>65000</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1554,13 +1583,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="B54">
-        <v>-5000</v>
+        <v>-200</v>
       </c>
       <c r="C54">
-        <v>45000</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1568,13 +1597,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="B55">
-        <v>-200</v>
+        <v>50</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1582,21 +1611,24 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
       <c r="B56">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>139</v>
+      </c>
       <c r="B57">
-        <v>0</v>
+        <v>-2400</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1606,39 +1638,42 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>32</v>
+      </c>
       <c r="B58">
-        <v>0</v>
+        <v>-1862</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>-7692</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>5762</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="B59">
-        <v>-1862</v>
+        <v>0</v>
       </c>
       <c r="C59">
-        <v>-7692</v>
+        <v>-500</v>
       </c>
       <c r="D59">
-        <v>5762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="B60">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C60">
-        <v>-500</v>
+        <v>-280</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1646,13 +1681,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="B61">
-        <v>500</v>
+        <v>-1000</v>
       </c>
       <c r="C61">
-        <v>-280</v>
+        <v>0</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1660,13 +1695,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="B62">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-4696</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1674,13 +1709,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>-4220</v>
       </c>
       <c r="C63">
-        <v>-4510</v>
+        <v>1000</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1688,13 +1723,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B64">
-        <v>-4220</v>
+        <v>-600</v>
       </c>
       <c r="C64">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1702,13 +1737,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B65">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>18700</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1716,32 +1751,38 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="C66">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>-250</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>141</v>
+      </c>
       <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>-13000</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>129</v>
+      </c>
       <c r="B68">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1752,13 +1793,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B69">
         <v>0</v>
       </c>
       <c r="C69">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1766,13 +1807,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="C70">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -1780,13 +1821,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B71">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1794,13 +1835,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>-4270</v>
       </c>
       <c r="C72">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1808,13 +1849,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="B73">
-        <v>-4270</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>-1600</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1822,13 +1863,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>-1600</v>
+        <v>-1700</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -1836,13 +1877,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B75">
-        <v>0</v>
+        <v>-350</v>
       </c>
       <c r="C75">
-        <v>-1700</v>
+        <v>0</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -1850,41 +1891,41 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="B76">
-        <v>-350</v>
+        <v>-6200</v>
       </c>
       <c r="C76">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>-750</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="B77">
-        <v>-6200</v>
+        <v>-80</v>
       </c>
       <c r="C77">
-        <v>-300</v>
+        <v>-1244</v>
       </c>
       <c r="D77">
-        <v>-750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B78">
-        <v>-80</v>
+        <v>-400</v>
       </c>
       <c r="C78">
-        <v>-1244</v>
+        <v>0</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -1892,13 +1933,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B79">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-122</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -1906,55 +1947,55 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>46</v>
+        <v>123</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>5300</v>
       </c>
       <c r="C80">
-        <v>-122</v>
+        <v>-15914</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>-785</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>47</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
       <c r="D81">
-        <v>-310</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-35000</v>
       </c>
       <c r="D82">
-        <v>-1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B83">
-        <v>-1000</v>
+        <v>-275</v>
       </c>
       <c r="C83">
-        <v>-35000</v>
+        <v>0</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -1962,10 +2003,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B84">
-        <v>-275</v>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1976,10 +2017,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>-1090</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1990,10 +2031,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="B86">
-        <v>-1090</v>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2004,24 +2045,27 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="B87">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87">
-        <v>-200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>52</v>
+      </c>
       <c r="B88">
         <v>0</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>-915</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2029,13 +2073,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="C89">
-        <v>-915</v>
+        <v>0</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2043,41 +2087,38 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B90">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>54</v>
-      </c>
       <c r="B91">
         <v>0</v>
       </c>
       <c r="C91">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="B92">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>-615</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2085,13 +2126,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="C93">
-        <v>-615</v>
+        <v>791</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2099,41 +2140,41 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B94">
-        <v>133</v>
+        <v>10400</v>
       </c>
       <c r="C94">
-        <v>791</v>
+        <v>-3750</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B95">
-        <v>10800</v>
+        <v>-280</v>
       </c>
       <c r="C95">
-        <v>-3550</v>
+        <v>-1500</v>
       </c>
       <c r="D95">
-        <v>28050</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>58</v>
+        <v>132</v>
       </c>
       <c r="B96">
-        <v>-280</v>
+        <v>-50</v>
       </c>
       <c r="C96">
-        <v>-1500</v>
+        <v>-2200</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2141,13 +2182,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-650</v>
       </c>
       <c r="C97">
-        <v>-1200</v>
+        <v>-2781</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2155,41 +2196,41 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B98">
-        <v>-650</v>
+        <v>0</v>
       </c>
       <c r="C98">
-        <v>-2781</v>
+        <v>100</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="C99">
-        <v>100</v>
+        <v>-30000</v>
       </c>
       <c r="D99">
-        <v>533</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B100">
-        <v>6000</v>
+        <v>-1260</v>
       </c>
       <c r="C100">
-        <v>-30000</v>
+        <v>125</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -2197,83 +2238,83 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B101">
-        <v>-1260</v>
+        <v>-1000</v>
       </c>
       <c r="C101">
-        <v>125</v>
+        <v>-100</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B102">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>237983</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>-23083</v>
       </c>
       <c r="D103">
-        <v>0</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B104">
-        <v>237983</v>
+        <v>-200</v>
       </c>
       <c r="C104">
-        <v>-23283</v>
+        <v>-8679</v>
       </c>
       <c r="D104">
-        <v>-400</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B105">
-        <v>-1600</v>
+        <v>-550</v>
       </c>
       <c r="C105">
-        <v>-5495</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B106">
-        <v>-550</v>
+        <v>0</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>1550</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2281,13 +2322,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B107">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="C107">
-        <v>1550</v>
+        <v>-2440</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -2295,13 +2336,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B108">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="C108">
-        <v>-2440</v>
+        <v>-600</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -2309,13 +2350,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="C109">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -2323,10 +2364,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="B110">
-        <v>-250</v>
+        <v>-4000</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2337,49 +2378,52 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B111">
-        <v>0</v>
+        <v>-15</v>
       </c>
       <c r="C111">
-        <v>-2000</v>
+        <v>-2250</v>
       </c>
       <c r="D111">
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>72</v>
+      </c>
       <c r="B112">
-        <v>0</v>
+        <v>1984</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>-550</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B113">
-        <v>1984</v>
+        <v>0</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>-550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B114">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2390,13 +2434,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B115">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2404,13 +2448,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>11000</v>
+        <v>10500</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2418,38 +2462,38 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B117">
-        <v>0</v>
+        <v>140000</v>
       </c>
       <c r="C117">
-        <v>9500</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B118">
-        <v>135000</v>
+        <v>-170</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>-1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B119">
-        <v>-170</v>
+        <v>-150</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2460,13 +2504,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B120">
-        <v>-150</v>
+        <v>27000</v>
       </c>
       <c r="C120">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="D120">
         <v>0</v>
@@ -2474,13 +2518,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B121">
-        <v>11500</v>
+        <v>527</v>
       </c>
       <c r="C121">
-        <v>3000</v>
+        <v>-198</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -2488,13 +2532,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B122">
-        <v>527</v>
+        <v>-2300</v>
       </c>
       <c r="C122">
-        <v>-198</v>
+        <v>0</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -2502,55 +2546,55 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B123">
-        <v>-2300</v>
+        <v>-5618</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>582</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B124">
-        <v>-4618</v>
+        <v>-13918</v>
       </c>
       <c r="C124">
-        <v>-1368</v>
+        <v>-800</v>
       </c>
       <c r="D124">
-        <v>-600</v>
+        <v>-810</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="B125">
-        <v>-13918</v>
+        <v>0</v>
       </c>
       <c r="C125">
-        <v>-800</v>
+        <v>22316</v>
       </c>
       <c r="D125">
-        <v>-810</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>16231</v>
+        <v>-300</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -2558,38 +2602,38 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>-190</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="B128">
-        <v>0</v>
+        <v>-2500</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128">
-        <v>-190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B129">
-        <v>-2500</v>
+        <v>-3350</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2600,13 +2644,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B130">
-        <v>-3350</v>
+        <v>-925</v>
       </c>
       <c r="C130">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -2614,13 +2658,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B131">
-        <v>-925</v>
+        <v>-200</v>
       </c>
       <c r="C131">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2628,13 +2672,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B132">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>-720</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -2642,13 +2686,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B133">
-        <v>0</v>
+        <v>-15000</v>
       </c>
       <c r="C133">
-        <v>-720</v>
+        <v>12000</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2656,13 +2700,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B134">
-        <v>-15000</v>
+        <v>-830</v>
       </c>
       <c r="C134">
-        <v>15000</v>
+        <v>-94</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -2670,24 +2714,27 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="B135">
-        <v>-830</v>
+        <v>0</v>
       </c>
       <c r="C135">
-        <v>-94</v>
+        <v>-100</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>92</v>
+      </c>
       <c r="B136">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="C136">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -2695,52 +2742,49 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B137">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="C137">
-        <v>-900</v>
+        <v>-937</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>-215</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="B138">
         <v>0</v>
       </c>
       <c r="C138">
-        <v>-937</v>
+        <v>15124</v>
       </c>
       <c r="D138">
-        <v>-215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>118</v>
-      </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="C139">
-        <v>20370</v>
+        <v>0</v>
       </c>
       <c r="D139">
-        <v>-2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B140">
-        <v>-2700</v>
+        <v>-200</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -2751,41 +2795,41 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B141">
-        <v>-297</v>
+        <v>-500</v>
       </c>
       <c r="C141">
-        <v>-25</v>
+        <v>-31414</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>-383</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B142">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="C142">
-        <v>-5628</v>
+        <v>-200</v>
       </c>
       <c r="D142">
-        <v>-383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B143">
-        <v>0</v>
+        <v>-2360</v>
       </c>
       <c r="C143">
-        <v>-200</v>
+        <v>-2100</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -2793,13 +2837,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="B144">
-        <v>-2500</v>
+        <v>-1350</v>
       </c>
       <c r="C144">
-        <v>-8000</v>
+        <v>-2421</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -2807,13 +2851,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B145">
-        <v>-1350</v>
+        <v>-50</v>
       </c>
       <c r="C145">
-        <v>-2421</v>
+        <v>0</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -2821,13 +2865,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B146">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -2835,13 +2879,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="C147">
-        <v>-100</v>
+        <v>-42334</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -2849,52 +2893,55 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B148">
-        <v>1900</v>
+        <v>568360</v>
       </c>
       <c r="C148">
-        <v>-42334</v>
+        <v>-2000</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="B149">
-        <v>555360</v>
+        <v>0</v>
       </c>
       <c r="C149">
-        <v>-7000</v>
+        <v>700</v>
       </c>
       <c r="D149">
-        <v>-300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C150">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>99</v>
+      </c>
+      <c r="B151">
+        <v>0</v>
+      </c>
+      <c r="C151">
         <v>1500</v>
-      </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B151">
-        <v>0</v>
-      </c>
-      <c r="C151">
-        <v>0</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -2902,13 +2949,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
       <c r="C152">
-        <v>1500</v>
+        <v>-200</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -2916,71 +2963,15 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B153">
-        <v>0</v>
+        <v>-1850</v>
       </c>
       <c r="C153">
-        <v>-200</v>
+        <v>-1300</v>
       </c>
       <c r="D153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>120</v>
-      </c>
-      <c r="B154">
-        <v>-1850</v>
-      </c>
-      <c r="C154">
-        <v>-1300</v>
-      </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>141</v>
-      </c>
-      <c r="B155">
-        <v>0</v>
-      </c>
-      <c r="C155">
-        <v>-5000</v>
-      </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>142</v>
-      </c>
-      <c r="B156">
-        <v>-400</v>
-      </c>
-      <c r="C156">
-        <v>0</v>
-      </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>143</v>
-      </c>
-      <c r="B157">
-        <v>-600</v>
-      </c>
-      <c r="C157">
-        <v>-300</v>
-      </c>
-      <c r="D157">
         <v>0</v>
       </c>
     </row>

--- a/excel/k_parties.xlsx
+++ b/excel/k_parties.xlsx
@@ -439,9 +439,6 @@
     <t>أشرف أبو سيدو</t>
   </si>
   <si>
-    <t>صندوق 2 صندوق احمد صندوق 2 صندوق  احــــــــــــــــــــــــــــــمــــــــــــــــد</t>
-  </si>
-  <si>
     <t>نور عبيد</t>
   </si>
   <si>
@@ -470,6 +467,9 @@
   </si>
   <si>
     <t>الست أبو عمرة</t>
+  </si>
+  <si>
+    <t>صندوق 2 صندوق احمد صندوق2 صندوق احـــــــــــمـــــــــــــــــــــــــــــــــــــــــــد</t>
   </si>
 </sst>
 </file>
@@ -841,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F153"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="H146" sqref="H146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -853,7 +853,7 @@
     <col min="2" max="2" width="13.5" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="13.3984375" customWidth="1"/>
-    <col min="5" max="5" width="10.3984375" customWidth="1"/>
+    <col min="5" max="5" width="16.3984375" customWidth="1"/>
     <col min="6" max="6" width="21.19921875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -874,43 +874,29 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>-75</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>-17</v>
-      </c>
-    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>-75</v>
       </c>
       <c r="C3">
-        <v>-2925</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>121</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>-2925</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -918,7 +904,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -932,24 +918,27 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>133</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>-61000</v>
       </c>
-      <c r="C6">
-        <v>42339</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
-        <v>0</v>
+        <v>43789</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -978,11 +967,8 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
       <c r="B10">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -993,13 +979,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>-112460</v>
+        <v>-200</v>
       </c>
       <c r="C11">
-        <v>-8275</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1007,13 +993,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>-127460</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>-8275</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1021,13 +1007,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>-12774</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1035,13 +1021,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="B14">
-        <v>-380</v>
+        <v>-30</v>
       </c>
       <c r="C14">
-        <v>-250</v>
+        <v>-12774</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1049,13 +1035,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-380</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1063,13 +1049,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1077,19 +1063,22 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>-150</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>8</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>0</v>
       </c>
@@ -1101,14 +1090,11 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1116,66 +1102,66 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>-2850</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>28435</v>
+        <v>-300</v>
       </c>
       <c r="D20">
-        <v>66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>-1355</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>15756</v>
+        <v>30000</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22">
+        <v>-2185</v>
+      </c>
+      <c r="C22">
+        <v>6989</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>11</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
         <v>1000</v>
       </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
       <c r="D23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>12</v>
-      </c>
       <c r="B24">
-        <v>-385</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>-4557</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1183,13 +1169,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>-385</v>
       </c>
       <c r="C25">
-        <v>-450</v>
+        <v>-4557</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -1197,13 +1183,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B26">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>-450</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1211,13 +1197,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="C27">
-        <v>-155</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1225,13 +1211,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="B28">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>-155</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1239,13 +1225,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="C29">
-        <v>1435</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1253,13 +1239,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>-285</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>-8220</v>
+        <v>1435</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1267,13 +1253,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31">
-        <v>-44785</v>
+        <v>-285</v>
       </c>
       <c r="C31">
-        <v>11079</v>
+        <v>-8220</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1281,41 +1267,41 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>-44785</v>
       </c>
       <c r="C32">
-        <v>-150004</v>
+        <v>11079</v>
       </c>
       <c r="D32">
-        <v>18522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>147</v>
       </c>
       <c r="B33">
-        <v>32550</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>10000</v>
+        <v>-148553</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>35522</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B34">
-        <v>-1156</v>
+        <v>32550</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1323,13 +1309,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35">
-        <v>-650</v>
+        <v>-1156</v>
       </c>
       <c r="C35">
-        <v>-1635</v>
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1337,13 +1323,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>21</v>
       </c>
       <c r="B36">
-        <v>-378</v>
+        <v>-650</v>
       </c>
       <c r="C36">
-        <v>-300</v>
+        <v>-1635</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1351,13 +1337,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>114</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-378</v>
       </c>
       <c r="C37">
-        <v>-1422</v>
+        <v>-300</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1365,13 +1351,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>-2322</v>
+        <v>-1422</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1379,13 +1365,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B39">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>-2322</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1393,10 +1379,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>134</v>
+        <v>24</v>
       </c>
       <c r="B40">
-        <v>-1570</v>
+        <v>-1000</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1407,36 +1393,39 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>-1570</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
       <c r="D41">
-        <v>-300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>113</v>
       </c>
-      <c r="B42">
+      <c r="B43">
         <v>1000</v>
       </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>0</v>
-      </c>
       <c r="C43">
         <v>0</v>
       </c>
@@ -1445,11 +1434,8 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>33</v>
-      </c>
       <c r="B44">
-        <v>-58970</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1460,13 +1446,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-58970</v>
       </c>
       <c r="C45">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1474,13 +1460,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46">
-        <v>-100</v>
+        <v>-10000</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1488,13 +1474,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
-        <v>7800</v>
+        <v>-100</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1502,13 +1488,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="B48">
-        <v>-800</v>
+        <v>0</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1516,13 +1502,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="C49">
-        <v>-170</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1530,13 +1516,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>-523</v>
+        <v>-170</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1544,38 +1530,38 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>-523</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>29</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>-2500</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>-200</v>
       </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
       <c r="D52">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>30</v>
-      </c>
       <c r="B53">
-        <v>-5000</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <v>65000</v>
+        <v>0</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1583,13 +1569,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>111</v>
+        <v>30</v>
       </c>
       <c r="B54">
-        <v>-200</v>
+        <v>-5000</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>65000</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1597,13 +1583,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="B55">
-        <v>50</v>
+        <v>-200</v>
       </c>
       <c r="C55">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1611,13 +1597,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1625,10 +1611,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B57">
-        <v>-2400</v>
+        <v>0</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1639,41 +1625,41 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="B58">
-        <v>-1862</v>
+        <v>-2400</v>
       </c>
       <c r="C58">
-        <v>-7692</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>5762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>-1862</v>
       </c>
       <c r="C59">
-        <v>-500</v>
+        <v>-7692</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>5462</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>34</v>
+        <v>135</v>
       </c>
       <c r="B60">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="C60">
-        <v>-280</v>
+        <v>-500</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1681,13 +1667,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="B61">
-        <v>-1000</v>
+        <v>500</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>-280</v>
       </c>
       <c r="D61">
         <v>0</v>
@@ -1695,13 +1681,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="C62">
-        <v>-4696</v>
+        <v>0</v>
       </c>
       <c r="D62">
         <v>0</v>
@@ -1709,13 +1695,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B63">
-        <v>-4220</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>1000</v>
+        <v>-4356</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1723,13 +1709,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B64">
-        <v>-600</v>
+        <v>-4220</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="D64">
         <v>0</v>
@@ -1737,13 +1723,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="C65">
-        <v>18700</v>
+        <v>0</v>
       </c>
       <c r="D65">
         <v>0</v>
@@ -1751,27 +1737,27 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="B66">
-        <v>-2200</v>
+        <v>0</v>
       </c>
       <c r="C66">
-        <v>0</v>
+        <v>13670</v>
       </c>
       <c r="D66">
-        <v>-250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="C67">
-        <v>-13000</v>
+        <v>0</v>
       </c>
       <c r="D67">
         <v>0</v>
@@ -1779,13 +1765,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="B68">
-        <v>-2000</v>
+        <v>8000</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>-13000</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1793,13 +1779,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="C69">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="D69">
         <v>0</v>
@@ -1807,13 +1793,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="B70">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -1821,13 +1807,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B71">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="C71">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1835,13 +1821,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B72">
-        <v>-4270</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1849,13 +1835,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>-4270</v>
       </c>
       <c r="C73">
-        <v>-1600</v>
+        <v>0</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1863,13 +1849,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
       <c r="C74">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -1877,13 +1863,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B75">
-        <v>-350</v>
+        <v>0</v>
       </c>
       <c r="C75">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -1891,41 +1877,41 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="B76">
-        <v>-6200</v>
+        <v>-350</v>
       </c>
       <c r="C76">
-        <v>-1200</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>-750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="B77">
-        <v>-80</v>
+        <v>-6200</v>
       </c>
       <c r="C77">
-        <v>-1244</v>
+        <v>-1200</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>-750</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B78">
-        <v>-400</v>
+        <v>-80</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>-1244</v>
       </c>
       <c r="D78">
         <v>0</v>
@@ -1933,13 +1919,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="C79">
-        <v>-122</v>
+        <v>0</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -1947,55 +1933,55 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="B80">
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="C80">
-        <v>-15914</v>
+        <v>-122</v>
       </c>
       <c r="D80">
-        <v>-785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="B81">
-        <v>5000</v>
+        <v>5300</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>-15914</v>
       </c>
       <c r="D81">
-        <v>-1500</v>
+        <v>-785</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B82">
-        <v>-1000</v>
+        <v>4000</v>
       </c>
       <c r="C82">
-        <v>-35000</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B83">
-        <v>-275</v>
+        <v>-1000</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>-35000</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -2003,10 +1989,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-275</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2017,10 +2003,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B85">
-        <v>-1090</v>
+        <v>0</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2031,10 +2017,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>-1090</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2045,10 +2031,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
       <c r="B87">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2059,13 +2045,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="C88">
-        <v>-915</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2073,13 +2059,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B89">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>-915</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -2087,38 +2073,38 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>53</v>
+      </c>
+      <c r="B90">
+        <v>-300</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>54</v>
       </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90">
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91">
         <v>-150</v>
       </c>
-      <c r="D90">
+      <c r="D91">
         <v>50</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91">
-        <v>0</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-    </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>55</v>
-      </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>-615</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2126,13 +2112,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B93">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>791</v>
+        <v>-615</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2140,41 +2126,41 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B94">
-        <v>10400</v>
+        <v>133</v>
       </c>
       <c r="C94">
-        <v>-3750</v>
+        <v>791</v>
       </c>
       <c r="D94">
-        <v>28000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B95">
-        <v>-280</v>
+        <v>10200</v>
       </c>
       <c r="C95">
-        <v>-1500</v>
+        <v>-3750</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>132</v>
+        <v>58</v>
       </c>
       <c r="B96">
-        <v>-50</v>
+        <v>-280</v>
       </c>
       <c r="C96">
-        <v>-2200</v>
+        <v>-1500</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2182,13 +2168,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>59</v>
+        <v>132</v>
       </c>
       <c r="B97">
-        <v>-650</v>
+        <v>-50</v>
       </c>
       <c r="C97">
-        <v>-2781</v>
+        <v>-2200</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2196,41 +2182,41 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B98">
-        <v>0</v>
+        <v>-650</v>
       </c>
       <c r="C98">
-        <v>100</v>
+        <v>-2781</v>
       </c>
       <c r="D98">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B99">
-        <v>6000</v>
+        <v>0</v>
       </c>
       <c r="C99">
-        <v>-30000</v>
+        <v>100</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B100">
-        <v>-1260</v>
+        <v>6000</v>
       </c>
       <c r="C100">
-        <v>125</v>
+        <v>-30000</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -2238,83 +2224,83 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B101">
-        <v>-1000</v>
+        <v>-1260</v>
       </c>
       <c r="C101">
-        <v>-100</v>
+        <v>125</v>
       </c>
       <c r="D101">
-        <v>-40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B102">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B103">
-        <v>237983</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>-23083</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>-400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B104">
-        <v>-200</v>
+        <v>237983</v>
       </c>
       <c r="C104">
-        <v>-8679</v>
+        <v>-23083</v>
       </c>
       <c r="D104">
-        <v>-100</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B105">
-        <v>-550</v>
+        <v>-200</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>-7702</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B106">
-        <v>0</v>
+        <v>-550</v>
       </c>
       <c r="C106">
-        <v>1550</v>
+        <v>0</v>
       </c>
       <c r="D106">
         <v>0</v>
@@ -2322,13 +2308,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B107">
-        <v>8000</v>
+        <v>0</v>
       </c>
       <c r="C107">
-        <v>-2440</v>
+        <v>1550</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -2336,13 +2322,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B108">
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="C108">
-        <v>-600</v>
+        <v>-2440</v>
       </c>
       <c r="D108">
         <v>0</v>
@@ -2350,13 +2336,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B109">
-        <v>-250</v>
+        <v>0</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="D109">
         <v>0</v>
@@ -2364,10 +2350,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="B110">
-        <v>-4000</v>
+        <v>-250</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2378,13 +2364,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B111">
-        <v>-15</v>
+        <v>-4000</v>
       </c>
       <c r="C111">
-        <v>-2250</v>
+        <v>0</v>
       </c>
       <c r="D111">
         <v>0</v>
@@ -2392,38 +2378,38 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="B112">
-        <v>1984</v>
+        <v>0</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>-2250</v>
       </c>
       <c r="D112">
-        <v>-550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B113">
-        <v>0</v>
+        <v>1984</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113">
-        <v>0</v>
+        <v>-550</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B114">
-        <v>-150</v>
+        <v>0</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2434,13 +2420,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B115">
-        <v>0</v>
+        <v>-150</v>
       </c>
       <c r="C115">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="D115">
         <v>0</v>
@@ -2448,13 +2434,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B116">
         <v>0</v>
       </c>
       <c r="C116">
-        <v>10500</v>
+        <v>10000</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2462,38 +2448,38 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B117">
-        <v>140000</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="D117">
-        <v>-1500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B118">
-        <v>-170</v>
+        <v>140000</v>
       </c>
       <c r="C118">
         <v>0</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>-1500</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B119">
-        <v>-150</v>
+        <v>-170</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2504,10 +2490,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B120">
-        <v>27000</v>
+        <v>-150</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2518,13 +2504,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B121">
-        <v>527</v>
+        <v>27000</v>
       </c>
       <c r="C121">
-        <v>-198</v>
+        <v>0</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -2532,13 +2518,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B122">
-        <v>-2300</v>
+        <v>527</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>-198</v>
       </c>
       <c r="D122">
         <v>0</v>
@@ -2546,55 +2532,55 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B123">
-        <v>-5618</v>
+        <v>-2300</v>
       </c>
       <c r="C123">
-        <v>582</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>-600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B124">
-        <v>-13918</v>
+        <v>-6118</v>
       </c>
       <c r="C124">
-        <v>-800</v>
+        <v>582</v>
       </c>
       <c r="D124">
-        <v>-810</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>-13918</v>
       </c>
       <c r="C125">
-        <v>22316</v>
+        <v>-800</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>-810</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="B126">
         <v>0</v>
       </c>
       <c r="C126">
-        <v>-300</v>
+        <v>22316</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -2602,38 +2588,38 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="B127">
         <v>0</v>
       </c>
       <c r="C127">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D127">
-        <v>-190</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="B128">
-        <v>-2500</v>
+        <v>0</v>
       </c>
       <c r="C128">
         <v>0</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>-190</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="B129">
-        <v>-3350</v>
+        <v>-2500</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2644,13 +2630,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B130">
-        <v>-925</v>
+        <v>-3350</v>
       </c>
       <c r="C130">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="D130">
         <v>0</v>
@@ -2658,13 +2644,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B131">
-        <v>-200</v>
+        <v>-925</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -2672,13 +2658,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="C132">
-        <v>-720</v>
+        <v>0</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -2686,13 +2672,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B133">
-        <v>-15000</v>
+        <v>0</v>
       </c>
       <c r="C133">
-        <v>12000</v>
+        <v>-720</v>
       </c>
       <c r="D133">
         <v>0</v>
@@ -2700,13 +2686,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B134">
-        <v>-830</v>
+        <v>23100</v>
       </c>
       <c r="C134">
-        <v>-94</v>
+        <v>0</v>
       </c>
       <c r="D134">
         <v>0</v>
@@ -2714,13 +2700,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="B135">
-        <v>0</v>
+        <v>-830</v>
       </c>
       <c r="C135">
-        <v>-100</v>
+        <v>-94</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -2728,13 +2714,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="B136">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="C136">
-        <v>-900</v>
+        <v>-100</v>
       </c>
       <c r="D136">
         <v>0</v>
@@ -2742,49 +2728,49 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B137">
-        <v>0</v>
+        <v>-1500</v>
       </c>
       <c r="C137">
-        <v>-937</v>
+        <v>-900</v>
       </c>
       <c r="D137">
-        <v>-215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>93</v>
+      </c>
+      <c r="B138">
+        <v>0</v>
+      </c>
+      <c r="C138">
+        <v>-937</v>
+      </c>
+      <c r="D138">
+        <v>-215</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>118</v>
       </c>
-      <c r="B138">
-        <v>0</v>
-      </c>
-      <c r="C138">
+      <c r="B139">
+        <v>0</v>
+      </c>
+      <c r="C139">
         <v>15124</v>
       </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B139">
-        <v>0</v>
-      </c>
-      <c r="C139">
-        <v>0</v>
-      </c>
       <c r="D139">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>124</v>
-      </c>
       <c r="B140">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -2795,41 +2781,41 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B141">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="C141">
-        <v>-31414</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>-383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B142">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="C142">
-        <v>-200</v>
+        <v>-52865</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>-383</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="B143">
-        <v>-2360</v>
+        <v>0</v>
       </c>
       <c r="C143">
-        <v>-2100</v>
+        <v>-200</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -2837,13 +2823,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="B144">
-        <v>-1350</v>
+        <v>-2360</v>
       </c>
       <c r="C144">
-        <v>-2421</v>
+        <v>-2100</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -2851,13 +2837,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B145">
-        <v>-50</v>
+        <v>-1350</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>-2421</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -2865,13 +2851,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="C146">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D146">
         <v>0</v>
@@ -2879,13 +2865,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B147">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="C147">
-        <v>-42334</v>
+        <v>-100</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -2893,41 +2879,41 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B148">
-        <v>568360</v>
+        <v>1900</v>
       </c>
       <c r="C148">
-        <v>-2000</v>
+        <v>-42334</v>
       </c>
       <c r="D148">
-        <v>-100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>570360</v>
       </c>
       <c r="C149">
-        <v>700</v>
+        <v>-2000</v>
       </c>
       <c r="D149">
-        <v>0</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="B150">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -2935,13 +2921,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="B151">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="C151">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="D151">
         <v>0</v>
@@ -2949,13 +2935,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="B152">
         <v>0</v>
       </c>
       <c r="C152">
-        <v>-200</v>
+        <v>1500</v>
       </c>
       <c r="D152">
         <v>0</v>
@@ -2963,15 +2949,29 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>127</v>
+      </c>
+      <c r="B153">
+        <v>0</v>
+      </c>
+      <c r="C153">
+        <v>-200</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>120</v>
       </c>
-      <c r="B153">
+      <c r="B154">
         <v>-1850</v>
       </c>
-      <c r="C153">
+      <c r="C154">
         <v>-1300</v>
       </c>
-      <c r="D153">
+      <c r="D154">
         <v>0</v>
       </c>
     </row>

--- a/excel/k_parties.xlsx
+++ b/excel/k_parties.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>بنك فلسطين</t>
   </si>
@@ -40,9 +40,6 @@
     <t>بالستينين كلاود</t>
   </si>
   <si>
-    <t xml:space="preserve">طارق اللقطة  </t>
-  </si>
-  <si>
     <t>أبو حليمة</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>الفار 100</t>
   </si>
   <si>
-    <t>أحمد خليل</t>
-  </si>
-  <si>
     <t>أيهاب الريس</t>
   </si>
   <si>
@@ -352,9 +346,6 @@
     <t>ابو عرفا سكيك</t>
   </si>
   <si>
-    <t xml:space="preserve"> أبو جهاد عاشور</t>
-  </si>
-  <si>
     <t>ساعد</t>
   </si>
   <si>
@@ -445,9 +436,6 @@
     <t>اياد الريس</t>
   </si>
   <si>
-    <t>سرحان قويدر</t>
-  </si>
-  <si>
     <t>عياد دخان</t>
   </si>
   <si>
@@ -466,10 +454,34 @@
     <t>شـحاتة بـنك</t>
   </si>
   <si>
-    <t>الست أبو عمرة</t>
-  </si>
-  <si>
-    <t>صندوق 2 صندوق احمد صندوق2 صندوق احـــــــــــمـــــــــــــــــــــــــــــــــــــــــــد</t>
+    <t>اسامه استثمار ابو طويله</t>
+  </si>
+  <si>
+    <t>أبو فادي أبو سيو</t>
+  </si>
+  <si>
+    <t>جهاد أبو حليمة</t>
+  </si>
+  <si>
+    <t>صندوق 2 صندوق احمد صندوق2 صندزق احـــــــــــــــمــــــــــــــــــــــــــــــــد</t>
+  </si>
+  <si>
+    <t>كافور للعطور</t>
+  </si>
+  <si>
+    <t>أياد الريس</t>
+  </si>
+  <si>
+    <t>أبو مفيد 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">أبو أو حطب </t>
+  </si>
+  <si>
+    <t>أبو مفيد وأبو طويلة</t>
+  </si>
+  <si>
+    <t>صوان</t>
   </si>
 </sst>
 </file>
@@ -843,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="H146" sqref="H146"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A161" sqref="A161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -859,19 +871,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>101</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>102</v>
-      </c>
-      <c r="E1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -890,13 +902,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="C4">
-        <v>-2925</v>
+        <v>-3125</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -918,7 +930,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -932,24 +944,27 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B7">
         <v>-61000</v>
       </c>
       <c r="C7">
-        <v>43789</v>
+        <v>6589</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>142</v>
+      </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -996,19 +1011,16 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>-127460</v>
+        <v>-600</v>
       </c>
       <c r="C12">
-        <v>-8275</v>
+        <v>-15425</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
       <c r="B13">
         <v>0</v>
       </c>
@@ -1021,7 +1033,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>-30</v>
@@ -1035,7 +1047,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B15">
         <v>-380</v>
@@ -1049,7 +1061,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1063,7 +1075,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1077,7 +1089,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1090,8 +1102,11 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>143</v>
+      </c>
       <c r="B19">
-        <v>0</v>
+        <v>42163</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1102,7 +1117,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1116,13 +1131,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
       <c r="C21">
-        <v>30000</v>
+        <v>5000</v>
       </c>
       <c r="D21">
         <v>66</v>
@@ -1130,13 +1145,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B22">
-        <v>-2185</v>
+        <v>-3195</v>
       </c>
       <c r="C22">
-        <v>6989</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1144,7 +1159,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,11 +1172,14 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>144</v>
+      </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1169,7 +1187,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>-385</v>
@@ -1183,7 +1201,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1197,7 +1215,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27">
         <v>-1500</v>
@@ -1211,7 +1229,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1225,7 +1243,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B29">
         <v>-500</v>
@@ -1234,12 +1252,12 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>-2500</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1253,7 +1271,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B31">
         <v>-285</v>
@@ -1267,13 +1285,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32">
-        <v>-44785</v>
+        <v>-29385</v>
       </c>
       <c r="C32">
-        <v>11079</v>
+        <v>7079</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1281,27 +1299,27 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>-148553</v>
+        <v>-133562</v>
       </c>
       <c r="D33">
-        <v>35522</v>
+        <v>26522</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34">
-        <v>32550</v>
+        <v>70600</v>
       </c>
       <c r="C34">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1309,7 +1327,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B35">
         <v>-1156</v>
@@ -1323,7 +1341,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B36">
         <v>-650</v>
@@ -1337,13 +1355,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B37">
         <v>-378</v>
       </c>
       <c r="C37">
-        <v>-300</v>
+        <v>-700</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1351,7 +1369,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1365,7 +1383,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1379,7 +1397,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40">
         <v>-1000</v>
@@ -1393,10 +1411,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B41">
-        <v>-1570</v>
+        <v>-570</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1407,7 +1425,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1421,10 +1439,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B43">
-        <v>1000</v>
+        <v>-400</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1446,13 +1464,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45">
-        <v>-58970</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>-430</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1460,7 +1478,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1474,7 +1492,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1488,13 +1506,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
-        <v>7800</v>
+        <v>6800</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1502,7 +1520,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49">
         <v>-800</v>
@@ -1516,7 +1534,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1530,7 +1548,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1544,7 +1562,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B52">
         <v>-2500</v>
@@ -1569,13 +1587,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54">
         <v>-5000</v>
       </c>
       <c r="C54">
-        <v>65000</v>
+        <v>64000</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1583,7 +1601,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B55">
         <v>-200</v>
@@ -1597,7 +1615,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B56">
         <v>50</v>
@@ -1611,7 +1629,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1620,15 +1638,15 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>-180</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B58">
-        <v>-2400</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1639,7 +1657,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B59">
         <v>-1862</v>
@@ -1653,7 +1671,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1667,7 +1685,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B61">
         <v>500</v>
@@ -1681,7 +1699,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B62">
         <v>-1000</v>
@@ -1695,13 +1713,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B63">
         <v>0</v>
       </c>
       <c r="C63">
-        <v>-4356</v>
+        <v>-4417</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1709,7 +1727,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B64">
         <v>-4220</v>
@@ -1723,7 +1741,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B65">
         <v>-600</v>
@@ -1737,13 +1755,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>13670</v>
+        <v>-1980</v>
       </c>
       <c r="D66">
         <v>0</v>
@@ -1751,10 +1769,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B67">
-        <v>-2200</v>
+        <v>-2700</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1765,13 +1783,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B68">
-        <v>8000</v>
+        <v>-22600</v>
       </c>
       <c r="C68">
-        <v>-13000</v>
+        <v>0</v>
       </c>
       <c r="D68">
         <v>0</v>
@@ -1779,10 +1797,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B69">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1793,7 +1811,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1807,7 +1825,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B71">
         <v>-700</v>
@@ -1821,7 +1839,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -1835,7 +1853,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B73">
         <v>-4270</v>
@@ -1849,7 +1867,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -1863,7 +1881,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -1877,7 +1895,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B76">
         <v>-350</v>
@@ -1891,7 +1909,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B77">
         <v>-6200</v>
@@ -1905,7 +1923,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B78">
         <v>-80</v>
@@ -1919,7 +1937,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B79">
         <v>-400</v>
@@ -1933,7 +1951,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -1947,35 +1965,35 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B81">
-        <v>5300</v>
+        <v>163</v>
       </c>
       <c r="C81">
-        <v>-15914</v>
+        <v>-12610</v>
       </c>
       <c r="D81">
-        <v>-785</v>
+        <v>-2507</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B82">
-        <v>4000</v>
+        <v>-5500</v>
       </c>
       <c r="C82">
         <v>0</v>
       </c>
       <c r="D82">
-        <v>-1500</v>
+        <v>-157</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B83">
         <v>-1000</v>
@@ -1989,7 +2007,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B84">
         <v>-275</v>
@@ -2003,7 +2021,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -2017,7 +2035,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B86">
         <v>-1090</v>
@@ -2031,7 +2049,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -2045,13 +2063,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B88">
         <v>-200</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2059,7 +2077,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -2073,7 +2091,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B90">
         <v>-300</v>
@@ -2087,7 +2105,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -2100,11 +2118,14 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>148</v>
+      </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>9625</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2112,7 +2133,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -2126,7 +2147,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B94">
         <v>133</v>
@@ -2140,13 +2161,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B95">
-        <v>10200</v>
+        <v>9000</v>
       </c>
       <c r="C95">
-        <v>-3750</v>
+        <v>-4600</v>
       </c>
       <c r="D95">
         <v>28000</v>
@@ -2154,7 +2175,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B96">
         <v>-280</v>
@@ -2168,13 +2189,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B97">
         <v>-50</v>
       </c>
       <c r="C97">
-        <v>-2200</v>
+        <v>-1900</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2182,7 +2203,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B98">
         <v>-650</v>
@@ -2196,7 +2217,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2205,12 +2226,12 @@
         <v>100</v>
       </c>
       <c r="D99">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B100">
         <v>6000</v>
@@ -2224,7 +2245,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B101">
         <v>-1260</v>
@@ -2238,7 +2259,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B102">
         <v>-1000</v>
@@ -2252,7 +2273,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2266,13 +2287,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B104">
-        <v>237983</v>
+        <v>237783</v>
       </c>
       <c r="C104">
-        <v>-23083</v>
+        <v>-23183</v>
       </c>
       <c r="D104">
         <v>-400</v>
@@ -2280,13 +2301,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B105">
         <v>-200</v>
       </c>
       <c r="C105">
-        <v>-7702</v>
+        <v>-17228</v>
       </c>
       <c r="D105">
         <v>-100</v>
@@ -2294,7 +2315,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B106">
         <v>-550</v>
@@ -2308,7 +2329,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -2322,7 +2343,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B108">
         <v>8000</v>
@@ -2336,7 +2357,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -2350,7 +2371,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B110">
         <v>-250</v>
@@ -2364,7 +2385,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B111">
         <v>-4000</v>
@@ -2378,13 +2399,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>-50660</v>
       </c>
       <c r="C112">
-        <v>-2250</v>
+        <v>-8</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -2392,7 +2413,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B113">
         <v>1984</v>
@@ -2406,7 +2427,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -2420,7 +2441,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B115">
         <v>-150</v>
@@ -2434,7 +2455,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -2448,13 +2469,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B117">
         <v>0</v>
       </c>
       <c r="C117">
-        <v>10500</v>
+        <v>300</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2462,10 +2483,10 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B118">
-        <v>140000</v>
+        <v>137000</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2476,7 +2497,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B119">
         <v>-170</v>
@@ -2490,7 +2511,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B120">
         <v>-150</v>
@@ -2504,13 +2525,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B121">
-        <v>27000</v>
+        <v>26050</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>-3000</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -2518,7 +2539,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B122">
         <v>527</v>
@@ -2532,7 +2553,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B123">
         <v>-2300</v>
@@ -2546,13 +2567,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B124">
-        <v>-6118</v>
+        <v>-7118</v>
       </c>
       <c r="C124">
-        <v>582</v>
+        <v>182</v>
       </c>
       <c r="D124">
         <v>-600</v>
@@ -2560,7 +2581,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B125">
         <v>-13918</v>
@@ -2574,7 +2595,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -2588,7 +2609,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -2602,7 +2623,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -2616,13 +2637,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="B129">
-        <v>-2500</v>
+        <v>0</v>
       </c>
       <c r="C129">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -2630,10 +2651,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B130">
-        <v>-3350</v>
+        <v>-2550</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2644,7 +2665,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B131">
         <v>-925</v>
@@ -2658,7 +2679,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B132">
         <v>-200</v>
@@ -2672,7 +2693,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -2686,10 +2707,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B134">
-        <v>23100</v>
+        <v>13100</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2700,7 +2721,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B135">
         <v>-830</v>
@@ -2714,7 +2735,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -2728,7 +2749,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B137">
         <v>-1500</v>
@@ -2742,7 +2763,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -2756,24 +2777,27 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B139">
         <v>0</v>
       </c>
       <c r="C139">
-        <v>15124</v>
+        <v>12124</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>150</v>
+      </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="C140">
-        <v>0</v>
+        <v>-7157</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -2781,7 +2805,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B141">
         <v>-200</v>
@@ -2795,13 +2819,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B142">
         <v>-500</v>
       </c>
       <c r="C142">
-        <v>-52865</v>
+        <v>-51321</v>
       </c>
       <c r="D142">
         <v>-383</v>
@@ -2809,7 +2833,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -2823,13 +2847,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B144">
-        <v>-2360</v>
+        <v>-3820</v>
       </c>
       <c r="C144">
-        <v>-2100</v>
+        <v>-1650</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -2837,7 +2861,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B145">
         <v>-1350</v>
@@ -2851,7 +2875,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B146">
         <v>-50</v>
@@ -2865,7 +2889,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -2879,13 +2903,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B148">
         <v>1900</v>
       </c>
       <c r="C148">
-        <v>-42334</v>
+        <v>-30834</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -2893,10 +2917,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B149">
-        <v>570360</v>
+        <v>567360</v>
       </c>
       <c r="C149">
         <v>-2000</v>
@@ -2907,13 +2931,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B150">
         <v>0</v>
       </c>
       <c r="C150">
-        <v>700</v>
+        <v>58200</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -2921,10 +2945,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B151">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -2935,7 +2959,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -2949,7 +2973,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -2963,7 +2987,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B154">
         <v>-1850</v>

--- a/excel/k_parties.xlsx
+++ b/excel/k_parties.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>بنك فلسطين</t>
   </si>
@@ -400,15 +400,9 @@
     <t>أبو يعقوب لظن</t>
   </si>
   <si>
-    <t xml:space="preserve">منيب أبو سيد </t>
-  </si>
-  <si>
     <t>عبد الله المصري</t>
   </si>
   <si>
-    <t>الرنتيسي</t>
-  </si>
-  <si>
     <t>أنور بنك القاهرة عمان</t>
   </si>
   <si>
@@ -430,12 +424,6 @@
     <t>أشرف أبو سيدو</t>
   </si>
   <si>
-    <t>نور عبيد</t>
-  </si>
-  <si>
-    <t>اياد الريس</t>
-  </si>
-  <si>
     <t>عياد دخان</t>
   </si>
   <si>
@@ -454,34 +442,34 @@
     <t>شـحاتة بـنك</t>
   </si>
   <si>
-    <t>اسامه استثمار ابو طويله</t>
-  </si>
-  <si>
-    <t>أبو فادي أبو سيو</t>
-  </si>
-  <si>
     <t>جهاد أبو حليمة</t>
   </si>
   <si>
-    <t>صندوق 2 صندوق احمد صندوق2 صندزق احـــــــــــــــمــــــــــــــــــــــــــــــــد</t>
-  </si>
-  <si>
     <t>كافور للعطور</t>
   </si>
   <si>
-    <t>أياد الريس</t>
-  </si>
-  <si>
     <t>أبو مفيد 2</t>
   </si>
   <si>
-    <t xml:space="preserve">أبو أو حطب </t>
-  </si>
-  <si>
     <t>أبو مفيد وأبو طويلة</t>
   </si>
   <si>
     <t>صوان</t>
+  </si>
+  <si>
+    <t>أبو فادي أبو سيدو</t>
+  </si>
+  <si>
+    <t>صندوق 2 صندوق احمد صندوق2 صندوق احــــــــــــــــــــــمـــــــــــــــــــــــــد</t>
+  </si>
+  <si>
+    <t>الزهارنة ألمنيوم</t>
+  </si>
+  <si>
+    <t>حمادة للصرافة</t>
+  </si>
+  <si>
+    <t>منيب أبو سيدو</t>
   </si>
 </sst>
 </file>
@@ -855,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="A161" sqref="A161"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -905,7 +893,7 @@
         <v>118</v>
       </c>
       <c r="B4">
-        <v>-1900</v>
+        <v>-2100</v>
       </c>
       <c r="C4">
         <v>-3125</v>
@@ -944,7 +932,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B7">
         <v>-61000</v>
@@ -957,14 +945,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>142</v>
-      </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-10000</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1011,10 +996,10 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>-600</v>
+        <v>-9800</v>
       </c>
       <c r="C12">
-        <v>-15425</v>
+        <v>-20325</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1078,7 +1063,7 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-580</v>
       </c>
       <c r="C17">
         <v>-150</v>
@@ -1148,7 +1133,7 @@
         <v>107</v>
       </c>
       <c r="B22">
-        <v>-3195</v>
+        <v>-2800</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1173,7 +1158,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1243,10 +1228,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B29">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1299,16 +1284,16 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B33">
         <v>0</v>
       </c>
       <c r="C33">
-        <v>-133562</v>
+        <v>-166228</v>
       </c>
       <c r="D33">
-        <v>26522</v>
+        <v>26722</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1316,10 +1301,10 @@
         <v>18</v>
       </c>
       <c r="B34">
-        <v>70600</v>
+        <v>69000</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1411,7 +1396,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B41">
         <v>-570</v>
@@ -1467,10 +1452,10 @@
         <v>32</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-117657</v>
       </c>
       <c r="C45">
-        <v>-430</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1506,7 +1491,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1575,11 +1560,14 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>145</v>
+      </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>0</v>
+        <v>-5263</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1593,7 +1581,7 @@
         <v>-5000</v>
       </c>
       <c r="C54">
-        <v>64000</v>
+        <v>79100</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1629,7 +1617,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1642,9 +1630,6 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>135</v>
-      </c>
       <c r="B58">
         <v>0</v>
       </c>
@@ -1663,7 +1648,7 @@
         <v>-1862</v>
       </c>
       <c r="C59">
-        <v>-7692</v>
+        <v>-7592</v>
       </c>
       <c r="D59">
         <v>5462</v>
@@ -1671,7 +1656,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -1719,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>-4417</v>
+        <v>-4441</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1754,25 +1739,19 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>134</v>
-      </c>
       <c r="B66">
         <v>0</v>
       </c>
       <c r="C66">
-        <v>-1980</v>
+        <v>0</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>147</v>
-      </c>
       <c r="B67">
-        <v>-2700</v>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1783,10 +1762,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B68">
-        <v>-22600</v>
+        <v>-100</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1796,9 +1775,6 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>126</v>
-      </c>
       <c r="B69">
         <v>0</v>
       </c>
@@ -1811,7 +1787,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1915,7 +1891,7 @@
         <v>-6200</v>
       </c>
       <c r="C77">
-        <v>-1200</v>
+        <v>-300</v>
       </c>
       <c r="D77">
         <v>-750</v>
@@ -1971,7 +1947,7 @@
         <v>163</v>
       </c>
       <c r="C81">
-        <v>-12610</v>
+        <v>-9110</v>
       </c>
       <c r="D81">
         <v>-2507</v>
@@ -1982,10 +1958,10 @@
         <v>45</v>
       </c>
       <c r="B82">
-        <v>-5500</v>
+        <v>-5000</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="D82">
         <v>-157</v>
@@ -2058,12 +2034,12 @@
         <v>0</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>-600</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B88">
         <v>-200</v>
@@ -2119,13 +2095,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>9625</v>
+        <v>-375</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2189,13 +2165,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B97">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="C97">
-        <v>-1900</v>
+        <v>-1200</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2290,10 +2266,10 @@
         <v>63</v>
       </c>
       <c r="B104">
-        <v>237783</v>
+        <v>237483</v>
       </c>
       <c r="C104">
-        <v>-23183</v>
+        <v>-23283</v>
       </c>
       <c r="D104">
         <v>-400</v>
@@ -2307,7 +2283,7 @@
         <v>-200</v>
       </c>
       <c r="C105">
-        <v>-17228</v>
+        <v>-15445</v>
       </c>
       <c r="D105">
         <v>-100</v>
@@ -2385,7 +2361,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B111">
         <v>-4000</v>
@@ -2399,7 +2375,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B112">
         <v>-50660</v>
@@ -2475,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D117">
         <v>0</v>
@@ -2486,7 +2462,7 @@
         <v>75</v>
       </c>
       <c r="B118">
-        <v>137000</v>
+        <v>136000</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2570,13 +2546,13 @@
         <v>81</v>
       </c>
       <c r="B124">
-        <v>-7118</v>
+        <v>-1418</v>
       </c>
       <c r="C124">
-        <v>182</v>
+        <v>-118</v>
       </c>
       <c r="D124">
-        <v>-600</v>
+        <v>-350</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -2623,7 +2599,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -2637,13 +2613,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B129">
-        <v>0</v>
+        <v>-37600</v>
       </c>
       <c r="C129">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="D129">
         <v>0</v>
@@ -2735,7 +2711,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -2791,7 +2767,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -2825,7 +2801,7 @@
         <v>-500</v>
       </c>
       <c r="C142">
-        <v>-51321</v>
+        <v>-67045</v>
       </c>
       <c r="D142">
         <v>-383</v>
@@ -2847,13 +2823,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B144">
-        <v>-3820</v>
+        <v>-3920</v>
       </c>
       <c r="C144">
-        <v>-1650</v>
+        <v>-750</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -2909,7 +2885,7 @@
         <v>1900</v>
       </c>
       <c r="C148">
-        <v>-30834</v>
+        <v>-19001</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -2920,10 +2896,10 @@
         <v>96</v>
       </c>
       <c r="B149">
-        <v>567360</v>
+        <v>570360</v>
       </c>
       <c r="C149">
-        <v>-2000</v>
+        <v>-1500</v>
       </c>
       <c r="D149">
         <v>-100</v>
@@ -2934,10 +2910,10 @@
         <v>116</v>
       </c>
       <c r="B150">
-        <v>0</v>
+        <v>-1602</v>
       </c>
       <c r="C150">
-        <v>58200</v>
+        <v>54200</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -2945,7 +2921,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B151">
         <v>-200</v>
@@ -2973,7 +2949,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="B153">
         <v>0</v>

--- a/excel/k_parties.xlsx
+++ b/excel/k_parties.xlsx
@@ -421,15 +421,6 @@
     <t>منير علي حسن</t>
   </si>
   <si>
-    <t>أشرف أبو سيدو</t>
-  </si>
-  <si>
-    <t>عياد دخان</t>
-  </si>
-  <si>
-    <t>جهاد الريس</t>
-  </si>
-  <si>
     <t>يوسف الغمري</t>
   </si>
   <si>
@@ -448,28 +439,37 @@
     <t>كافور للعطور</t>
   </si>
   <si>
-    <t>أبو مفيد 2</t>
-  </si>
-  <si>
-    <t>أبو مفيد وأبو طويلة</t>
-  </si>
-  <si>
     <t>صوان</t>
   </si>
   <si>
     <t>أبو فادي أبو سيدو</t>
   </si>
   <si>
-    <t>صندوق 2 صندوق احمد صندوق2 صندوق احــــــــــــــــــــــمـــــــــــــــــــــــــد</t>
-  </si>
-  <si>
     <t>الزهارنة ألمنيوم</t>
   </si>
   <si>
-    <t>حمادة للصرافة</t>
-  </si>
-  <si>
     <t>منيب أبو سيدو</t>
+  </si>
+  <si>
+    <t>حمودة ساعد</t>
+  </si>
+  <si>
+    <t>صندوق2 صندوق احمد صندوق 2 صندوق احـــــــــــــــــــــــــــــمــــــــــــــــــــــــــــــد</t>
+  </si>
+  <si>
+    <t>أبو تامر عزام</t>
+  </si>
+  <si>
+    <t>عماد أبو سيدو</t>
+  </si>
+  <si>
+    <t>الرنتيسي</t>
+  </si>
+  <si>
+    <t>أياد الريس</t>
+  </si>
+  <si>
+    <t>رماح الريس</t>
   </si>
 </sst>
 </file>
@@ -844,7 +844,7 @@
   <dimension ref="A1:F154"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -893,7 +893,7 @@
         <v>118</v>
       </c>
       <c r="B4">
-        <v>-2100</v>
+        <v>-2850</v>
       </c>
       <c r="C4">
         <v>-3125</v>
@@ -996,21 +996,24 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>-9800</v>
+        <v>-51593</v>
       </c>
       <c r="C12">
-        <v>-20325</v>
+        <v>-7976</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>141</v>
+      </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1088,7 +1091,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B19">
         <v>42163</v>
@@ -1122,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5000</v>
+        <v>-12000</v>
       </c>
       <c r="D21">
         <v>66</v>
@@ -1133,7 +1136,7 @@
         <v>107</v>
       </c>
       <c r="B22">
-        <v>-2800</v>
+        <v>-2580</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1158,13 +1161,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
       <c r="C24">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -1227,9 +1230,6 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>131</v>
-      </c>
       <c r="B29">
         <v>0</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="D29">
-        <v>-2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1435</v>
+        <v>6435</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1284,16 +1284,16 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>-20490</v>
       </c>
       <c r="C33">
-        <v>-166228</v>
+        <v>-225805</v>
       </c>
       <c r="D33">
-        <v>26722</v>
+        <v>21552</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1301,10 +1301,10 @@
         <v>18</v>
       </c>
       <c r="B34">
-        <v>69000</v>
+        <v>2500</v>
       </c>
       <c r="C34">
-        <v>-1000</v>
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>-1422</v>
+        <v>-5002</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>110</v>
       </c>
       <c r="B43">
-        <v>-400</v>
+        <v>-1685</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1437,11 +1437,14 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>143</v>
+      </c>
       <c r="B44">
-        <v>0</v>
+        <v>-47</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>-124</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1550,7 +1553,7 @@
         <v>28</v>
       </c>
       <c r="B52">
-        <v>-2500</v>
+        <v>-7500</v>
       </c>
       <c r="C52">
         <v>-200</v>
@@ -1561,7 +1564,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1581,7 +1584,7 @@
         <v>-5000</v>
       </c>
       <c r="C54">
-        <v>79100</v>
+        <v>86000</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1617,7 +1620,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1626,15 +1629,18 @@
         <v>0</v>
       </c>
       <c r="D57">
-        <v>-180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>144</v>
+      </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>-480</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1651,7 +1657,7 @@
         <v>-7592</v>
       </c>
       <c r="D59">
-        <v>5462</v>
+        <v>10632</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -1739,8 +1745,11 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>145</v>
+      </c>
       <c r="B66">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1750,8 +1759,11 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>146</v>
+      </c>
       <c r="B67">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1762,10 +1774,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B68">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1832,7 +1844,7 @@
         <v>39</v>
       </c>
       <c r="B73">
-        <v>-4270</v>
+        <v>-2000</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1944,10 +1956,10 @@
         <v>120</v>
       </c>
       <c r="B81">
-        <v>163</v>
+        <v>5000</v>
       </c>
       <c r="C81">
-        <v>-9110</v>
+        <v>-21360</v>
       </c>
       <c r="D81">
         <v>-2507</v>
@@ -1958,7 +1970,7 @@
         <v>45</v>
       </c>
       <c r="B82">
-        <v>-5000</v>
+        <v>-6500</v>
       </c>
       <c r="C82">
         <v>-900</v>
@@ -2038,14 +2050,11 @@
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>133</v>
-      </c>
       <c r="B88">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="C88">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="D88">
         <v>0</v>
@@ -2094,14 +2103,11 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>140</v>
-      </c>
       <c r="B92">
         <v>0</v>
       </c>
       <c r="C92">
-        <v>-375</v>
+        <v>0</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2140,7 +2146,7 @@
         <v>55</v>
       </c>
       <c r="B95">
-        <v>9000</v>
+        <v>6550</v>
       </c>
       <c r="C95">
         <v>-4600</v>
@@ -2171,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>-1200</v>
+        <v>-900</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -2269,7 +2275,7 @@
         <v>237483</v>
       </c>
       <c r="C104">
-        <v>-23283</v>
+        <v>-23483</v>
       </c>
       <c r="D104">
         <v>-400</v>
@@ -2283,7 +2289,7 @@
         <v>-200</v>
       </c>
       <c r="C105">
-        <v>-15445</v>
+        <v>-14783</v>
       </c>
       <c r="D105">
         <v>-100</v>
@@ -2361,7 +2367,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B111">
         <v>-4000</v>
@@ -2375,13 +2381,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B112">
-        <v>-50660</v>
+        <v>21810</v>
       </c>
       <c r="C112">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="D112">
         <v>0</v>
@@ -2437,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>10000</v>
+        <v>9000</v>
       </c>
       <c r="D116">
         <v>0</v>
@@ -2451,10 +2457,10 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>100</v>
+        <v>8000</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>720</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2462,7 +2468,7 @@
         <v>75</v>
       </c>
       <c r="B118">
-        <v>136000</v>
+        <v>140000</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2504,7 +2510,7 @@
         <v>78</v>
       </c>
       <c r="B121">
-        <v>26050</v>
+        <v>24000</v>
       </c>
       <c r="C121">
         <v>-3000</v>
@@ -2549,7 +2555,7 @@
         <v>-1418</v>
       </c>
       <c r="C124">
-        <v>-118</v>
+        <v>-2318</v>
       </c>
       <c r="D124">
         <v>-350</v>
@@ -2577,7 +2583,7 @@
         <v>0</v>
       </c>
       <c r="C126">
-        <v>22316</v>
+        <v>24447</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -2612,11 +2618,8 @@
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>132</v>
-      </c>
       <c r="B129">
-        <v>-37600</v>
+        <v>0</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2686,7 +2689,7 @@
         <v>88</v>
       </c>
       <c r="B134">
-        <v>13100</v>
+        <v>500</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2711,7 +2714,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -2720,7 +2723,7 @@
         <v>-100</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -2759,21 +2762,18 @@
         <v>0</v>
       </c>
       <c r="C139">
-        <v>12124</v>
+        <v>10534</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>141</v>
-      </c>
       <c r="B140">
         <v>0</v>
       </c>
       <c r="C140">
-        <v>-7157</v>
+        <v>0</v>
       </c>
       <c r="D140">
         <v>0</v>
@@ -2798,10 +2798,10 @@
         <v>122</v>
       </c>
       <c r="B142">
-        <v>-500</v>
+        <v>-193500</v>
       </c>
       <c r="C142">
-        <v>-67045</v>
+        <v>-57647</v>
       </c>
       <c r="D142">
         <v>-383</v>
@@ -2823,13 +2823,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B144">
-        <v>-3920</v>
+        <v>-4800</v>
       </c>
       <c r="C144">
-        <v>-750</v>
+        <v>-1488</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -2896,7 +2896,7 @@
         <v>96</v>
       </c>
       <c r="B149">
-        <v>570360</v>
+        <v>568360</v>
       </c>
       <c r="C149">
         <v>-1500</v>
@@ -2910,10 +2910,10 @@
         <v>116</v>
       </c>
       <c r="B150">
-        <v>-1602</v>
+        <v>-22380</v>
       </c>
       <c r="C150">
-        <v>54200</v>
+        <v>104200</v>
       </c>
       <c r="D150">
         <v>0</v>
@@ -2921,10 +2921,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B151">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -2949,7 +2949,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B153">
         <v>0</v>
